--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,292 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="332" uniqueCount="332">
   <si>
-    <t>整型数据类型</t>
+    <t>数值数据类型</t>
   </si>
   <si>
     <t>TINYINT</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnLength&lt;3&amp;&amp;columnScale==0
-INT1
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;6&amp;&amp;columnScale==0
-INT2</t>
-  </si>
-  <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;9&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0
-INT4</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>INTEGER</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
-  </si>
-  <si>
-    <t>浮点数据类型</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>FLOAT4</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(精度,标度)</t>
-  </si>
-  <si>
-    <t>NUMBER
-REAL
-NUMERIC</t>
-  </si>
-  <si>
-    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
-  </si>
-  <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
-    <t>BIT(精度)</t>
-  </si>
-  <si>
-    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
-  </si>
-  <si>
-    <t>字符数据类型</t>
-  </si>
-  <si>
-    <t>CHAR(长度)</t>
-  </si>
-  <si>
-    <t>NCHAR
-CHARACTER</t>
-  </si>
-  <si>
-    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>VARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
-    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>0-255 bytes 短文本字符串</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>CLOB
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 长文本数据</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	中等长度文本数据</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	极大文本数据</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
-    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度)</t>
-  </si>
-  <si>
-    <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>BFILE
-RAW
-BYTEA</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
-  </si>
-  <si>
-    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>1 bytes 1901/2155 YYYY 年份值</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>枚举数据类型</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
-  </si>
-  <si>
-    <t>数值数据类型</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;3&amp;&amp;columnScale==0
-BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
-  </si>
-  <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>INT1</t>
@@ -340,6 +75,9 @@
     <t>SERIAL</t>
   </si>
   <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
     <t>FLOAT8</t>
   </si>
   <si>
@@ -348,11 +86,33 @@
 DOUBLE PRECISION</t>
   </si>
   <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
+    <t>NCHAR
+CHARACTER</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
+  </si>
+  <si>
     <t>VARCHAR2
 NVARCHAR2</t>
   </si>
   <si>
     <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
   </si>
   <si>
     <t>CLOB</t>
@@ -369,6 +129,9 @@
 LONGVARCHAR</t>
   </si>
   <si>
+    <t>BLOB</t>
+  </si>
+  <si>
     <t>BINARY
 VARBINARY
 TINYBLOB
@@ -381,6 +144,21 @@
   </si>
   <si>
     <t>BFILE</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>YEAR
@@ -406,10 +184,25 @@
     <t>BOOLEAN</t>
   </si>
   <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>整型数据类型</t>
+  </si>
+  <si>
     <t>整数 -2,147,483,647 至 2,147,483,647</t>
   </si>
   <si>
+    <t>浮点数据类型</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
     <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
   </si>
   <si>
     <t>DECIMAL(p,s)</t>
@@ -439,13 +232,282 @@
     <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
     <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+  </si>
+  <si>
+    <t>NUMERIC( 精度 , 标度)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>精度是一个无符号整数，定义了总的数字数，精度范围是 1~38 ，标度定义了小数点右边的数字位数，一个数的标度不应大于其精度</t>
+  </si>
+  <si>
+    <t>NUMBER(精度 , 标度)</t>
+  </si>
+  <si>
+    <t>DECIMAL( 精度 , 标度)</t>
+  </si>
+  <si>
+    <t>DEC( 精度 , 标度)</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>BIT 类型用于存储整数数据 1、0 或 NULL</t>
+  </si>
+  <si>
+    <t>MEDIUMINT
+INT4</t>
+  </si>
+  <si>
+    <t>用于存储有符号整数，精度为 10，标度为 0。取值范围为：-2147483648(-2^31)～+2147483647(2^31-1)</t>
+  </si>
+  <si>
+    <t>PLS_INTEGER</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
+  </si>
+  <si>
+    <t>INT1
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
+  </si>
+  <si>
+    <t>BINARY(长度 )</t>
+  </si>
+  <si>
+    <t>BINARY 数据类型指定定长二进制数据。缺省长度为 1 个字节</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度 )</t>
+  </si>
+  <si>
+    <t>VARBINARY 数据类型指定变长二进制数据，用法类似 BINARY 数据类型，可以指定一个正整数作为数据长度。缺省长度为 8188 个字节，最大长度由数据库页面大小决定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
+  </si>
+  <si>
+    <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>同 FLOAT 相似，精度最大不超过 53</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
+  </si>
+  <si>
+    <t>NCHAR</t>
+  </si>
+  <si>
+    <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
+  </si>
+  <si>
+    <t>CHARACTER(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>可变长字符串，最大长度由数据库页面大小决定</t>
+  </si>
+  <si>
+    <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
+    <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BYTEA</t>
+  </si>
+  <si>
+    <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
+  </si>
+  <si>
+    <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
+  </si>
+  <si>
+    <t>DATE 类型包括年、月、日信息，定义了'-4712-01-01'和'9999-12-31'之间任何一个有效的格里高利日期</t>
+  </si>
+  <si>
+    <t>IME 类型包括时、分、秒信息，定义了一个在'00:00:00.000000'和'23:59:59.999999'之间的有效时间。TIME 类型的小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 0</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR</t>
+  </si>
+  <si>
+    <t>年间隔，即两个日期之间的年数字，P 为时间间隔的首项字段精度(后面简称为：首精度)</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY</t>
+  </si>
+  <si>
+    <t>月间隔，即两个日期之间的月数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL MONTH</t>
+  </si>
+  <si>
+    <t>日间隔，即为两个日期/时间之间的日数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL HOUR</t>
+  </si>
+  <si>
+    <t>时间隔，即为两个日期/时间之间的时数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL MINUTE</t>
+  </si>
+  <si>
+    <t>分间隔，即为两个日期/时间之间的分数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL SECOND</t>
+  </si>
+  <si>
+    <t>秒间隔，即为两个日期/时间之间的秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
+    <t>年月间隔，即两个日期之间的年月数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO HOUR</t>
+  </si>
+  <si>
+    <t>日时间隔，即为两个日期/时间之间的日时数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO MINUTE</t>
+  </si>
+  <si>
+    <t>日时分间隔，即为两个日期/时间之间的日时分数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>日时分秒间隔，即为两个日期/时间之间的日时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
+  </si>
+  <si>
+    <t>INTERVAL HOUR TO MINUTE</t>
+  </si>
+  <si>
+    <t>时分间隔，即为两个日期/时间之间的时分数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL HOUR TO SECOND</t>
+  </si>
+  <si>
+    <t>时分秒间隔，即为两个日期/时间之间的时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
+  </si>
+  <si>
+    <t>INTERVAL MINUTE TO SECOND</t>
+  </si>
+  <si>
+    <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>DECIMAL(精度,标度)</t>
+  </si>
+  <si>
+    <t>DEC(精度,标度)</t>
   </si>
   <si>
     <t>NUMBER(precision, scale)</t>
   </si>
   <si>
     <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
   </si>
   <si>
     <t>BIT(M)</t>
@@ -464,7 +526,19 @@
 BPCHAR</t>
   </si>
   <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
     <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>ENUM</t>
   </si>
   <si>
     <t>NCHAR(L)</t>
@@ -488,7 +562,19 @@
     <t>VARBINARY(M)</t>
   </si>
   <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
     <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
   </si>
   <si>
     <t>ROWID</t>
@@ -504,19 +590,111 @@
 INTERVAL DAY TO SECOND</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
+    <t>其他数据类型</t>
   </si>
   <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+    <t>BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
   </si>
   <si>
-    <t>TIME WITH TIME ZONE</t>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
   </si>
   <si>
-    <t>其他数据类型</t>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+  </si>
+  <si>
+    <t>INT1
+INT2
+INT4</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
   </si>
   <si>
     <t>NUMBER(P,S)</t>
@@ -639,25 +817,16 @@
     <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
   </si>
   <si>
-    <t>INTERVAL YEAR TO MONTH</t>
-  </si>
-  <si>
     <t>INTERVAL YEAR*</t>
   </si>
   <si>
     <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
   </si>
   <si>
-    <t>INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
     <t>INTERVAL DAY*</t>
   </si>
   <si>
     <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
   </si>
   <si>
     <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
@@ -668,314 +837,163 @@
     <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
   </si>
   <si>
-    <t>NUMERIC( 精度 , 标度)</t>
+    <t>TINYINT(长度)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>精度是一个无符号整数，定义了总的数字数，精度范围是 1~38 ，标度定义了小数点右边的数字位数，一个数的标度不应大于其精度</t>
-  </si>
-  <si>
-    <t>NUMBER(精度 , 标度)</t>
-  </si>
-  <si>
-    <t>DECIMAL( 精度 , 标度)</t>
-  </si>
-  <si>
-    <t>DEC( 精度 , 标度)</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>BIT 类型用于存储整数数据 1、0 或 NULL</t>
-  </si>
-  <si>
-    <t>MEDIUMINT
-INT4</t>
-  </si>
-  <si>
-    <t>用于存储有符号整数，精度为 10，标度为 0。取值范围为：-2147483648(-2^31)～+2147483647(2^31-1)</t>
-  </si>
-  <si>
-    <t>PLS_INTEGER</t>
-  </si>
-  <si>
-    <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
-  </si>
-  <si>
-    <t>INT1
+    <t>NUMBER&amp;&amp;columnLength&lt;3&amp;&amp;columnScale==0
+INT1
 BOOL
 BOOLEAN</t>
   </si>
   <si>
-    <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
-    <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
+    <t>SMALLINT(长度)</t>
   </si>
   <si>
-    <t>BINARY(长度 )</t>
+    <t>NUMBER&amp;&amp;columnLength&lt;6&amp;&amp;columnScale==0
+INT2</t>
   </si>
   <si>
-    <t>BINARY 数据类型指定定长二进制数据。缺省长度为 1 个字节</t>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
   </si>
   <si>
-    <t>VARBINARY(长度 )</t>
+    <t>MEDIUMINT(长度)</t>
   </si>
   <si>
-    <t>VARBINARY 数据类型指定变长二进制数据，用法类似 BINARY 数据类型，可以指定一个正整数作为数据长度。缺省长度为 8188 个字节，最大长度由数据库页面大小决定</t>
+    <t>NUMBER&amp;&amp;columnLength&lt;9&amp;&amp;columnScale==0</t>
   </si>
   <si>
-    <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
   </si>
   <si>
-    <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
+    <t>INT(长度)</t>
   </si>
   <si>
-    <t>同 FLOAT 相似，精度最大不超过 53</t>
+    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0
+INT4</t>
   </si>
   <si>
-    <t>DOUBLE PRECISION</t>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
   </si>
   <si>
-    <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
+    <t>INTEGER(长度)</t>
   </si>
   <si>
-    <t>NCHAR</t>
+    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
   </si>
   <si>
-    <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
+    <t>BIGINT(长度)</t>
   </si>
   <si>
-    <t>CHARACTER(长度)</t>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
   </si>
   <si>
-    <t>可变长字符串，最大长度由数据库页面大小决定</t>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
   </si>
   <si>
-    <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
   </si>
   <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
+  </si>
+  <si>
+    <t>NUMBER
+REAL
+NUMERIC</t>
+  </si>
+  <si>
+    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+  </si>
+  <si>
+    <t>BIT(精度)</t>
+  </si>
+  <si>
+    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+  </si>
+  <si>
+    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>CLOB
 NCLOB
 ROWID
 UROWID</t>
   </si>
   <si>
-    <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
+    <t>0-65 535 bytes 长文本数据</t>
   </si>
   <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
+    <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	极大文本数据</t>
+  </si>
+  <si>
+    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>可变长度二进制字符串 M+1 字节</t>
+  </si>
+  <si>
+    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BFILE
 RAW
-LONG RAW
 BYTEA</t>
   </si>
   <si>
-    <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
+    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
   </si>
   <si>
-    <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
+    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
   </si>
   <si>
-    <t>DATE 类型包括年、月、日信息，定义了'-4712-01-01'和'9999-12-31'之间任何一个有效的格里高利日期</t>
+    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
   </si>
   <si>
-    <t>IME 类型包括时、分、秒信息，定义了一个在'00:00:00.000000'和'23:59:59.999999'之间的有效时间。TIME 类型的小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 0</t>
+    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
   </si>
   <si>
-    <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
+    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
   </si>
   <si>
-    <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
+    <t>1 bytes 1901/2155 YYYY 年份值</t>
   </si>
   <si>
-    <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
+    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
   </si>
   <si>
-    <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR</t>
-  </si>
-  <si>
-    <t>年间隔，即两个日期之间的年数字，P 为时间间隔的首项字段精度(后面简称为：首精度)</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY</t>
-  </si>
-  <si>
-    <t>月间隔，即两个日期之间的月数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL MONTH</t>
-  </si>
-  <si>
-    <t>日间隔，即为两个日期/时间之间的日数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL HOUR</t>
-  </si>
-  <si>
-    <t>时间隔，即为两个日期/时间之间的时数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL MINUTE</t>
-  </si>
-  <si>
-    <t>分间隔，即为两个日期/时间之间的分数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL SECOND</t>
-  </si>
-  <si>
-    <t>秒间隔，即为两个日期/时间之间的秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>年月间隔，即两个日期之间的年月数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO HOUR</t>
-  </si>
-  <si>
-    <t>日时间隔，即为两个日期/时间之间的日时数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO MINUTE</t>
-  </si>
-  <si>
-    <t>日时分间隔，即为两个日期/时间之间的日时分数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>日时分秒间隔，即为两个日期/时间之间的日时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>INTERVAL HOUR TO MINUTE</t>
-  </si>
-  <si>
-    <t>时分间隔，即为两个日期/时间之间的时分数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL HOUR TO SECOND</t>
-  </si>
-  <si>
-    <t>时分秒间隔，即为两个日期/时间之间的时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>INTERVAL MINUTE TO SECOND</t>
-  </si>
-  <si>
-    <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
-  </si>
-  <si>
-    <t>INT1
-INT2
-INT4</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
-  </si>
-  <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING(长度)</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
+    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
   </si>
   <si>
     <t>TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
-    <t>INTERVAL</t>
+    <t>枚举数据类型</t>
+  </si>
+  <si>
+    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
     <r>
@@ -2210,7 +2228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2541,25 +2559,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2583,19 +2601,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2620,16 +2638,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2654,16 +2672,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2688,16 +2706,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2722,16 +2740,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2756,16 +2774,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2789,19 +2807,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2826,16 +2844,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2859,19 +2877,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2896,14 +2914,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2927,17 +2945,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3045,19 +3063,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3082,16 +3100,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3116,14 +3134,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3148,16 +3166,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3182,16 +3200,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3216,14 +3234,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3387,17 +3405,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3422,14 +3440,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3454,14 +3472,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3486,16 +3504,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3520,14 +3538,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3552,16 +3570,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3675,7 +3693,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3699,17 +3717,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3734,14 +3752,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3766,14 +3784,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3798,16 +3816,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3832,13 +3850,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3975,17 +3993,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4010,14 +4028,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4181,7 +4199,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8019,25 +8037,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8062,19 +8080,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -8100,16 +8118,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8135,16 +8153,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -8517,19 +8535,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8555,14 +8573,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8588,16 +8606,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8623,14 +8641,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8858,19 +8876,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -8896,16 +8914,16 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8931,16 +8949,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8966,14 +8984,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -8999,14 +9017,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9032,14 +9050,14 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -9180,17 +9198,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9216,16 +9234,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9251,16 +9269,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
       <c r="F40" s="19" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9286,7 +9304,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
@@ -9318,15 +9336,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
       <c r="F42" s="6" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9353,15 +9371,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9473,17 +9491,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -9509,14 +9527,14 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -9686,7 +9704,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -14062,25 +14080,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14105,21 +14123,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14145,18 +14163,18 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14182,20 +14200,20 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14221,18 +14239,18 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14258,14 +14276,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14291,16 +14309,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14326,14 +14344,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14359,14 +14377,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -14392,16 +14410,16 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -14433,10 +14451,10 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -14462,16 +14480,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14497,16 +14515,16 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14532,16 +14550,16 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14567,14 +14585,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14600,18 +14618,18 @@
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -14637,18 +14655,18 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -14674,14 +14692,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -14764,21 +14782,21 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -14804,16 +14822,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14839,18 +14857,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14876,14 +14894,14 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="4" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14910,13 +14928,13 @@
       <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14942,16 +14960,16 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15005,19 +15023,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -15043,14 +15061,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -15133,17 +15151,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15169,16 +15187,16 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="4" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15204,18 +15222,18 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15241,16 +15259,16 @@
     <row r="35">
       <c r="A35" s="7"/>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15276,7 +15294,7 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
@@ -15307,18 +15325,18 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -15344,16 +15362,16 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15379,16 +15397,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15415,13 +15433,13 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="4" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15448,13 +15466,13 @@
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="4" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15481,13 +15499,13 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="4" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -15514,13 +15532,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="4" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -15547,13 +15565,13 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15580,13 +15598,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15613,13 +15631,13 @@
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15646,13 +15664,13 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15679,13 +15697,13 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -15712,13 +15730,13 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15745,13 +15763,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15778,13 +15796,13 @@
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15811,13 +15829,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15958,7 +15976,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -16163,7 +16181,7 @@
     </row>
     <row r="64">
       <c r="A64" s="25" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -20684,25 +20702,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -20727,7 +20745,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -20736,10 +20754,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -20765,14 +20783,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20798,16 +20816,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -20833,16 +20851,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -20868,16 +20886,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -20903,16 +20921,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -20938,16 +20956,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -20973,14 +20991,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21006,14 +21024,14 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -21039,14 +21057,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -21072,16 +21090,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21107,14 +21125,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21140,14 +21158,14 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21173,14 +21191,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -21263,16 +21281,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -21299,13 +21317,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -21332,12 +21350,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21362,9 +21382,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="B21" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -21596,16 +21614,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21632,13 +21650,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -21665,7 +21683,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -21696,7 +21714,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="7"/>
@@ -21900,10 +21918,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -21934,13 +21952,13 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
@@ -21967,13 +21985,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -22001,7 +22019,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -22032,7 +22050,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -22063,7 +22081,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -22150,17 +22168,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -22186,14 +22204,14 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -22305,7 +22323,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -22510,7 +22528,7 @@
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -26826,25 +26844,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -26869,7 +26887,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -26878,7 +26896,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
@@ -26905,13 +26923,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -26938,7 +26956,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -26969,7 +26987,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27000,7 +27018,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27031,7 +27049,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27062,13 +27080,13 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -27095,13 +27113,13 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3"/>
@@ -27128,13 +27146,13 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
@@ -27161,7 +27179,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -27192,7 +27210,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27223,13 +27241,13 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
@@ -27371,16 +27389,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -27407,13 +27425,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -27440,7 +27458,7 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -27471,7 +27489,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -27502,7 +27520,7 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -27706,16 +27724,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -27742,13 +27760,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -27775,7 +27793,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -27806,7 +27824,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28010,10 +28028,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28044,7 +28062,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -28075,13 +28093,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -28281,17 +28299,17 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -28317,14 +28335,14 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -28523,7 +28541,7 @@
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -32812,25 +32830,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -32855,7 +32873,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -32864,7 +32882,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -32891,13 +32909,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -32924,7 +32942,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -32955,13 +32973,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -32988,7 +33006,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33019,13 +33037,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33051,16 +33069,16 @@
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33087,13 +33105,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33120,7 +33138,7 @@
     <row r="10">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33150,10 +33168,10 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33184,7 +33202,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33215,7 +33233,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33246,14 +33264,14 @@
     <row r="14">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -33278,10 +33296,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -33398,16 +33416,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -33434,13 +33452,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -33467,7 +33485,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -33498,14 +33516,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -33531,7 +33549,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -33562,13 +33580,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -33595,7 +33613,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -33626,7 +33644,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -33657,7 +33675,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -33688,7 +33706,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -33719,7 +33737,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -33750,7 +33768,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -33925,10 +33943,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -33959,7 +33977,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -33990,7 +34008,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34021,7 +34039,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -34052,7 +34070,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34083,7 +34101,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34114,7 +34132,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34145,7 +34163,7 @@
     <row r="43">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -34176,7 +34194,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -34207,7 +34225,7 @@
     <row r="45">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -34238,7 +34256,7 @@
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -34269,7 +34287,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -34328,10 +34346,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -34362,7 +34380,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -34393,7 +34411,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -34424,7 +34442,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -34455,13 +34473,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -34488,13 +34506,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -34521,7 +34539,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -34552,7 +34570,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -34583,7 +34601,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -34700,10 +34718,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -34734,7 +34752,7 @@
     <row r="62">
       <c r="A62" s="29"/>
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -34909,7 +34927,7 @@
     </row>
     <row r="68">
       <c r="A68" s="30" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -39287,22 +39305,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -39327,16 +39345,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -39362,13 +39380,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -39393,16 +39411,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -39427,16 +39445,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -39462,13 +39480,13 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -39493,10 +39511,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -39526,7 +39544,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -39556,7 +39574,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -39586,7 +39604,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39616,7 +39634,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39646,7 +39664,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -39676,7 +39694,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -39817,10 +39835,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -39850,7 +39868,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40103,16 +40121,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40138,13 +40156,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -40365,10 +40383,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -40565,7 +40583,7 @@
     </row>
     <row r="44">
       <c r="A44" s="30" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="331" uniqueCount="331">
   <si>
     <t>数值数据类型</t>
   </si>
@@ -28,35 +28,45 @@
     <t>TINYINT</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;3&amp;&amp;columnScale==0
-BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
+    <t>INT1
+INT2
+INT4</t>
   </si>
   <si>
-    <t>INTEGER</t>
+    <t>同上</t>
   </si>
   <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>INT4</t>
+    <t>BIGINT</t>
   </si>
   <si>
     <t>INT8</t>
   </si>
   <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
   </si>
   <si>
     <t>NUMERIC(precision, scale)</t>
@@ -65,25 +75,61 @@
     <t>REAL</t>
   </si>
   <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
     <t>DECIMAL(precision, scale)</t>
   </si>
   <si>
-    <t>DEC
-NUMBER</t>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
   </si>
   <si>
     <t>SERIAL</t>
   </si>
   <si>
-    <t>FLOAT4</t>
+    <t>相当于创建一个INT列</t>
   </si>
   <si>
-    <t>FLOAT8</t>
+    <t>BIGSERIAL</t>
   </si>
   <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
+    <t>相当于创建一个BIGINT列</t>
   </si>
   <si>
     <t>字符数据类型</t>
@@ -100,16 +146,14 @@
   </si>
   <si>
     <t>VARCHAR2
-NVARCHAR2</t>
+NVARCHAR2
+BPCHAR</t>
   </si>
   <si>
-    <t>BPCHAR(长度)</t>
+    <t>CHARACTER(长度)</t>
   </si>
   <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度)</t>
+    <t>CHARACTER VARYING</t>
   </si>
   <si>
     <t>二进制数据类型</t>
@@ -121,8 +165,8 @@
     <t>TINYTEXT
 MEDIUMTEXT
 LONGTEXT
+SET
 ENUM
-SET
 NCLOB
 ROWID
 UROWID
@@ -137,16 +181,16 @@
 TINYBLOB
 MEDIUMBLOB
 LONGBLOB
+BFILE
 RAW
 LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA</t>
-  </si>
-  <si>
-    <t>BFILE</t>
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
   </si>
   <si>
     <t>TEXT</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
   </si>
   <si>
     <t>日期时间数据类型</t>
@@ -155,21 +199,30 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
     <t>YEAR
 DATETIME
-TIMESTAMP WITH TIME ZONE
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
 DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
   </si>
   <si>
     <t>布尔数据类型</t>
@@ -184,7 +237,7 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>其它数据类型</t>
   </si>
   <si>
     <t>整型数据类型</t>
@@ -194,9 +247,6 @@
   </si>
   <si>
     <t>浮点数据类型</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
   </si>
   <si>
     <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
@@ -272,9 +322,6 @@
     <t>PLS_INTEGER</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
   </si>
   <si>
@@ -286,7 +333,7 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
-    <t>SMALLINT</t>
+    <t>INT2</t>
   </si>
   <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
@@ -307,16 +354,19 @@
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
   </si>
   <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
     <t>DOUBLE</t>
   </si>
   <si>
-    <t>同 FLOAT 相似，精度最大不超过 53</t>
+    <t>FLOAT8</t>
   </si>
   <si>
-    <t>DOUBLE PRECISION</t>
+    <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
@@ -326,14 +376,6 @@
   </si>
   <si>
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
-  </si>
-  <si>
-    <t>CHARACTER(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
   </si>
   <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
@@ -371,10 +413,16 @@
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
   </si>
   <si>
+    <t>BFILE</t>
+  </si>
+  <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
   </si>
   <si>
     <t>DATE 类型包括年、月、日信息，定义了'-4712-01-01'和'9999-12-31'之间任何一个有效的格里高利日期</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
   <si>
     <t>IME 类型包括时、分、秒信息，定义了一个在'00:00:00.000000'和'23:59:59.999999'之间的有效时间。TIME 类型的小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 0</t>
@@ -390,9 +438,6 @@
   </si>
   <si>
     <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
@@ -446,9 +491,6 @@
     <t>秒间隔，即为两个日期/时间之间的秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>INTERVAL YEAR TO MONTH</t>
-  </si>
-  <si>
     <t>年月间隔，即两个日期之间的年月数字，P 为时间间隔的首精度</t>
   </si>
   <si>
@@ -462,9 +504,6 @@
   </si>
   <si>
     <t>日时分间隔，即为两个日期/时间之间的日时分数字，P 为时间间隔的首精度</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO SECOND</t>
   </si>
   <si>
     <t>日时分秒间隔，即为两个日期/时间之间的日时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
@@ -488,7 +527,78 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>MEDIUMINT</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
+  </si>
+  <si>
+    <t>DEC
+NUMBER</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2</t>
+  </si>
+  <si>
+    <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>FLOAT8
@@ -499,9 +609,6 @@
   </si>
   <si>
     <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
   </si>
   <si>
     <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
@@ -583,118 +690,11 @@
     <t>UROWID</t>
   </si>
   <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
     <t>INTERVAL YEAR TO MONTH
 INTERVAL DAY TO SECOND</t>
   </si>
   <si>
     <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
-  </si>
-  <si>
-    <t>INT1
-INT2
-INT4</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
-  </si>
-  <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
   </si>
   <si>
     <t>NUMBER(P,S)</t>
@@ -717,7 +717,7 @@
 MEDIUMINT
 INT
 BIGINT
-BIT&amp;&amp;columnLength&lt;=1&amp;&amp;columnPrecision&lt;=1
+BIT&amp;&amp;columnLength==1||columnPrecision==1
 INT1
 INT2
 INT4
@@ -840,7 +840,7 @@
     <t>TINYINT(长度)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;3&amp;&amp;columnScale==0
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
 INT1
 BOOL
 BOOLEAN</t>
@@ -852,7 +852,7 @@
     <t>SMALLINT(长度)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;6&amp;&amp;columnScale==0
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
 INT2</t>
   </si>
   <si>
@@ -862,7 +862,7 @@
     <t>MEDIUMINT(长度)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;9&amp;&amp;columnScale==0</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
   </si>
   <si>
     <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
@@ -871,7 +871,7 @@
     <t>INT(长度)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
 INT4</t>
   </si>
   <si>
@@ -879,9 +879,6 @@
   </si>
   <si>
     <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnLength&lt;11&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>BIGINT(长度)</t>
@@ -2228,7 +2225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2534,7 +2531,7 @@
     <col min="3" max="3" width="16.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="11.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="13.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="48.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="103.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="150.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -2559,25 +2556,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>230</v>
@@ -2745,11 +2742,9 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2774,16 +2769,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2807,19 +2802,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2844,16 +2839,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2877,19 +2872,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2914,14 +2909,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2945,17 +2940,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3063,19 +3058,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3100,16 +3095,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3134,14 +3129,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3166,16 +3161,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3200,16 +3195,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3234,14 +3229,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3405,17 +3400,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3440,14 +3435,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3472,14 +3467,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3504,16 +3499,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3538,14 +3533,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3570,16 +3565,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3693,7 +3688,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3717,17 +3712,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3752,14 +3747,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3784,14 +3779,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3816,16 +3811,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3850,13 +3845,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3993,17 +3988,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4028,14 +4023,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4199,7 +4194,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8037,25 +8032,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8118,7 +8113,7 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8153,7 +8148,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -8535,7 +8530,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>203</v>
@@ -8544,7 +8539,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>204</v>
@@ -8573,7 +8568,7 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -8606,7 +8601,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -8641,7 +8636,7 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -8876,10 +8871,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -8949,7 +8944,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -8984,7 +8979,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -9017,7 +9012,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -9050,7 +9045,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -9198,10 +9193,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -9234,7 +9229,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
@@ -9269,7 +9264,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -9304,7 +9299,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
@@ -9336,7 +9331,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
@@ -9371,7 +9366,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="23"/>
@@ -9491,10 +9486,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -9527,7 +9522,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -9704,7 +9699,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -14080,25 +14075,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14126,18 +14121,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14163,18 +14158,18 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14200,20 +14195,20 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14239,18 +14234,18 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14276,14 +14271,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14309,16 +14304,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14344,14 +14339,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14377,14 +14372,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -14410,16 +14405,16 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -14451,10 +14446,10 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -14480,16 +14475,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14515,16 +14510,16 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14550,16 +14545,16 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14585,14 +14580,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14618,18 +14613,18 @@
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -14655,18 +14650,18 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -14692,14 +14687,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -14782,21 +14777,21 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -14822,16 +14817,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14857,18 +14852,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14894,14 +14889,14 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14928,13 +14923,13 @@
       <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14960,16 +14955,16 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15023,19 +15018,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -15061,14 +15056,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -15151,17 +15146,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15187,16 +15182,16 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15222,18 +15217,18 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15259,16 +15254,16 @@
     <row r="35">
       <c r="A35" s="7"/>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15294,7 +15289,7 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
@@ -15325,18 +15320,18 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -15362,16 +15357,16 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15397,16 +15392,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15433,13 +15428,13 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15466,13 +15461,13 @@
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15499,13 +15494,13 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -15532,13 +15527,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -15565,13 +15560,13 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15598,13 +15593,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15631,13 +15626,13 @@
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15664,13 +15659,13 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15697,13 +15692,13 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -15730,13 +15725,13 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15763,13 +15758,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15796,13 +15791,13 @@
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15829,13 +15824,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15976,7 +15971,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -16181,7 +16176,7 @@
     </row>
     <row r="64">
       <c r="A64" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -20676,7 +20671,7 @@
     <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="40.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="61.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="189.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -20702,25 +20697,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -20754,10 +20749,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -20783,14 +20778,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20816,16 +20811,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -20851,16 +20846,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -20886,16 +20881,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -20921,16 +20916,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -20956,16 +20951,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -20991,14 +20986,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21024,14 +21019,14 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -21057,14 +21052,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -21090,16 +21085,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21125,14 +21120,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21158,14 +21153,14 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21191,14 +21186,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -21281,16 +21276,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -21317,13 +21312,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -21350,13 +21345,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -21614,16 +21609,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21650,13 +21645,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -21683,7 +21678,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -21714,7 +21709,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="7"/>
@@ -21918,10 +21913,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -21952,13 +21947,13 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
@@ -21985,13 +21980,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -22019,7 +22014,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -22050,7 +22045,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -22081,7 +22076,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -22168,17 +22163,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -22204,14 +22199,14 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -22323,7 +22318,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -22528,7 +22523,7 @@
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -26818,7 +26813,7 @@
     <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="47.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="110.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="181.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -26844,25 +26839,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -26896,7 +26891,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
@@ -26923,13 +26918,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -26956,7 +26951,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -26987,7 +26982,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27018,7 +27013,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27049,7 +27044,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27080,13 +27075,13 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -27113,13 +27108,13 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3"/>
@@ -27146,13 +27141,13 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
@@ -27179,7 +27174,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -27210,7 +27205,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27241,13 +27236,13 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
@@ -27389,16 +27384,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -27425,13 +27420,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -27458,7 +27453,7 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -27489,7 +27484,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -27520,7 +27515,7 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -27724,16 +27719,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -27760,13 +27755,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -27793,7 +27788,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -27824,7 +27819,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28028,10 +28023,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28062,7 +28057,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -28093,13 +28088,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -28299,17 +28294,17 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -28335,14 +28330,14 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -28541,7 +28536,7 @@
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -32830,25 +32825,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -32873,7 +32868,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -32882,7 +32877,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -32909,13 +32904,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -32942,7 +32937,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -32973,13 +32968,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33006,7 +33001,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33037,13 +33032,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33069,16 +33064,16 @@
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33105,13 +33100,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33138,7 +33133,7 @@
     <row r="10">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33168,10 +33163,10 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33202,7 +33197,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33233,7 +33228,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33264,14 +33259,14 @@
     <row r="14">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -33296,10 +33291,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -33416,16 +33411,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -33452,13 +33447,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -33485,7 +33480,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -33516,14 +33511,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -33549,7 +33544,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -33580,13 +33575,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -33613,7 +33608,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -33644,7 +33639,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -33675,7 +33670,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -33706,7 +33701,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -33737,7 +33732,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -33768,7 +33763,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -33943,10 +33938,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -33977,7 +33972,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34008,7 +34003,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34039,7 +34034,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -34070,7 +34065,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34101,7 +34096,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34132,7 +34127,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34163,7 +34158,7 @@
     <row r="43">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -34194,7 +34189,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -34225,7 +34220,7 @@
     <row r="45">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -34256,7 +34251,7 @@
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -34287,7 +34282,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -34346,10 +34341,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -34380,7 +34375,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -34411,7 +34406,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -34442,7 +34437,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -34473,13 +34468,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -34506,13 +34501,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -34539,7 +34534,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -34570,7 +34565,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -34601,7 +34596,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -34718,10 +34713,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -34752,7 +34747,7 @@
     <row r="62">
       <c r="A62" s="29"/>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -34927,7 +34922,7 @@
     </row>
     <row r="68">
       <c r="A68" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -39305,22 +39300,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -39345,16 +39340,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -39380,13 +39375,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -39411,16 +39406,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -39445,16 +39440,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -39480,13 +39475,13 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -39511,10 +39506,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -39544,7 +39539,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -39574,7 +39569,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -39604,7 +39599,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39634,7 +39629,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39664,7 +39659,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -39694,7 +39689,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -39835,10 +39830,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -39868,7 +39863,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40121,16 +40116,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40156,13 +40151,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -40383,10 +40378,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -40583,7 +40578,7 @@
     </row>
     <row r="44">
       <c r="A44" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -22,117 +22,412 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="331" uniqueCount="331">
   <si>
+    <t>整型数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT(长度)</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>SMALLINT(长度)</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(长度)</t>
+  </si>
+  <si>
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>浮点数据类型</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(精度,标度)</t>
+  </si>
+  <si>
+    <t>DEC(精度,标度)</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
+  </si>
+  <si>
+    <t>BIT(M)</t>
+  </si>
+  <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(M)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>VARCHAR(M)</t>
+  </si>
+  <si>
+    <t>SET
+BPCHAR</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>CLOB(L)</t>
+  </si>
+  <si>
+    <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
+  </si>
+  <si>
+    <t>BINARY(M)</t>
+  </si>
+  <si>
+    <t>VARBINARY(M)</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>BFILE</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
     <t>数值数据类型</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT
+BIGINT
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+  </si>
+  <si>
+    <t>CHAR(L)</t>
+  </si>
+  <si>
+    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR
+BPCHAR</t>
+  </si>
+  <si>
+    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+TEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB</t>
+  </si>
+  <si>
+    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA</t>
+  </si>
+  <si>
+    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+  </si>
+  <si>
+    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
+  </si>
+  <si>
+    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
+  </si>
+  <si>
+    <t>TIME
+YEAR
+DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
   </si>
   <si>
     <t>TINYINT</t>
   </si>
   <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>INT1
-INT2
-INT4</t>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
   </si>
   <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>DECIMAL(precision, scale)</t>
   </si>
   <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
+    <t>DEC
+NUMBER</t>
   </si>
   <si>
     <t>SERIAL</t>
   </si>
   <si>
-    <t>相当于创建一个INT列</t>
+    <t>FLOAT8</t>
   </si>
   <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>字符数据类型</t>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
   </si>
   <si>
     <t>CHAR(长度)</t>
@@ -146,34 +441,27 @@
   </si>
   <si>
     <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
+NVARCHAR2</t>
   </si>
   <si>
-    <t>CHARACTER(长度)</t>
+    <t>BPCHAR(长度)</t>
   </si>
   <si>
-    <t>CHARACTER VARYING</t>
+    <t>BINARY(长度)</t>
   </si>
   <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>CLOB</t>
+    <t>VARBINARY(长度)</t>
   </si>
   <si>
     <t>TINYTEXT
 MEDIUMTEXT
 LONGTEXT
+ENUM
 SET
-ENUM
 NCLOB
 ROWID
 UROWID
 LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BLOB</t>
   </si>
   <si>
     <t>BINARY
@@ -181,78 +469,36 @@
 TINYBLOB
 MEDIUMBLOB
 LONGBLOB
-BFILE
 RAW
 LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA</t>
   </si>
   <si>
     <t>YEAR
 DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
 DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH</t>
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>布尔数据类型</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
-  </si>
-  <si>
-    <t>整型数据类型</t>
+    <t>同上</t>
   </si>
   <si>
     <t>整数 -2,147,483,647 至 2,147,483,647</t>
   </si>
   <si>
-    <t>浮点数据类型</t>
-  </si>
-  <si>
     <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
   </si>
   <si>
     <t>DECIMAL(p,s)</t>
@@ -280,9 +526,6 @@
   </si>
   <si>
     <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
@@ -322,6 +565,9 @@
     <t>PLS_INTEGER</t>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
   </si>
   <si>
@@ -333,7 +579,7 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
-    <t>INT2</t>
+    <t>SMALLINT</t>
   </si>
   <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
@@ -354,19 +600,13 @@
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
   </si>
   <si>
-    <t>FLOAT4</t>
-  </si>
-  <si>
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
-    <t>DOUBLE</t>
+    <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
-    <t>FLOAT8</t>
-  </si>
-  <si>
-    <t>同 FLOAT 相似，精度最大不超过 53</t>
+    <t>DOUBLE PRECISION</t>
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
@@ -378,13 +618,18 @@
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
   </si>
   <si>
+    <t>CHARACTER(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
   </si>
   <si>
     <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
   </si>
   <si>
     <t>TINYTEXT
@@ -413,43 +658,22 @@
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
   </si>
   <si>
-    <t>BFILE</t>
-  </si>
-  <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
   </si>
   <si>
     <t>DATE 类型包括年、月、日信息，定义了'-4712-01-01'和'9999-12-31'之间任何一个有效的格里高利日期</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>IME 类型包括时、分、秒信息，定义了一个在'00:00:00.000000'和'23:59:59.999999'之间的有效时间。TIME 类型的小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 0</t>
-  </si>
-  <si>
-    <t>YEAR</t>
   </si>
   <si>
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
   </si>
   <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -527,52 +751,79 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
   </si>
   <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
   </si>
   <si>
-    <t>INT1</t>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
   </si>
   <si>
-    <t>INT4</t>
+    <t>MEDIUMINT</t>
   </si>
   <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
   </si>
   <si>
-    <t>DEC
-NUMBER</t>
+    <t>INT1
+INT2
+INT4</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
   </si>
   <si>
     <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
+FLOAT4
+FLOAT8</t>
   </si>
   <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
   </si>
   <si>
-    <t>BPCHAR(长度)</t>
+    <t>SMALLSERIAL</t>
   </si>
   <si>
-    <t>BINARY(长度)</t>
+    <t>相当于创建一个SMALLINT列</t>
   </si>
   <si>
-    <t>VARBINARY(长度)</t>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
   </si>
   <si>
     <t>TINYTEXT
 MEDIUMTEXT
 LONGTEXT
+SET
 ENUM
-SET
 NCLOB
 ROWID
 UROWID
@@ -584,260 +835,24 @@
 TINYBLOB
 MEDIUMBLOB
 LONGBLOB
+BFILE
 RAW
 LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA</t>
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
   </si>
   <si>
     <t>YEAR
 DATETIME
-TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
+TIME</t>
   </si>
   <si>
-    <t>FLOAT8
-DOUBLE PRECISION</t>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
   </si>
   <si>
-    <t>DECIMAL(精度,标度)</t>
-  </si>
-  <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
-  </si>
-  <si>
-    <t>CHAR(M)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>VARCHAR(M)</t>
-  </si>
-  <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT
-BIGINT
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
-  </si>
-  <si>
-    <t>CHAR(L)</t>
-  </si>
-  <si>
-    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR
-BPCHAR</t>
-  </si>
-  <si>
-    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-TEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
-  </si>
-  <si>
-    <t>NCLOB</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB</t>
-  </si>
-  <si>
-    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA</t>
-  </si>
-  <si>
-    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
-  </si>
-  <si>
-    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
-  </si>
-  <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
-  </si>
-  <si>
-    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
-  </si>
-  <si>
-    <t>TIME
-YEAR
-DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
-  </si>
-  <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>TINYINT(长度)</t>
+    <t>INTERVAL</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
@@ -849,17 +864,11 @@
     <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
-    <t>SMALLINT(长度)</t>
-  </si>
-  <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
 INT2</t>
   </si>
   <si>
     <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
-  </si>
-  <si>
-    <t>MEDIUMINT(长度)</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
@@ -868,20 +877,11 @@
     <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
   </si>
   <si>
-    <t>INT(长度)</t>
-  </si>
-  <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
 INT4</t>
   </si>
   <si>
     <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
-  </si>
-  <si>
-    <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>BIGINT(长度)</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0
@@ -2225,7 +2225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2598,19 +2598,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2635,16 +2635,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2669,16 +2669,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2703,16 +2703,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2737,14 +2737,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2769,7 +2769,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2802,16 +2802,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>246</v>
@@ -2839,13 +2839,13 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>247</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2909,14 +2909,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>250</v>
@@ -3058,16 +3058,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>252</v>
@@ -3095,13 +3095,13 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>253</v>
@@ -3129,7 +3129,7 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3161,7 +3161,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3195,13 +3195,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>257</v>
@@ -3229,7 +3229,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3435,7 +3435,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3467,7 +3467,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3499,7 +3499,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3533,7 +3533,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3565,13 +3565,13 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>265</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3747,7 +3747,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
@@ -3779,7 +3779,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
@@ -3811,13 +3811,13 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>270</v>
@@ -3845,7 +3845,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -3991,7 +3991,7 @@
         <v>272</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -8075,19 +8075,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -8113,16 +8113,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8148,16 +8148,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -8530,19 +8530,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8568,14 +8568,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8601,16 +8601,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8636,14 +8636,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8871,19 +8871,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -8909,16 +8909,16 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8944,16 +8944,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8979,14 +8979,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9012,14 +9012,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9045,14 +9045,14 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -9193,17 +9193,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9229,16 +9229,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9264,16 +9264,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
       <c r="F40" s="19" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9299,7 +9299,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
@@ -9331,15 +9331,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
       <c r="F42" s="6" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9366,15 +9366,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9486,17 +9486,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -9522,14 +9522,14 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -14118,21 +14118,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14158,18 +14158,18 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14195,20 +14195,20 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14234,18 +14234,18 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14271,14 +14271,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14304,16 +14304,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14339,14 +14339,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14372,14 +14372,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -14405,16 +14405,16 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -14440,16 +14440,16 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -14475,16 +14475,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14510,16 +14510,16 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14545,16 +14545,16 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14587,7 +14587,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14613,18 +14613,18 @@
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -14650,18 +14650,18 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -14687,14 +14687,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -14777,21 +14777,21 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -14817,16 +14817,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14852,18 +14852,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14889,14 +14889,14 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="4" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14923,13 +14923,13 @@
       <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14955,16 +14955,16 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15018,19 +15018,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -15056,14 +15056,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -15146,17 +15146,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15182,16 +15182,16 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="4" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15217,18 +15217,18 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15254,16 +15254,16 @@
     <row r="35">
       <c r="A35" s="7"/>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15289,7 +15289,7 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
@@ -15320,18 +15320,18 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -15357,16 +15357,16 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15392,16 +15392,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15428,13 +15428,13 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="4" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15461,13 +15461,13 @@
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="4" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15494,13 +15494,13 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="4" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -15527,13 +15527,13 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="4" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -15560,13 +15560,13 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15593,13 +15593,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15626,13 +15626,13 @@
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15659,13 +15659,13 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15692,13 +15692,13 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -15725,13 +15725,13 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15758,13 +15758,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15791,13 +15791,13 @@
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15824,13 +15824,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15971,7 +15971,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -20740,19 +20740,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -20778,14 +20778,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20811,16 +20811,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -20846,16 +20846,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -20881,16 +20881,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -20916,7 +20916,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -20925,7 +20925,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -20951,16 +20951,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -20993,7 +20993,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21026,7 +21026,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -21052,14 +21052,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -21085,16 +21085,16 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21120,14 +21120,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21153,14 +21153,14 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21186,14 +21186,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -21276,16 +21276,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -21312,13 +21312,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -21345,13 +21345,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -21609,16 +21609,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21645,13 +21645,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -21678,7 +21678,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -21709,7 +21709,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="7"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -21947,13 +21947,13 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
@@ -21980,13 +21980,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -22014,7 +22014,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -22045,7 +22045,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -22076,7 +22076,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -22163,17 +22163,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -22199,14 +22199,14 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -22318,7 +22318,7 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -26882,16 +26882,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3"/>
@@ -26918,13 +26918,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -26951,7 +26951,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -26982,7 +26982,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27013,7 +27013,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27044,7 +27044,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27075,13 +27075,13 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -27108,7 +27108,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -27141,13 +27141,13 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
@@ -27174,7 +27174,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -27205,7 +27205,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27236,13 +27236,13 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
@@ -27384,16 +27384,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -27420,13 +27420,13 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -27453,7 +27453,7 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -27484,7 +27484,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -27515,7 +27515,7 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -27719,16 +27719,16 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -27755,13 +27755,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -27788,7 +27788,7 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -27819,7 +27819,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28023,10 +28023,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28057,7 +28057,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -28088,13 +28088,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -28294,17 +28294,17 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="4" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -28330,14 +28330,14 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -32868,7 +32868,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -32877,7 +32877,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -32904,13 +32904,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -32937,7 +32937,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -32968,13 +32968,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33001,7 +33001,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33032,13 +33032,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33064,16 +33064,16 @@
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33100,13 +33100,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33163,10 +33163,10 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33197,7 +33197,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33259,14 +33259,14 @@
     <row r="14">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -33291,10 +33291,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -33411,16 +33411,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -33447,13 +33447,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -33480,7 +33480,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -33511,14 +33511,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -33544,7 +33544,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -33575,13 +33575,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -33608,7 +33608,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -33639,7 +33639,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -33670,7 +33670,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -33701,7 +33701,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -33732,7 +33732,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -33763,7 +33763,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -33938,10 +33938,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -33972,7 +33972,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34003,7 +34003,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34034,7 +34034,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -34065,7 +34065,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34096,7 +34096,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34127,7 +34127,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34158,7 +34158,7 @@
     <row r="43">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -34189,7 +34189,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -34220,7 +34220,7 @@
     <row r="45">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -34251,7 +34251,7 @@
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -34282,7 +34282,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -34341,10 +34341,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -34375,7 +34375,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -34406,7 +34406,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -34437,7 +34437,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -34468,13 +34468,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -34501,13 +34501,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -34534,7 +34534,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -34565,7 +34565,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -34596,7 +34596,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -34713,10 +34713,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -34747,7 +34747,7 @@
     <row r="62">
       <c r="A62" s="29"/>
       <c r="B62" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -39340,16 +39340,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -39375,13 +39375,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -39406,16 +39406,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -39440,16 +39440,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -39475,13 +39475,13 @@
     <row r="6">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -39506,10 +39506,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -39539,7 +39539,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -39569,7 +39569,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -39599,7 +39599,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39629,7 +39629,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39659,7 +39659,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -39689,7 +39689,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -39830,10 +39830,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -39863,7 +39863,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40116,16 +40116,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40151,13 +40151,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -40378,10 +40378,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -25,168 +25,134 @@
     <t>整型数据类型</t>
   </si>
   <si>
-    <t>TINYINT(长度)</t>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
   </si>
   <si>
     <t>INT1</t>
   </si>
   <si>
-    <t>SMALLINT(长度)</t>
-  </si>
-  <si>
     <t>INT2</t>
-  </si>
-  <si>
-    <t>MEDIUMINT(长度)</t>
-  </si>
-  <si>
-    <t>INT(长度)</t>
   </si>
   <si>
     <t>INT4</t>
   </si>
   <si>
-    <t>INTEGER(长度)</t>
+    <t>INT8</t>
   </si>
   <si>
-    <t>BIGINT(长度)</t>
-  </si>
-  <si>
-    <t>INT8</t>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>浮点数据类型</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>FLOAT4</t>
   </si>
   <si>
-    <t>DOUBLE</t>
+    <t>FLOAT8</t>
   </si>
   <si>
-    <t>FLOAT8
+    <t>DOUBLE
+FLOAT
 DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
   </si>
   <si>
     <t>REAL</t>
   </si>
   <si>
-    <t>定点数据类型</t>
+    <t>DECIMAL(precision, scale)</t>
   </si>
   <si>
-    <t>DECIMAL(精度,标度)</t>
+    <t>DEC
+NUMBER</t>
   </si>
   <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
+    <t>SERIAL</t>
   </si>
   <si>
     <t>字符数据类型</t>
   </si>
   <si>
-    <t>CHAR(M)</t>
+    <t>CHAR(长度)</t>
   </si>
   <si>
-    <t>CHARACTER</t>
+    <t>NCHAR
+CHARACTER</t>
   </si>
   <si>
-    <t>VARCHAR(M)</t>
+    <t>VARCHAR(长度)</t>
   </si>
   <si>
-    <t>SET
-BPCHAR</t>
+    <t>VARCHAR2
+NVARCHAR2</t>
   </si>
   <si>
-    <t>TINYTEXT</t>
+    <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
   </si>
   <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
     <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
   </si>
   <si>
     <t>BLOB</t>
   </si>
   <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA</t>
   </si>
   <si>
     <t>BFILE</t>
   </si>
   <si>
-    <t>RAW(长度)</t>
+    <t>BINARY(长度)</t>
   </si>
   <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
+    <t>VARBINARY(长度)</t>
   </si>
   <si>
     <t>日期时间数据类型</t>
@@ -198,62 +164,33 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
+    <t>布尔数据类型</t>
   </si>
   <si>
     <t>BOOL</t>
   </si>
   <si>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+  </si>
+  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>数值数据类型</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
+    <t>同上</t>
   </si>
   <si>
     <t>TINYINT
@@ -272,6 +209,9 @@
     <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
   </si>
   <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
     <t>DOUBLE
 FLOAT4
 FLOAT8
@@ -282,13 +222,37 @@
 Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
   </si>
   <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+  </si>
+  <si>
     <t>CHAR(L)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
   </si>
   <si>
     <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
   </si>
   <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
     <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
   </si>
   <si>
     <t>VARCHAR
@@ -298,10 +262,10 @@
     <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
   </si>
   <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+    <t>NVARCHAR2(L)</t>
   </si>
   <si>
-    <t>CLOB</t>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
   </si>
   <si>
     <t>TINYTEXT
@@ -329,6 +293,26 @@
     <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
   </si>
   <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
+  </si>
+  <si>
     <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
 BYTEA</t>
   </si>
@@ -339,7 +323,7 @@
     <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
   </si>
   <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+    <t>LONG RAW</t>
   </si>
   <si>
     <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
@@ -356,12 +340,18 @@
     <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
   </si>
   <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
     <t>DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>INTERVAL YEAR TO MONTH</t>
@@ -385,114 +375,217 @@
     <t>其它数据类型</t>
   </si>
   <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
+    <t>TINYINT(长度)</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+INT1
+BOOL
+BOOLEAN</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+    <t>SMALLINT(长度)</t>
   </si>
   <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
+INT2</t>
   </si>
   <si>
-    <t>DECIMAL(precision, scale)</t>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
   </si>
   <si>
-    <t>DEC
-NUMBER</t>
+    <t>MEDIUMINT(长度)</t>
   </si>
   <si>
-    <t>SERIAL</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
   </si>
   <si>
-    <t>FLOAT8</t>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
   </si>
   <si>
-    <t>DOUBLE
-FLOAT
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+INT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>FLOAT8
 DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>CHAR(长度)</t>
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
   </si>
   <si>
-    <t>NCHAR
-CHARACTER</t>
+    <t>定点数据类型</t>
   </si>
   <si>
-    <t>VARCHAR(长度)</t>
+    <t>DECIMAL(精度,标度)</t>
+  </si>
+  <si>
+    <t>NUMBER
+REAL
+NUMERIC</t>
+  </si>
+  <si>
+    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+  </si>
+  <si>
+    <t>DEC(精度,标度)</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
+  </si>
+  <si>
+    <t>BIT(精度)</t>
+  </si>
+  <si>
+    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+  </si>
+  <si>
+    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
   </si>
   <si>
     <t>VARCHAR2
-NVARCHAR2</t>
+NVARCHAR2
+BPCHAR</t>
   </si>
   <si>
-    <t>BPCHAR(长度)</t>
+    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
   </si>
   <si>
-    <t>BINARY(长度)</t>
+    <t>TINYTEXT</t>
   </si>
   <si>
-    <t>VARBINARY(长度)</t>
+    <t>0-255 bytes 短文本字符串</t>
   </si>
   <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
+    <t>CLOB
 NCLOB
 ROWID
-UROWID
-LONGVARCHAR</t>
+UROWID</t>
   </si>
   <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
+    <t>0-65 535 bytes 长文本数据</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	极大文本数据</t>
+  </si>
+  <si>
+    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>可变长度二进制字符串 M+1 字节</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BFILE
 RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
 BYTEA</t>
   </si>
   <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
+    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
+  </si>
+  <si>
+    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
+  </si>
+  <si>
+    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>1 bytes 1901/2155 YYYY 年份值</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
 INTERVAL YEAR TO MONTH
 INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
-    <t>布尔数据类型</t>
+    <t>枚举数据类型</t>
   </si>
   <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+    <t>ENUM</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
     <t>整数 -2,147,483,647 至 2,147,483,647</t>
@@ -531,24 +624,6 @@
     <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
   </si>
   <si>
-    <t>NUMERIC( 精度 , 标度)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>精度是一个无符号整数，定义了总的数字数，精度范围是 1~38 ，标度定义了小数点右边的数字位数，一个数的标度不应大于其精度</t>
-  </si>
-  <si>
-    <t>NUMBER(精度 , 标度)</t>
-  </si>
-  <si>
-    <t>DECIMAL( 精度 , 标度)</t>
-  </si>
-  <si>
-    <t>DEC( 精度 , 标度)</t>
-  </si>
-  <si>
     <t>BIT</t>
   </si>
   <si>
@@ -585,19 +660,10 @@
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
   </si>
   <si>
-    <t>BINARY(长度 )</t>
+    <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
   </si>
   <si>
-    <t>BINARY 数据类型指定定长二进制数据。缺省长度为 1 个字节</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度 )</t>
-  </si>
-  <si>
-    <t>VARBINARY 数据类型指定变长二进制数据，用法类似 BINARY 数据类型，可以指定一个正整数作为数据长度。缺省长度为 8188 个字节，最大长度由数据库页面大小决定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
+    <t>Y</t>
   </si>
   <si>
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
@@ -612,6 +678,21 @@
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
   </si>
   <si>
+    <t>NUMERIC( 精度 , 标度)</t>
+  </si>
+  <si>
+    <t>精度是一个无符号整数，定义了总的数字数，精度范围是 1~38 ，标度定义了小数点右边的数字位数，一个数的标度不应大于其精度</t>
+  </si>
+  <si>
+    <t>NUMBER(精度 , 标度)</t>
+  </si>
+  <si>
+    <t>DECIMAL( 精度 , 标度)</t>
+  </si>
+  <si>
+    <t>DEC( 精度 , 标度)</t>
+  </si>
+  <si>
     <t>NCHAR</t>
   </si>
   <si>
@@ -619,11 +700,6 @@
   </si>
   <si>
     <t>CHARACTER(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
   </si>
   <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
@@ -661,6 +737,18 @@
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
   </si>
   <si>
+    <t>BINARY(长度 )</t>
+  </si>
+  <si>
+    <t>BINARY 数据类型指定定长二进制数据。缺省长度为 1 个字节</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度 )</t>
+  </si>
+  <si>
+    <t>VARBINARY 数据类型指定变长二进制数据，用法类似 BINARY 数据类型，可以指定一个正整数作为数据长度。缺省长度为 8188 个字节，最大长度由数据库页面大小决定</t>
+  </si>
+  <si>
     <t>DATE 类型包括年、月、日信息，定义了'-4712-01-01'和'9999-12-31'之间任何一个有效的格里高利日期</t>
   </si>
   <si>
@@ -668,6 +756,12 @@
   </si>
   <si>
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
+  </si>
+  <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
@@ -774,17 +868,19 @@
     <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
   </si>
   <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+    <t>SMALLSERIAL</t>
   </si>
   <si>
-    <t>DEC</t>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
   </si>
   <si>
     <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
@@ -801,19 +897,20 @@
     <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
   </si>
   <si>
-    <t>SMALLSERIAL</t>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
   </si>
   <si>
-    <t>相当于创建一个SMALLINT列</t>
+    <t>DEC</t>
   </si>
   <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
+    <t>NUMBER(precision, scale)</t>
   </si>
   <si>
     <t>CHARACTER VARYING</t>
@@ -841,6 +938,9 @@
 BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
   </si>
   <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
     <t>YEAR
 DATETIME
 TIME</t>
@@ -855,142 +955,42 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-INT1
-BOOL
-BOOLEAN</t>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
   </si>
   <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+    <t>BIT(M)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
-INT2</t>
+    <t>CHAR(M)</t>
   </si>
   <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+    <t>VARCHAR(M)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+    <t>SET
+BPCHAR</t>
   </si>
   <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-INT4</t>
+    <t>CLOB(L)</t>
   </si>
   <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+    <t>NCLOB(L)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
+    <t>BINARY(M)</t>
   </si>
   <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
+    <t>VARBINARY(M)</t>
   </si>
   <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
   </si>
   <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>NUMBER
-REAL
-NUMERIC</t>
-  </si>
-  <si>
-    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
-  </si>
-  <si>
-    <t>BIT(精度)</t>
-  </si>
-  <si>
-    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
-  </si>
-  <si>
-    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>0-255 bytes 短文本字符串</t>
-  </si>
-  <si>
-    <t>CLOB
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 长文本数据</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	中等长度文本数据</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	极大文本数据</t>
-  </si>
-  <si>
-    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
-  </si>
-  <si>
-    <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
-  </si>
-  <si>
-    <t>BFILE
-RAW
-BYTEA</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
-  </si>
-  <si>
-    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
-  </si>
-  <si>
-    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
-  </si>
-  <si>
-    <t>1 bytes 1901/2155 YYYY 年份值</t>
-  </si>
-  <si>
-    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>枚举数据类型</t>
-  </si>
-  <si>
-    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
+    <t>其他数据类型</t>
   </si>
   <si>
     <r>
@@ -1825,7 +1825,7 @@
       <patternFill/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2046,33 +2046,6 @@
     </border>
     <border>
       <left style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
       <right style="thin"/>
       <bottom style="thin"/>
     </border>
@@ -2128,7 +2101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
@@ -2184,29 +2157,35 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="true" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
@@ -2214,7 +2193,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
@@ -2225,7 +2204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2601,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2635,16 +2614,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2669,16 +2648,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2703,16 +2682,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2737,14 +2716,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2769,16 +2748,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2805,16 +2784,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2839,16 +2818,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2872,19 +2851,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2909,14 +2888,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2940,17 +2919,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3058,19 +3037,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3095,16 +3074,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3129,14 +3108,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3161,16 +3140,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3195,16 +3174,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3229,14 +3208,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3400,17 +3379,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3435,14 +3414,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3467,14 +3446,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3499,16 +3478,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3533,14 +3512,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3565,16 +3544,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3688,7 +3667,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3712,17 +3691,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3747,14 +3726,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3779,14 +3758,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3811,16 +3790,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3845,13 +3824,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3988,17 +3967,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4023,14 +4002,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -8031,25 +8010,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>290</v>
       </c>
       <c r="H1" s="3"/>
@@ -8075,20 +8054,14 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -8110,19 +8083,19 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8147,18 +8120,12 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -8182,12 +8149,12 @@
     </row>
     <row r="5">
       <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -8238,14 +8205,22 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+    <row r="7" ht="55.5" customHeight="true">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -8354,14 +8329,22 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+    <row r="11" ht="69.75" customHeight="true">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -8530,19 +8513,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8568,14 +8551,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8601,16 +8584,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8636,14 +8619,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8668,12 +8651,18 @@
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -8697,12 +8686,18 @@
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -8726,12 +8721,16 @@
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -8755,12 +8754,12 @@
     </row>
     <row r="24">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -8784,12 +8783,16 @@
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -8813,12 +8816,16 @@
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -8871,20 +8878,14 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -8908,18 +8909,12 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -8944,16 +8939,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8979,14 +8974,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9012,14 +9007,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9044,16 +9039,12 @@
     </row>
     <row r="33">
       <c r="A33" s="7"/>
-      <c r="B33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -9105,13 +9096,13 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -9134,13 +9125,13 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -9193,17 +9184,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>96</v>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9229,16 +9220,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9264,16 +9255,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="19" t="s">
-        <v>99</v>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9299,13 +9290,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="22"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -9329,17 +9320,17 @@
     </row>
     <row r="42">
       <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>103</v>
+      <c r="G42" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9364,17 +9355,17 @@
     </row>
     <row r="43">
       <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24" t="s">
-        <v>105</v>
+      <c r="E43" s="7"/>
+      <c r="F43" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9486,18 +9477,14 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -9521,16 +9508,12 @@
     </row>
     <row r="48">
       <c r="A48" s="7"/>
-      <c r="B48" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -9669,13 +9652,13 @@
       <c r="AA52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -9698,15 +9681,15 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -9729,13 +9712,13 @@
       <c r="AA54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -14022,12 +14005,14 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A17:A27"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A54:G55"/>
     <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A47:A51"/>
   </mergeCells>
   <hyperlinks>
@@ -14074,25 +14059,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>298</v>
       </c>
       <c r="H1" s="3"/>
@@ -14118,21 +14103,17 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14155,21 +14136,19 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>146</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>172</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14195,20 +14174,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14234,18 +14207,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14271,14 +14240,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14301,19 +14272,19 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14339,14 +14310,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14371,16 +14344,12 @@
     </row>
     <row r="9">
       <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -14404,18 +14373,12 @@
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -14439,18 +14402,12 @@
     </row>
     <row r="11">
       <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -14473,18 +14430,18 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14510,16 +14467,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="4" t="s">
-        <v>146</v>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14545,16 +14504,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="4" t="s">
-        <v>146</v>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14580,14 +14541,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14612,20 +14573,12 @@
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -14649,20 +14602,12 @@
     </row>
     <row r="17">
       <c r="A17" s="7"/>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -14686,16 +14631,12 @@
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -14776,23 +14717,13 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -14815,18 +14746,22 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="7"/>
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4" t="s">
-        <v>146</v>
+      <c r="C22" s="4" t="s">
+        <v>182</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14852,18 +14787,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4" t="s">
-        <v>146</v>
+      <c r="C23" s="4" t="s">
+        <v>182</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>174</v>
+      <c r="D23" s="4" t="s">
+        <v>182</v>
       </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14889,14 +14824,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14921,15 +14862,19 @@
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14954,18 +14899,12 @@
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -15017,21 +14956,13 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -15055,16 +14986,12 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -15088,12 +15015,12 @@
     </row>
     <row r="30">
       <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -15116,13 +15043,23 @@
       <c r="AA30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>193</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -15145,18 +15082,18 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15182,16 +15119,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>146</v>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4" t="s">
+        <v>182</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G33" s="4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15217,18 +15156,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15253,17 +15188,15 @@
     </row>
     <row r="35">
       <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15289,13 +15222,17 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -15319,20 +15256,12 @@
     </row>
     <row r="37">
       <c r="A37" s="7"/>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -15355,18 +15284,20 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="7"/>
+      <c r="A38" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="G38" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15392,16 +15323,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15426,15 +15355,17 @@
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4" t="s">
-        <v>188</v>
+      <c r="B40" s="4" t="s">
+        <v>202</v>
       </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15458,16 +15389,18 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
-        <v>190</v>
+      <c r="A41" s="9"/>
+      <c r="B41" s="4" t="s">
+        <v>204</v>
       </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15491,17 +15424,13 @@
       <c r="AA41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -15524,17 +15453,13 @@
       <c r="AA42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -15557,16 +15482,18 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4" t="s">
-        <v>196</v>
+      <c r="A44" s="4" t="s">
+        <v>36</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15591,15 +15518,17 @@
     </row>
     <row r="45">
       <c r="A45" s="7"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C45" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15624,15 +15553,19 @@
     </row>
     <row r="46">
       <c r="A46" s="7"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G46" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15657,15 +15590,17 @@
     </row>
     <row r="47">
       <c r="A47" s="7"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15690,16 +15625,14 @@
     </row>
     <row r="48">
       <c r="A48" s="7"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4" t="s">
-        <v>203</v>
+      <c r="B48" s="4" t="s">
+        <v>150</v>
       </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -15723,15 +15656,19 @@
     </row>
     <row r="49">
       <c r="A49" s="7"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="G49" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15756,15 +15693,17 @@
     </row>
     <row r="50">
       <c r="A50" s="7"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C50" s="4" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15789,15 +15728,17 @@
     </row>
     <row r="51">
       <c r="A51" s="7"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C51" s="4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15824,13 +15765,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15855,12 +15796,16 @@
     </row>
     <row r="53">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -15884,12 +15829,16 @@
     </row>
     <row r="54">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -15913,12 +15862,16 @@
     </row>
     <row r="55">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -15942,12 +15895,16 @@
     </row>
     <row r="56">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -15970,15 +15927,17 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>130</v>
+      <c r="A57" s="7"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4" t="s">
+        <v>224</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -16002,12 +15961,16 @@
     </row>
     <row r="58">
       <c r="A58" s="7"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -16031,12 +15994,16 @@
     </row>
     <row r="59">
       <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -16060,12 +16027,16 @@
     </row>
     <row r="60">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -16089,12 +16060,16 @@
     </row>
     <row r="61">
       <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -16118,12 +16093,16 @@
     </row>
     <row r="62">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -16147,12 +16126,16 @@
     </row>
     <row r="63">
       <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -16175,15 +16158,17 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="25" t="s">
-        <v>299</v>
+      <c r="A64" s="7"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4" t="s">
+        <v>236</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -16206,13 +16191,13 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -16293,13 +16278,13 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -16322,13 +16307,15 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="A69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -16351,13 +16338,13 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -16380,13 +16367,13 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -16409,13 +16396,13 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -16438,13 +16425,13 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -16467,13 +16454,13 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -16496,13 +16483,13 @@
       <c r="AA74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -16525,13 +16512,15 @@
       <c r="AA75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -16554,13 +16543,13 @@
       <c r="AA76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -16583,13 +16572,13 @@
       <c r="AA77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -16612,13 +16601,13 @@
       <c r="AA78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -20642,18 +20631,368 @@
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
     </row>
+    <row r="218">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+      <c r="X218" s="3"/>
+      <c r="Y218" s="3"/>
+      <c r="Z218" s="3"/>
+      <c r="AA218" s="3"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
+      <c r="Y219" s="3"/>
+      <c r="Z219" s="3"/>
+      <c r="AA219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+      <c r="X220" s="3"/>
+      <c r="Y220" s="3"/>
+      <c r="Z220" s="3"/>
+      <c r="AA220" s="3"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
+      <c r="Y221" s="3"/>
+      <c r="Z221" s="3"/>
+      <c r="AA221" s="3"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
+      <c r="Y222" s="3"/>
+      <c r="Z222" s="3"/>
+      <c r="AA222" s="3"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
+      <c r="Y223" s="3"/>
+      <c r="Z223" s="3"/>
+      <c r="AA223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
+      <c r="Y224" s="3"/>
+      <c r="Z224" s="3"/>
+      <c r="AA224" s="3"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
+      <c r="Y225" s="3"/>
+      <c r="Z225" s="3"/>
+      <c r="AA225" s="3"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
+      <c r="Y226" s="3"/>
+      <c r="Z226" s="3"/>
+      <c r="AA226" s="3"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
+      <c r="Y227" s="3"/>
+      <c r="Z227" s="3"/>
+      <c r="AA227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+      <c r="AA228" s="3"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+      <c r="Y229" s="3"/>
+      <c r="Z229" s="3"/>
+      <c r="AA229" s="3"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="6">
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A32:A56"/>
-    <mergeCell ref="A64:G65"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A68"/>
+    <mergeCell ref="A76:G77"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A31:A37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1"/>
+    <hyperlink ref="A76" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20696,25 +21035,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>306</v>
       </c>
       <c r="H1" s="3"/>
@@ -20740,19 +21079,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -20778,14 +21117,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20811,16 +21150,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -20843,19 +21182,19 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -20881,16 +21220,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -20916,16 +21255,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>219</v>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -20951,16 +21288,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>132</v>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -20986,14 +21321,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>132</v>
+      <c r="G9" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21018,16 +21353,12 @@
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -21051,16 +21382,12 @@
     </row>
     <row r="11">
       <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -21083,18 +21410,18 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21120,14 +21447,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21150,17 +21477,19 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21185,16 +21514,12 @@
     </row>
     <row r="15">
       <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -21275,19 +21600,13 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -21309,18 +21628,22 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="7"/>
+    <row r="19" ht="181.5" customHeight="true">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6" t="s">
-        <v>174</v>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -21345,15 +21668,17 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -21377,12 +21702,16 @@
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -21406,12 +21735,12 @@
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -21435,12 +21764,12 @@
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -21492,13 +21821,19 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="24"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -21522,12 +21857,16 @@
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -21551,12 +21890,16 @@
     </row>
     <row r="27">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -21580,12 +21923,12 @@
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -21608,17 +21951,15 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21645,14 +21986,12 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -21677,14 +22016,12 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -21708,14 +22045,12 @@
     </row>
     <row r="32">
       <c r="A32" s="7"/>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -21739,12 +22074,12 @@
     </row>
     <row r="33">
       <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -21768,12 +22103,12 @@
     </row>
     <row r="34">
       <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -21797,12 +22132,12 @@
     </row>
     <row r="35">
       <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -21825,13 +22160,19 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -21854,13 +22195,15 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -21883,13 +22226,13 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -21912,17 +22255,13 @@
       <c r="AA38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -21946,15 +22285,11 @@
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="6" t="s">
-        <v>233</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -21978,17 +22313,13 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -22011,15 +22342,13 @@
       <c r="AA41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -22042,15 +22371,13 @@
       <c r="AA42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -22073,15 +22400,17 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4" t="s">
-        <v>101</v>
+      <c r="A44" s="4" t="s">
+        <v>36</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -22105,11 +22434,15 @@
     </row>
     <row r="45">
       <c r="A45" s="7"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -22134,12 +22467,16 @@
     </row>
     <row r="46">
       <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -22162,19 +22499,15 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>130</v>
+      <c r="A47" s="7"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
+        <v>263</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -22198,16 +22531,14 @@
     </row>
     <row r="48">
       <c r="A48" s="7"/>
-      <c r="B48" s="4" t="s">
-        <v>69</v>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -22231,12 +22562,14 @@
     </row>
     <row r="49">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -22260,12 +22593,12 @@
     </row>
     <row r="50">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -22318,14 +22651,18 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -22349,12 +22686,16 @@
     </row>
     <row r="53">
       <c r="A53" s="7"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -22464,13 +22805,15 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -22494,7 +22837,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -22522,15 +22865,13 @@
       <c r="AA58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -22553,13 +22894,13 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -22640,13 +22981,13 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -22669,13 +23010,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -22698,13 +23041,13 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -22727,13 +23070,13 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -22756,13 +23099,13 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -26786,16 +27129,163 @@
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
     </row>
+    <row r="206">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
+      <c r="Y206" s="3"/>
+      <c r="Z206" s="3"/>
+      <c r="AA206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
+      <c r="Y208" s="3"/>
+      <c r="Z208" s="3"/>
+      <c r="AA208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
+      <c r="Y209" s="3"/>
+      <c r="Z209" s="3"/>
+      <c r="AA209" s="3"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+      <c r="X210" s="3"/>
+      <c r="Y210" s="3"/>
+      <c r="Z210" s="3"/>
+      <c r="AA210" s="3"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="7">
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A2:A17"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A59:G60"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A64:G65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26838,22 +27328,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -26880,20 +27370,20 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" ht="27.75" customHeight="true">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -26915,18 +27405,18 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -26951,13 +27441,13 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -26982,13 +27472,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -27013,13 +27503,13 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -27044,13 +27534,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -27072,18 +27562,18 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -27107,16 +27597,12 @@
     </row>
     <row r="9">
       <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -27140,16 +27626,12 @@
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -27173,14 +27655,12 @@
     </row>
     <row r="11">
       <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -27203,15 +27683,17 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -27233,18 +27715,18 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -27273,7 +27755,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -27302,7 +27784,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -27326,12 +27808,12 @@
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -27355,12 +27837,12 @@
     </row>
     <row r="17">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -27383,19 +27865,13 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -27419,16 +27895,12 @@
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -27452,14 +27924,12 @@
     </row>
     <row r="20">
       <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -27482,15 +27952,19 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -27512,16 +27986,18 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -27545,12 +28021,14 @@
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -27574,12 +28052,12 @@
     </row>
     <row r="24">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -27603,12 +28081,12 @@
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -27637,7 +28115,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -27666,7 +28144,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -27689,13 +28167,19 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -27718,19 +28202,17 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -27755,15 +28237,13 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -27787,14 +28267,16 @@
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="4" t="s">
-        <v>49</v>
+      <c r="B31" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -27819,13 +28301,13 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -27849,12 +28331,12 @@
     </row>
     <row r="33">
       <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -27878,12 +28360,12 @@
     </row>
     <row r="34">
       <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -27907,12 +28389,12 @@
     </row>
     <row r="35">
       <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -27935,13 +28417,13 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -27964,13 +28446,15 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -27993,13 +28477,17 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -28022,17 +28510,15 @@
       <c r="AA38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -28056,13 +28542,13 @@
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="4" t="s">
-        <v>57</v>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -28087,15 +28573,13 @@
     </row>
     <row r="41">
       <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
-        <v>60</v>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -28121,11 +28605,11 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -28150,7 +28634,7 @@
     <row r="43">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -28177,13 +28661,13 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -28206,13 +28690,13 @@
       <c r="AA44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="7"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -28235,13 +28719,13 @@
       <c r="AA45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -28264,13 +28748,17 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -28293,19 +28781,15 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>130</v>
+      <c r="A48" s="7"/>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -28330,15 +28814,15 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="4" t="s">
-        <v>132</v>
+      <c r="F49" s="6" t="s">
+        <v>40</v>
       </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -28362,12 +28846,12 @@
     </row>
     <row r="50">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -28391,12 +28875,12 @@
     </row>
     <row r="51">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -28420,12 +28904,12 @@
     </row>
     <row r="52">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -28449,12 +28933,12 @@
     </row>
     <row r="53">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -28478,12 +28962,12 @@
     </row>
     <row r="54">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -28535,15 +29019,19 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="26" t="s">
-        <v>315</v>
+      <c r="A56" s="4" t="s">
+        <v>41</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
+      <c r="B56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -28566,13 +29054,17 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -28653,13 +29145,13 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -28682,13 +29174,13 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -28711,13 +29203,13 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -28740,13 +29232,13 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -28769,13 +29261,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -28798,13 +29292,13 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -28827,13 +29321,13 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -28856,13 +29350,13 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -32770,18 +33264,252 @@
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
     </row>
+    <row r="202">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
+      <c r="Y202" s="3"/>
+      <c r="Z202" s="3"/>
+      <c r="AA202" s="3"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+      <c r="X203" s="3"/>
+      <c r="Y203" s="3"/>
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
+      <c r="Y204" s="3"/>
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="3"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+      <c r="X205" s="3"/>
+      <c r="Y205" s="3"/>
+      <c r="Z205" s="3"/>
+      <c r="AA205" s="3"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
+      <c r="Y206" s="3"/>
+      <c r="Z206" s="3"/>
+      <c r="AA206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
+      <c r="Y208" s="3"/>
+      <c r="Z208" s="3"/>
+      <c r="AA208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
+      <c r="Y209" s="3"/>
+      <c r="Z209" s="3"/>
+      <c r="AA209" s="3"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A56:G57"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A64:G65"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1"/>
+    <hyperlink ref="A64" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32871,13 +33599,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -32904,13 +33632,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -32937,7 +33665,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -32968,13 +33696,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33001,7 +33729,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33032,13 +33760,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33063,17 +33791,17 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33100,13 +33828,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33131,9 +33859,9 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33162,11 +33890,11 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>17</v>
+      <c r="A11" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33197,7 +33925,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33228,7 +33956,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33257,16 +33985,16 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -33291,10 +34019,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -33411,16 +34139,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -33447,13 +34175,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -33480,7 +34208,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -33511,14 +34239,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -33544,7 +34272,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -33575,13 +34303,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -33608,7 +34336,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -33639,7 +34367,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -33670,7 +34398,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -33701,7 +34429,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -33732,7 +34460,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -33763,7 +34491,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -33822,11 +34550,13 @@
     </row>
     <row r="32">
       <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="7"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -33851,11 +34581,13 @@
     </row>
     <row r="33">
       <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="7"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -33880,11 +34612,13 @@
     </row>
     <row r="34">
       <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -33938,10 +34672,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -33972,7 +34706,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34003,7 +34737,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34034,7 +34768,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -34065,7 +34799,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34096,7 +34830,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34127,7 +34861,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34157,13 +34891,11 @@
     </row>
     <row r="43">
       <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
       <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -34189,7 +34921,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -34219,13 +34951,11 @@
     </row>
     <row r="45">
       <c r="A45" s="9"/>
-      <c r="B45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -34250,13 +34980,11 @@
     </row>
     <row r="46">
       <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="10"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -34282,7 +35010,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -34341,10 +35069,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -34375,7 +35103,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -34406,7 +35134,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -34437,7 +35165,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -34468,13 +35196,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -34501,13 +35229,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -34534,7 +35262,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -34565,7 +35293,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -34596,7 +35324,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -34713,10 +35441,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -34745,9 +35473,9 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="29"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -34776,7 +35504,7 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="29"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -34805,7 +35533,7 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="29"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -34834,7 +35562,7 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="23"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -34921,7 +35649,7 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="32" t="s">
         <v>323</v>
       </c>
       <c r="B68" s="14"/>
@@ -39343,13 +40071,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -39375,13 +40103,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -39409,13 +40137,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -39440,16 +40168,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -39473,15 +40201,15 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -39506,10 +40234,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -39539,7 +40267,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -39569,7 +40297,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -39599,7 +40327,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39629,7 +40357,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39659,7 +40387,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -39689,7 +40417,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -39830,10 +40558,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -39863,7 +40591,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40116,16 +40844,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40151,13 +40879,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -40378,10 +41106,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -40577,7 +41305,7 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="32" t="s">
         <v>330</v>
       </c>
       <c r="B44" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,76 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="332" uniqueCount="332">
   <si>
     <t>整型数据类型</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
   </si>
   <si>
     <t>INTEGER</t>
   </si>
   <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>INT4</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
+    <t>同上</t>
   </si>
   <si>
     <t>浮点数据类型</t>
   </si>
   <si>
-    <t>FLOAT4</t>
+    <t>FLOAT</t>
   </si>
   <si>
-    <t>FLOAT8</t>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
   </si>
   <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
+    <t>定点数据类型</t>
   </si>
   <si>
-    <t>数值数据类型</t>
+    <t>DECIMAL(p,s)</t>
   </si>
   <si>
-    <t>NUMERIC(precision, scale)</t>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
   </si>
   <si>
-    <t>REAL</t>
+    <t>NUMERIC(p,s)</t>
   </si>
   <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
-    <t>DEC
-NUMBER</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
   </si>
   <si>
     <t>字符数据类型</t>
@@ -98,35 +67,22 @@
     <t>CHAR(长度)</t>
   </si>
   <si>
-    <t>NCHAR
-CHARACTER</t>
+    <t>NCHAR(长度)</t>
   </si>
   <si>
     <t>VARCHAR(长度)</t>
   </si>
   <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
+    <t>LVARCHAR(长度)</t>
   </si>
   <si>
-    <t>BPCHAR(长度)</t>
+    <t>NVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t>CLOB</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>TEXT</t>
   </si>
   <si>
     <t>二进制数据类型</t>
@@ -135,24 +91,7 @@
     <t>BLOB</t>
   </si>
   <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA</t>
-  </si>
-  <si>
-    <t>BFILE</t>
-  </si>
-  <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度)</t>
+    <t>BYTE</t>
   </si>
   <si>
     <t>日期时间数据类型</t>
@@ -161,218 +100,19 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
+    <t>DATETIME</t>
   </si>
   <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
   </si>
   <si>
     <t>布尔数据类型</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT
-BIGINT
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
-  </si>
-  <si>
-    <t>CHAR(L)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR
-BPCHAR</t>
-  </si>
-  <si>
-    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-TEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
-  </si>
-  <si>
-    <t>NCLOB</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB</t>
-  </si>
-  <si>
-    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
-  </si>
-  <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA</t>
-  </si>
-  <si>
-    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
-  </si>
-  <si>
-    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
-  </si>
-  <si>
-    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
-  </si>
-  <si>
-    <t>TIME
-YEAR
-DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
   </si>
   <si>
     <t>TINYINT(长度)</t>
@@ -429,6 +169,9 @@
     <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
   </si>
   <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
     <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
   </si>
   <si>
@@ -440,9 +183,6 @@
   </si>
   <si>
     <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
   </si>
   <si>
     <t>DECIMAL(精度,标度)</t>
@@ -466,6 +206,10 @@
   </si>
   <si>
     <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+  </si>
+  <si>
+    <t>NCHAR
+CHARACTER</t>
   </si>
   <si>
     <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
@@ -509,7 +253,13 @@
     <t>0-4 294 967 295 bytes	极大文本数据</t>
   </si>
   <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
     <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
   </si>
   <si>
     <t>可变长度二进制字符串 M+1 字节</t>
@@ -523,7 +273,8 @@
   <si>
     <t>BFILE
 RAW
-BYTEA</t>
+BYTEA
+IF NOT FOUND</t>
   </si>
   <si>
     <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
@@ -538,6 +289,9 @@
     <t>LONGBLOB</t>
   </si>
   <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
     <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
   </si>
   <si>
@@ -545,6 +299,9 @@
   </si>
   <si>
     <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
   <si>
     <t>1 bytes 1901/2155 YYYY 年份值</t>
@@ -556,13 +313,13 @@
     <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>DATETIME WITH TIME ZONE</t>
   </si>
   <si>
     <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>TIMESTAMP WITH TIME ZONE
@@ -588,40 +345,166 @@
     <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
+    <t>TINYINT</t>
   </si>
   <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
   </si>
   <si>
-    <t>DECIMAL(p,s)</t>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
   </si>
   <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
+    <t>SMALLINT</t>
   </si>
   <si>
-    <t>NUMERIC(p,s)</t>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
   </si>
   <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
+    <t>MEDIUMINT</t>
   </si>
   <si>
-    <t>NCHAR(长度)</t>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
   </si>
   <si>
-    <t>LVARCHAR(长度)</t>
+    <t>INT1
+INT2
+INT4</t>
   </si>
   <si>
-    <t>NVARCHAR(长度)</t>
+    <t>BIGINT</t>
   </si>
   <si>
-    <t>BYTE</t>
+    <t>INT8</t>
   </si>
   <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
   </si>
   <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DECIMAL(precision, scale)</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>CHARACTER(长度)</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
   </si>
   <si>
     <t>BIT</t>
@@ -640,9 +523,6 @@
     <t>PLS_INTEGER</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
   </si>
   <si>
@@ -654,7 +534,7 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
-    <t>SMALLINT</t>
+    <t>INT2</t>
   </si>
   <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
@@ -669,10 +549,10 @@
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
-    <t>同 FLOAT 相似，精度最大不超过 53</t>
+    <t>FLOAT8</t>
   </si>
   <si>
-    <t>DOUBLE PRECISION</t>
+    <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
@@ -697,9 +577,6 @@
   </si>
   <si>
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
-  </si>
-  <si>
-    <t>CHARACTER(长度)</t>
   </si>
   <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
@@ -728,10 +605,14 @@
 LONGBLOB
 RAW
 LONG RAW
-BYTEA</t>
+BYTEA
+IF NOT FOUND</t>
   </si>
   <si>
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
+  </si>
+  <si>
+    <t>BFILE</t>
   </si>
   <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
@@ -761,13 +642,16 @@
     <t>TIME WITH TIME ZONE</t>
   </si>
   <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -845,114 +729,10 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+    <t>INT1</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
-  </si>
-  <si>
-    <t>INT1
-INT2
-INT4</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
-  </si>
-  <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
+    <t>INT4</t>
   </si>
   <si>
     <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
@@ -962,6 +742,9 @@
   </si>
   <si>
     <t>CHAR(M)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
   </si>
   <si>
     <t>VARCHAR(M)</t>
@@ -974,10 +757,28 @@
     <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
   </si>
   <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
     <t>CLOB(L)</t>
   </si>
   <si>
     <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
   </si>
   <si>
     <t>BINARY(M)</t>
@@ -986,11 +787,218 @@
     <t>VARBINARY(M)</t>
   </si>
   <si>
+    <t>IF NOT FOUND</t>
+  </si>
+  <si>
     <t>INTERVAL YEAR TO MONTH
 INTERVAL DAY TO SECOND</t>
   </si>
   <si>
     <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT
+BIGINT
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+  </si>
+  <si>
+    <t>CHAR(L)</t>
+  </si>
+  <si>
+    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR
+BPCHAR</t>
+  </si>
+  <si>
+    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+TEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB</t>
+  </si>
+  <si>
+    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+  </si>
+  <si>
+    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+  </si>
+  <si>
+    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
+  </si>
+  <si>
+    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
+  </si>
+  <si>
+    <t>TIME
+YEAR
+DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>DEC
+NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2</t>
+  </si>
+  <si>
+    <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <r>
@@ -2204,7 +2212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2535,25 +2543,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2580,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2614,16 +2622,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2648,16 +2656,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2682,16 +2690,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2716,14 +2724,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2748,16 +2756,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2781,19 +2789,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2818,16 +2826,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2851,19 +2859,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2888,14 +2896,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2919,17 +2927,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3037,19 +3045,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3074,16 +3082,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3108,14 +3116,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3140,16 +3148,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3174,16 +3182,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3208,14 +3216,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3379,17 +3387,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3414,14 +3422,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3446,14 +3454,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3478,16 +3486,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3512,14 +3520,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3544,16 +3552,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3667,7 +3675,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3691,17 +3699,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3726,14 +3734,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3758,14 +3766,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3790,16 +3798,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3824,13 +3832,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3967,17 +3975,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4002,14 +4010,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4173,7 +4181,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8011,25 +8019,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8086,16 +8094,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8207,19 +8215,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8331,19 +8339,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8513,19 +8521,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8551,14 +8559,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8584,16 +8592,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8619,14 +8627,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8652,16 +8660,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8687,16 +8695,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8722,14 +8730,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8784,14 +8792,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8817,14 +8825,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8878,7 +8886,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8939,16 +8947,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8974,14 +8982,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9007,14 +9015,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9184,17 +9192,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9220,16 +9228,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9255,16 +9263,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9290,7 +9298,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9322,15 +9330,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9357,15 +9365,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9477,7 +9485,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9682,7 +9690,7 @@
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -14060,25 +14068,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14106,14 +14114,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14139,16 +14147,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14174,14 +14182,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14207,14 +14215,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14240,16 +14248,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14275,16 +14283,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14310,16 +14318,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14431,17 +14439,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14467,18 +14475,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14504,18 +14512,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14541,14 +14549,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14747,21 +14755,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14787,18 +14795,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14824,20 +14832,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14863,18 +14871,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15044,21 +15052,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15084,16 +15092,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15119,18 +15127,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15156,14 +15164,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15190,13 +15198,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15222,16 +15230,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15285,19 +15293,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15323,14 +15331,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15356,16 +15364,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15391,16 +15399,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15483,17 +15491,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15519,16 +15527,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15554,18 +15562,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15591,16 +15599,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15626,7 +15634,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15657,18 +15665,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15694,16 +15702,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15729,16 +15737,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15765,13 +15773,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15798,13 +15806,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15831,13 +15839,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15864,13 +15872,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15897,13 +15905,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15930,13 +15938,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -15963,13 +15971,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -15996,13 +16004,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16029,13 +16037,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16062,13 +16070,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16095,13 +16103,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16128,13 +16136,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16161,13 +16169,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16308,7 +16316,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -16513,7 +16521,7 @@
     </row>
     <row r="76">
       <c r="A76" s="25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -21036,25 +21044,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -21082,16 +21090,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21117,14 +21125,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21150,16 +21158,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21185,16 +21193,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21220,16 +21228,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21255,14 +21263,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21288,14 +21296,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21321,14 +21329,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21411,17 +21419,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21447,14 +21455,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21480,16 +21488,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21630,19 +21638,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>254</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21668,16 +21676,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21703,14 +21711,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21822,16 +21830,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21858,13 +21866,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21891,13 +21899,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -21953,13 +21961,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21986,7 +21994,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22161,16 +22169,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22197,7 +22205,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22401,10 +22409,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22435,13 +22443,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22468,13 +22476,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22502,7 +22510,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22533,7 +22541,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22564,7 +22572,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22651,17 +22659,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22687,14 +22695,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22806,7 +22814,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -23011,7 +23019,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27329,25 +27337,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -27375,13 +27383,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27408,13 +27416,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27441,7 +27449,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27472,7 +27480,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27503,7 +27511,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27534,7 +27542,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27565,13 +27573,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27684,10 +27692,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27718,13 +27726,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -27953,16 +27961,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -27989,13 +27997,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28022,7 +28030,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28168,16 +28176,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28204,13 +28212,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28237,7 +28245,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28268,13 +28276,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28301,7 +28309,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28447,7 +28455,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28479,13 +28487,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28512,7 +28520,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28544,7 +28552,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28575,7 +28583,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28749,10 +28757,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28783,7 +28791,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28814,13 +28822,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29020,17 +29028,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29056,14 +29064,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -29262,7 +29270,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -33553,25 +33561,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -33599,13 +33607,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33632,13 +33640,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33665,7 +33673,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33696,13 +33704,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33729,7 +33737,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33760,13 +33768,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33792,16 +33800,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33828,13 +33836,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33861,7 +33869,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33891,10 +33899,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33925,7 +33933,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33956,7 +33964,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33987,14 +33995,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34019,10 +34027,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34139,16 +34147,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34175,13 +34183,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34208,7 +34216,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34239,14 +34247,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34272,7 +34280,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34303,13 +34311,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34336,7 +34344,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34367,7 +34375,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34398,7 +34406,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34429,7 +34437,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34460,7 +34468,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34491,7 +34499,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34551,7 +34559,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34582,7 +34590,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34613,7 +34621,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34672,10 +34680,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34706,7 +34714,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34737,7 +34745,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34768,12 +34776,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -34799,7 +34809,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34830,7 +34840,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34861,7 +34871,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34921,7 +34931,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35010,7 +35020,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35069,10 +35079,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35103,7 +35113,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35134,7 +35144,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35165,7 +35175,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35196,13 +35206,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35229,13 +35239,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35262,7 +35272,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35293,7 +35303,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35324,7 +35334,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35441,10 +35451,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35475,7 +35485,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -35650,7 +35660,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -40028,22 +40038,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -40071,13 +40081,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -40103,13 +40113,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -40134,16 +40144,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -40168,16 +40178,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -40203,13 +40213,13 @@
     <row r="6">
       <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -40234,10 +40244,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -40267,7 +40277,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -40297,7 +40307,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -40327,7 +40337,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -40357,7 +40367,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -40387,7 +40397,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -40417,7 +40427,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -40558,10 +40568,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -40591,7 +40601,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40844,16 +40854,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40879,13 +40889,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -41106,10 +41116,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -41306,7 +41316,7 @@
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -25,16 +25,23 @@
     <t>整型数据类型</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
-  </si>
-  <si>
     <t>INTEGER</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT
+BIGINT
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
   </si>
   <si>
     <t>浮点数据类型</t>
@@ -43,46 +50,114 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>定点数据类型</t>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
   </si>
   <si>
-    <t>DECIMAL(p,s)</t>
+    <t>数值数据类型</t>
   </si>
   <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
+    <t>NUMBER(P,S)</t>
   </si>
   <si>
-    <t>NUMERIC(p,s)</t>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
   </si>
   <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
   </si>
   <si>
     <t>字符数据类型</t>
   </si>
   <si>
-    <t>CHAR(长度)</t>
+    <t>CHAR(L)</t>
   </si>
   <si>
-    <t>NCHAR(长度)</t>
+    <t>CHARACTER</t>
   </si>
   <si>
-    <t>VARCHAR(长度)</t>
+    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
   </si>
   <si>
-    <t>LVARCHAR(长度)</t>
+    <t>NCHAR(L)</t>
   </si>
   <si>
-    <t>NVARCHAR(长度)</t>
+    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
   </si>
   <si>
-    <t>TEXT</t>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR
+BPCHAR</t>
+  </si>
+  <si>
+    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
   </si>
   <si>
     <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+TEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB</t>
+  </si>
+  <si>
+    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
   </si>
   <si>
     <t>二进制数据类型</t>
@@ -91,7 +166,24 @@
     <t>BLOB</t>
   </si>
   <si>
-    <t>BYTE</t>
+    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+  </si>
+  <si>
+    <t>BFILE</t>
+  </si>
+  <si>
+    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
   </si>
   <si>
     <t>日期时间数据类型</t>
@@ -100,19 +192,53 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
+    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
   </si>
   <si>
-    <t>DATETIME</t>
+    <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+    <t>TIME
+YEAR
+DATETIME</t>
   </si>
   <si>
-    <t>布尔数据类型</t>
+    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
   </si>
   <si>
     <t>TINYINT(长度)</t>
@@ -159,6 +285,9 @@
     <t>INTEGER(长度)</t>
   </si>
   <si>
+    <t>同上</t>
+  </si>
+  <si>
     <t>BIGINT(长度)</t>
   </si>
   <si>
@@ -185,6 +314,9 @@
     <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
   </si>
   <si>
+    <t>定点数据类型</t>
+  </si>
+  <si>
     <t>DECIMAL(精度,标度)</t>
   </si>
   <si>
@@ -208,11 +340,17 @@
     <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
   </si>
   <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
     <t>NCHAR
 CHARACTER</t>
   </si>
   <si>
     <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
   </si>
   <si>
     <t>VARCHAR2
@@ -227,6 +365,9 @@
   </si>
   <si>
     <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t>CLOB
@@ -289,9 +430,6 @@
     <t>LONGBLOB</t>
   </si>
   <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
     <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
   </si>
   <si>
@@ -313,13 +451,13 @@
     <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
     <t>DATETIME WITH TIME ZONE</t>
   </si>
   <si>
     <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>TIMESTAMP WITH TIME ZONE
@@ -345,166 +483,49 @@
     <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
-    <t>TINYINT</t>
+    <t>INT</t>
   </si>
   <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
   </si>
   <si>
-    <t>SMALLINT</t>
+    <t>DECIMAL(p,s)</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
   </si>
   <si>
-    <t>MEDIUMINT</t>
+    <t>NUMERIC(p,s)</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
   </si>
   <si>
-    <t>INT1
-INT2
-INT4</t>
+    <t>NCHAR(长度)</t>
   </si>
   <si>
-    <t>BIGINT</t>
+    <t>LVARCHAR(长度)</t>
   </si>
   <si>
-    <t>INT8</t>
+    <t>NVARCHAR(长度)</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+    <t>BYTE</t>
   </si>
   <si>
-    <t>SMALLSERIAL</t>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
   </si>
   <si>
-    <t>相当于创建一个SMALLINT列</t>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
   </si>
   <si>
-    <t>SERIAL</t>
+    <t>布尔数据类型</t>
   </si>
   <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>数值数据类型</t>
-  </si>
-  <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>CHARACTER(长度)</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
+    <t>BOOLEAN</t>
   </si>
   <si>
     <t>BIT</t>
@@ -523,7 +544,16 @@
     <t>PLS_INTEGER</t>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
   </si>
   <si>
     <t>INT1
@@ -534,10 +564,16 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
     <t>INT2</t>
   </si>
   <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
+  </si>
+  <si>
+    <t>REAL</t>
   </si>
   <si>
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
@@ -553,6 +589,9 @@
   </si>
   <si>
     <t>同 FLOAT 相似，精度最大不超过 53</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
@@ -577,6 +616,9 @@
   </si>
   <si>
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
+  </si>
+  <si>
+    <t>CHARACTER(长度)</t>
   </si>
   <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
@@ -612,9 +654,6 @@
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
   </si>
   <si>
-    <t>BFILE</t>
-  </si>
-  <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
   </si>
   <si>
@@ -642,16 +681,13 @@
     <t>TIME WITH TIME ZONE</t>
   </si>
   <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -729,213 +765,130 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>INT1</t>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
   </si>
   <si>
-    <t>INT4</t>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
   </si>
   <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
   </si>
   <si>
-    <t>BIT(M)</t>
+    <t>MEDIUMINT</t>
   </si>
   <si>
-    <t>CHAR(M)</t>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
   </si>
   <si>
-    <t>CHARACTER</t>
+    <t>INT1
+INT2
+INT4</t>
   </si>
   <si>
-    <t>VARCHAR(M)</t>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
   </si>
   <si>
-    <t>SET
-BPCHAR</t>
+    <t>SMALLSERIAL</t>
   </si>
   <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+    <t>相当于创建一个SMALLINT列</t>
   </si>
   <si>
-    <t>NCHAR(L)</t>
+    <t>SERIAL</t>
   </si>
   <si>
-    <t>VARCHAR2(L)</t>
+    <t>相当于创建一个INT列</t>
   </si>
   <si>
-    <t>NVARCHAR2(L)</t>
+    <t>BIGSERIAL</t>
   </si>
   <si>
-    <t>CLOB(L)</t>
+    <t>相当于创建一个BIGINT列</t>
   </si>
   <si>
-    <t>NCLOB(L)</t>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
   </si>
   <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT
-BIGINT
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
   </si>
   <si>
     <t>DOUBLE
 FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
+FLOAT8</t>
   </si>
   <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
   </si>
   <si>
-    <t>NUMBER(P,S)</t>
+    <t>NUMERIC(precision, scale)</t>
   </si>
   <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
   </si>
   <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+    <t>DECIMAL(precision, scale)</t>
   </si>
   <si>
-    <t>CHAR(L)</t>
+    <t>DEC</t>
   </si>
   <si>
-    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
+    <t>NUMBER(precision, scale)</t>
   </si>
   <si>
-    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR
-BPCHAR</t>
-  </si>
-  <si>
-    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+    <t>CHARACTER VARYING</t>
   </si>
   <si>
     <t>TINYTEXT
-TEXT
 MEDIUMTEXT
 LONGTEXT
+SET
 ENUM
-SET
+NCLOB
+ROWID
+UROWID
 LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
-  </si>
-  <si>
-    <t>NCLOB</t>
   </si>
   <si>
     <t>BINARY
 VARBINARY
 TINYBLOB
 MEDIUMBLOB
-LONGBLOB</t>
-  </si>
-  <si>
-    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
-  </si>
-  <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
 IF NOT FOUND</t>
   </si>
   <si>
-    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+    <t>BYTEA</t>
   </si>
   <si>
-    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+    <t>YEAR
+DATETIME
+TIME</t>
   </si>
   <si>
-    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
   </si>
   <si>
-    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
+    <t>INTERVAL</t>
   </si>
   <si>
-    <t>TIME
-YEAR
-DATETIME</t>
+    <t>BOOL</t>
   </si>
   <si>
-    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
@@ -945,6 +898,12 @@
     <t>SMALLINT
 MEDIUMINT
 NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT4</t>
   </si>
   <si>
     <t>BIGINT
@@ -999,6 +958,47 @@
 DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+  </si>
+  <si>
+    <t>BIT(M)</t>
+  </si>
+  <si>
+    <t>CHAR(M)</t>
+  </si>
+  <si>
+    <t>VARCHAR(M)</t>
+  </si>
+  <si>
+    <t>SET
+BPCHAR</t>
+  </si>
+  <si>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>CLOB(L)</t>
+  </si>
+  <si>
+    <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>BINARY(M)</t>
+  </si>
+  <si>
+    <t>VARBINARY(M)</t>
+  </si>
+  <si>
+    <t>IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>其他数据类型</t>
   </si>
   <si>
     <r>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2588,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2622,16 +2622,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2656,16 +2656,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2690,16 +2690,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2724,14 +2724,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2756,16 +2756,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2789,19 +2789,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2826,16 +2826,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2859,19 +2859,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2896,14 +2896,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2927,17 +2927,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3045,19 +3045,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3082,16 +3082,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3116,14 +3116,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3148,16 +3148,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3182,16 +3182,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3216,14 +3216,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3387,17 +3387,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3422,14 +3422,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3454,14 +3454,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3486,16 +3486,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3520,14 +3520,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3552,16 +3552,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3675,7 +3675,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3699,17 +3699,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3734,14 +3734,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3766,14 +3766,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3798,16 +3798,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3832,13 +3832,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3975,17 +3975,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4010,14 +4010,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -8094,16 +8094,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8215,19 +8215,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8339,19 +8339,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8521,19 +8521,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8559,14 +8559,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8592,16 +8592,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8627,14 +8627,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8660,16 +8660,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8695,16 +8695,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8730,14 +8730,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8792,14 +8792,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8825,14 +8825,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8947,16 +8947,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8982,14 +8982,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9015,14 +9015,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9192,17 +9192,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9228,16 +9228,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9263,16 +9263,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9298,7 +9298,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9330,15 +9330,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9365,15 +9365,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -14114,14 +14114,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14147,16 +14147,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14182,14 +14182,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14215,14 +14215,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14248,16 +14248,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14283,16 +14283,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14318,16 +14318,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14439,17 +14439,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14475,18 +14475,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14512,18 +14512,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14549,14 +14549,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14755,21 +14755,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14795,18 +14795,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14832,20 +14832,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14871,18 +14871,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15052,21 +15052,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15092,16 +15092,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15127,18 +15127,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15164,14 +15164,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15198,13 +15198,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15230,16 +15230,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15293,19 +15293,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15331,14 +15331,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15364,16 +15364,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15399,16 +15399,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15491,17 +15491,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15527,16 +15527,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15562,18 +15562,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15599,16 +15599,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15634,7 +15634,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15665,18 +15665,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15702,16 +15702,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15737,16 +15737,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15773,13 +15773,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15806,13 +15806,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15839,13 +15839,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15872,13 +15872,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15905,13 +15905,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15938,13 +15938,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -15971,13 +15971,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16004,13 +16004,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16037,13 +16037,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16070,13 +16070,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16103,13 +16103,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16136,13 +16136,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16169,13 +16169,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -21090,16 +21090,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21125,14 +21125,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21158,16 +21158,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21193,16 +21193,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21228,16 +21228,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21263,14 +21263,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21296,14 +21296,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21329,14 +21329,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21419,17 +21419,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21455,14 +21455,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21488,16 +21488,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21638,19 +21638,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21676,16 +21676,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21711,14 +21711,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21830,16 +21830,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21866,13 +21866,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21899,13 +21899,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -21961,13 +21961,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21994,7 +21994,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22169,16 +22169,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22205,7 +22205,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22409,10 +22409,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22443,13 +22443,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22476,13 +22476,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22510,7 +22510,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22541,7 +22541,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22572,7 +22572,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22659,17 +22659,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22695,14 +22695,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22814,7 +22814,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -27383,13 +27383,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27416,13 +27416,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27449,7 +27449,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27480,7 +27480,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27511,7 +27511,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27542,7 +27542,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27573,13 +27573,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27692,10 +27692,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27726,13 +27726,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -27961,16 +27961,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -27997,13 +27997,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28030,7 +28030,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28176,16 +28176,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28212,13 +28212,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28245,7 +28245,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28276,13 +28276,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28309,7 +28309,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28455,7 +28455,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28487,13 +28487,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28520,7 +28520,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28552,7 +28552,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28583,7 +28583,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28757,10 +28757,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28791,7 +28791,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28822,13 +28822,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29028,17 +29028,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29064,14 +29064,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -33607,13 +33607,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33640,13 +33640,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33673,7 +33673,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33704,13 +33704,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33737,7 +33737,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33768,13 +33768,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33800,16 +33800,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33836,13 +33836,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33869,7 +33869,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33899,10 +33899,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33933,7 +33933,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33964,7 +33964,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33995,14 +33995,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34027,10 +34027,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34147,16 +34147,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34183,13 +34183,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34216,7 +34216,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34247,14 +34247,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34280,7 +34280,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34311,13 +34311,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34344,7 +34344,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34375,7 +34375,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34406,7 +34406,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34437,7 +34437,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34468,7 +34468,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34499,7 +34499,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34559,7 +34559,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34590,7 +34590,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34621,7 +34621,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34680,10 +34680,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34714,7 +34714,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34745,7 +34745,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34776,13 +34776,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -34809,7 +34809,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34840,7 +34840,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34871,7 +34871,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34931,7 +34931,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35020,7 +35020,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35079,10 +35079,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35113,7 +35113,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35144,7 +35144,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35175,7 +35175,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35206,13 +35206,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35239,13 +35239,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35272,7 +35272,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35303,7 +35303,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35334,7 +35334,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35451,10 +35451,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35485,7 +35485,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -40081,13 +40081,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -40113,13 +40113,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -40144,16 +40144,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -40178,16 +40178,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -40213,13 +40213,13 @@
     <row r="6">
       <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -40244,10 +40244,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -40277,7 +40277,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -40307,7 +40307,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -40337,7 +40337,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -40367,7 +40367,7 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -40397,7 +40397,7 @@
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -40427,7 +40427,7 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -40568,10 +40568,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -40601,7 +40601,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40854,16 +40854,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -40889,13 +40889,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -41116,10 +41116,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,9 +20,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="335" uniqueCount="335">
   <si>
     <t>整型数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT(长度)</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>SMALLINT(长度)</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(长度)</t>
+  </si>
+  <si>
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>浮点数据类型</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(精度,标度)</t>
+  </si>
+  <si>
+    <t>DEC(精度,标度)</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
+  </si>
+  <si>
+    <t>BIT(M)</t>
+  </si>
+  <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(M)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>VARCHAR(M)</t>
+  </si>
+  <si>
+    <t>SET
+BPCHAR</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>CLOB(L)</t>
+  </si>
+  <si>
+    <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
+  </si>
+  <si>
+    <t>BINARY(M)</t>
+  </si>
+  <si>
+    <t>VARBINARY(M)</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>BFILE</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
   </si>
   <si>
     <t>INTEGER</t>
@@ -41,29 +260,22 @@
 BOOLEAN</t>
   </si>
   <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>浮点数据类型</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>DOUBLE
 FLOAT4
 FLOAT8
 DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
   </si>
   <si>
-    <t>数值数据类型</t>
+    <t>DECIMAL(p,s)</t>
   </si>
   <si>
-    <t>NUMBER(P,S)</t>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
+  </si>
+  <si>
+    <t>NUMERIC(p,s)</t>
   </si>
   <si>
     <t>DECIMAL
@@ -73,30 +285,183 @@
 INT8</t>
   </si>
   <si>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
+  </si>
+  <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
+    <t>NCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>LVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
+  </si>
+  <si>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+  </si>
+  <si>
+    <t>布尔数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
+  </si>
+  <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(precision, scale)</t>
+  </si>
+  <si>
+    <t>DEC
+NUMBER</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>NCHAR
+CHARACTER</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2</t>
+  </si>
+  <si>
+    <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+  </si>
+  <si>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
     <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
 P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
 S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
   </si>
   <si>
-    <t>字符数据类型</t>
-  </si>
-  <si>
     <t>CHAR(L)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
   </si>
   <si>
     <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
   </si>
   <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
     <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
   </si>
   <si>
     <t>VARCHAR
@@ -106,13 +471,7 @@
     <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
   </si>
   <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
     <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>CLOB</t>
   </si>
   <si>
     <t>TINYTEXT
@@ -140,13 +499,7 @@
     <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
   </si>
   <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
     <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID</t>
   </si>
   <si>
     <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
@@ -154,16 +507,7 @@
 列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
   </si>
   <si>
-    <t>UROWID</t>
-  </si>
-  <si>
     <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BLOB</t>
   </si>
   <si>
     <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
@@ -174,28 +518,13 @@
     <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
   </si>
   <si>
-    <t>BFILE</t>
-  </si>
-  <si>
     <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
   </si>
   <si>
     <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
   </si>
   <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>TIME
@@ -206,18 +535,12 @@
     <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>INTERVAL YEAR TO MONTH</t>
@@ -241,7 +564,126 @@
     <t>其它数据类型</t>
   </si>
   <si>
-    <t>TINYINT(长度)</t>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+  </si>
+  <si>
+    <t>INT1
+INT2
+INT4</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>CHARACTER(长度)</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
@@ -253,9 +695,6 @@
     <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
-    <t>SMALLINT(长度)</t>
-  </si>
-  <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
 INT2</t>
   </si>
@@ -263,16 +702,10 @@
     <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
   </si>
   <si>
-    <t>MEDIUMINT(长度)</t>
-  </si>
-  <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
   </si>
   <si>
     <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
-  </si>
-  <si>
-    <t>INT(长度)</t>
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
@@ -282,15 +715,6 @@
     <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
   </si>
   <si>
-    <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>BIGINT(长度)</t>
-  </si>
-  <si>
     <t>NUMBER&amp;&amp;columnScale==0
 INT8</t>
   </si>
@@ -298,26 +722,10 @@
     <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
   </si>
   <si>
-    <t>FLOAT4</t>
-  </si>
-  <si>
     <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
   </si>
   <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
     <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(精度,标度)</t>
   </si>
   <si>
     <t>NUMBER
@@ -328,46 +736,19 @@
     <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
   </si>
   <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
     <t>BIT(精度)</t>
   </si>
   <si>
     <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
   </si>
   <si>
-    <t>CHAR(长度)</t>
-  </si>
-  <si>
-    <t>NCHAR
-CHARACTER</t>
-  </si>
-  <si>
     <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>VARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
   </si>
   <si>
     <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
   </si>
   <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
     <t>0-255 bytes 短文本字符串</t>
-  </si>
-  <si>
-    <t>TEXT</t>
   </si>
   <si>
     <t>CLOB
@@ -379,34 +760,16 @@
     <t>0-65 535 bytes 长文本数据</t>
   </si>
   <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
     <t>0-16 777 215 bytes	中等长度文本数据</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
   </si>
   <si>
     <t>0-4 294 967 295 bytes	极大文本数据</t>
   </si>
   <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
     <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
   </si>
   <si>
-    <t>VARBINARY(长度)</t>
-  </si>
-  <si>
     <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
   </si>
   <si>
     <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
@@ -421,13 +784,7 @@
     <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
   </si>
   <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
     <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
   </si>
   <si>
     <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
@@ -439,22 +796,10 @@
     <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>1 bytes 1901/2155 YYYY 年份值</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
   </si>
   <si>
     <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
@@ -471,9 +816,6 @@
     <t>枚举数据类型</t>
   </si>
   <si>
-    <t>ENUM</t>
-  </si>
-  <si>
     <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
   </si>
   <si>
@@ -481,51 +823,6 @@
   </si>
   <si>
     <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
-  </si>
-  <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s)</t>
-  </si>
-  <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
-  </si>
-  <si>
-    <t>NUMERIC(p,s)</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
-  </si>
-  <si>
-    <t>NCHAR(长度)</t>
-  </si>
-  <si>
-    <t>LVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
-  </si>
-  <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
-  </si>
-  <si>
-    <t>布尔数据类型</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
   </si>
   <si>
     <t>BIT</t>
@@ -544,16 +841,7 @@
     <t>PLS_INTEGER</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
   </si>
   <si>
     <t>INT1
@@ -564,16 +852,7 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
-  </si>
-  <si>
-    <t>REAL</t>
   </si>
   <si>
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
@@ -585,13 +864,7 @@
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
-    <t>FLOAT8</t>
-  </si>
-  <si>
     <t>同 FLOAT 相似，精度最大不超过 53</t>
-  </si>
-  <si>
-    <t>DOUBLE PRECISION</t>
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
@@ -618,37 +891,13 @@
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
   </si>
   <si>
-    <t>CHARACTER(长度)</t>
-  </si>
-  <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
   </si>
   <si>
     <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
   </si>
   <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
     <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BYTEA
-IF NOT FOUND</t>
   </si>
   <si>
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
@@ -676,12 +925,6 @@
   </si>
   <si>
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
-  </si>
-  <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
@@ -763,242 +1006,6 @@
   </si>
   <si>
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
-  </si>
-  <si>
-    <t>INT1
-INT2
-INT4</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
-  </si>
-  <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT4</t>
-  </si>
-  <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>DEC
-NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
-  </si>
-  <si>
-    <t>BPCHAR(长度)</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
-  </si>
-  <si>
-    <t>CHAR(M)</t>
-  </si>
-  <si>
-    <t>VARCHAR(M)</t>
-  </si>
-  <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
   </si>
   <si>
     <r>
@@ -1725,6 +1732,18 @@
         <color rgb="FFFFFFFF"/>
         <b val="true"/>
       </rPr>
+      <t xml:space="preserve">匹配</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FFFFFFFF"/>
+        <b val="true"/>
+      </rPr>
       <t xml:space="preserve">说明</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2212,7 +2231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2543,25 +2562,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2588,16 +2607,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2622,16 +2641,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2656,16 +2675,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2690,16 +2709,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2724,14 +2743,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2756,16 +2775,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2789,19 +2808,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2826,16 +2845,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2859,19 +2878,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2896,14 +2915,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2927,17 +2946,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3045,19 +3064,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3082,16 +3101,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3116,14 +3135,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3148,16 +3167,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3182,16 +3201,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3216,14 +3235,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3387,17 +3406,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3422,14 +3441,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3454,14 +3473,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3486,16 +3505,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3520,14 +3539,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3552,16 +3571,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3675,7 +3694,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3699,17 +3718,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3734,14 +3753,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3766,14 +3785,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3798,16 +3817,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3832,13 +3851,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3975,17 +3994,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4010,14 +4029,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4181,7 +4200,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8019,25 +8038,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8094,16 +8113,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8215,19 +8234,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8339,19 +8358,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8521,19 +8540,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8559,14 +8578,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8592,16 +8611,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8627,14 +8646,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8660,16 +8679,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8695,16 +8714,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8730,14 +8749,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8792,14 +8811,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8825,14 +8844,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8886,7 +8905,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8947,16 +8966,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -8982,14 +9001,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9015,14 +9034,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9192,17 +9211,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9228,16 +9247,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9263,16 +9282,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9298,7 +9317,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9330,15 +9349,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9365,15 +9384,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9485,7 +9504,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9690,7 +9709,7 @@
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -14068,25 +14087,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14114,14 +14133,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14147,16 +14166,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14182,14 +14201,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14215,14 +14234,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14248,16 +14267,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14283,16 +14302,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14318,16 +14337,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14439,17 +14458,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14475,18 +14494,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14512,18 +14531,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14549,14 +14568,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14755,21 +14774,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14795,18 +14814,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14832,20 +14851,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14871,18 +14890,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15052,21 +15071,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15092,16 +15111,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15127,18 +15146,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15164,14 +15183,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15198,13 +15217,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15230,16 +15249,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15293,19 +15312,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15331,14 +15350,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15364,16 +15383,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15399,16 +15418,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15491,17 +15510,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15527,16 +15546,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15562,18 +15581,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15599,16 +15618,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15634,7 +15653,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15665,18 +15684,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15702,16 +15721,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15737,16 +15756,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15773,13 +15792,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15806,13 +15825,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15839,13 +15858,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15872,13 +15891,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15905,13 +15924,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15938,13 +15957,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -15971,13 +15990,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16004,13 +16023,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16037,13 +16056,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16070,13 +16089,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16103,13 +16122,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16136,13 +16155,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16169,13 +16188,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16316,7 +16335,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -16521,7 +16540,7 @@
     </row>
     <row r="76">
       <c r="A76" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -21044,25 +21063,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -21090,16 +21109,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21125,14 +21144,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21158,16 +21177,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21193,16 +21212,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21228,16 +21247,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21263,14 +21282,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21296,14 +21315,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21329,14 +21348,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21419,17 +21438,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21455,14 +21474,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21488,16 +21507,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21638,19 +21657,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21676,16 +21695,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21711,14 +21730,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21830,16 +21849,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21866,13 +21885,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21899,13 +21918,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -21961,13 +21980,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -21994,7 +22013,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22169,16 +22188,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22205,7 +22224,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22409,10 +22428,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22443,13 +22462,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22476,13 +22495,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22510,7 +22529,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22541,7 +22560,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22572,7 +22591,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22659,17 +22678,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22695,14 +22714,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22814,7 +22833,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -23019,7 +23038,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27337,25 +27356,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -27383,13 +27402,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27416,13 +27435,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27449,7 +27468,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27480,7 +27499,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27511,7 +27530,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27542,7 +27561,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27573,13 +27592,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27692,10 +27711,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27726,13 +27745,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -27961,16 +27980,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -27997,13 +28016,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28030,7 +28049,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28176,16 +28195,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28212,13 +28231,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28245,7 +28264,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28276,13 +28295,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28309,7 +28328,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28455,7 +28474,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28487,13 +28506,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28520,7 +28539,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28552,7 +28571,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28583,7 +28602,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28757,10 +28776,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28791,7 +28810,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28822,13 +28841,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29028,17 +29047,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29064,14 +29083,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -29270,7 +29289,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -33561,25 +33580,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -33607,13 +33626,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33640,13 +33659,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33673,7 +33692,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33704,13 +33723,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33737,7 +33756,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33768,13 +33787,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33800,16 +33819,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33836,13 +33855,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33869,7 +33888,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33899,10 +33918,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33933,7 +33952,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33964,7 +33983,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -33995,14 +34014,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34027,10 +34046,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34147,16 +34166,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34183,13 +34202,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34216,7 +34235,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34247,14 +34266,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34280,7 +34299,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34311,13 +34330,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34344,7 +34363,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34375,7 +34394,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34406,7 +34425,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34437,7 +34456,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34468,7 +34487,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34499,7 +34518,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34559,7 +34578,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34590,7 +34609,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34621,7 +34640,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34680,10 +34699,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34714,7 +34733,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34745,7 +34764,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34776,13 +34795,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -34809,7 +34828,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34840,7 +34859,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34871,7 +34890,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34931,7 +34950,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35020,7 +35039,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35079,10 +35098,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35113,7 +35132,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35144,7 +35163,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35175,7 +35194,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35206,13 +35225,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35239,13 +35258,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35272,7 +35291,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35303,7 +35322,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35334,7 +35353,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35451,10 +35470,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35485,7 +35504,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -35660,7 +35679,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -40013,8 +40032,8 @@
     <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="137.0" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="14.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="33.0" hidden="false" customWidth="true"/>
+    <col min="7" max="7" width="137.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
     <col min="10" max="10" width="14.0" hidden="false" customWidth="true"/>
@@ -40034,28 +40053,31 @@
     <col min="24" max="24" width="14.0" hidden="false" customWidth="true"/>
     <col min="25" max="25" width="14.0" hidden="false" customWidth="true"/>
     <col min="26" max="26" width="14.0" hidden="false" customWidth="true"/>
+    <col min="27" max="27" width="14.0" hidden="false" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -40075,21 +40097,22 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>134</v>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
       </c>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -40109,19 +40132,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>73</v>
+      <c r="F3" s="6" t="s">
+        <v>74</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -40141,21 +40165,16 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -40175,21 +40194,16 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -40209,19 +40223,16 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -40241,19 +40252,24 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -40273,17 +40289,16 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="A8" s="31"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -40303,17 +40318,16 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="A9" s="31"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -40333,17 +40347,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="A10" s="31"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -40363,17 +40376,16 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -40393,17 +40405,22 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
-        <v>98</v>
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -40423,17 +40440,22 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -40453,15 +40475,22 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -40481,15 +40510,18 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -40509,15 +40541,20 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -40537,15 +40574,18 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -40565,19 +40605,20 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -40597,17 +40638,18 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -40627,15 +40669,20 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -40655,15 +40702,16 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -40683,15 +40731,16 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -40711,15 +40760,16 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -40739,15 +40789,16 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -40767,15 +40818,22 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -40795,15 +40853,18 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -40823,15 +40884,16 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -40851,21 +40913,16 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="3"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -40885,19 +40942,16 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="3"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -40917,15 +40971,16 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -40945,15 +41000,16 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -40973,15 +41029,16 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -41001,15 +41058,16 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -41029,15 +41087,16 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -41057,15 +41116,22 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -41085,15 +41151,20 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -41113,19 +41184,16 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="7"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -41145,15 +41213,16 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -41173,15 +41242,16 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -41201,15 +41271,16 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -41229,15 +41300,16 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -41257,15 +41329,16 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -41285,6 +41358,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="7"/>
@@ -41293,7 +41367,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -41313,17 +41387,20 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="s">
-        <v>331</v>
+      <c r="A44" s="4" t="s">
+        <v>95</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -41343,15 +41420,16 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -41371,6 +41449,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="7"/>
@@ -41379,7 +41458,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -41399,6 +41478,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="7"/>
@@ -41407,7 +41487,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -41427,15 +41507,16 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -41455,15 +41536,16 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -41483,15 +41565,16 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -41511,15 +41594,18 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -41539,15 +41625,16 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -41567,15 +41654,16 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -41595,15 +41683,16 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -41623,6 +41712,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
@@ -41651,6 +41741,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
@@ -41679,6 +41770,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
@@ -41707,6 +41799,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
@@ -41735,6 +41828,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
@@ -41763,6 +41857,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
@@ -41791,6 +41886,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
@@ -41819,6 +41915,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
@@ -41847,6 +41944,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
@@ -41875,6 +41973,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
@@ -41903,6 +42002,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
@@ -41931,6 +42031,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
@@ -41959,6 +42060,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
@@ -41987,6 +42089,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
@@ -42015,6 +42118,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
@@ -42043,6 +42147,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
@@ -42071,6 +42176,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
@@ -42099,6 +42205,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
@@ -42127,6 +42234,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
@@ -42155,6 +42263,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
@@ -42183,6 +42292,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
@@ -42211,6 +42321,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
@@ -42239,6 +42350,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
@@ -42267,6 +42379,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
@@ -42295,6 +42408,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
@@ -42323,6 +42437,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
@@ -42351,6 +42466,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
@@ -42379,6 +42495,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
@@ -42407,6 +42524,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
@@ -42435,6 +42553,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
@@ -42463,6 +42582,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
@@ -42491,6 +42611,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
@@ -42519,6 +42640,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
@@ -42547,6 +42669,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
@@ -42575,6 +42698,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
@@ -42603,6 +42727,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
@@ -42631,6 +42756,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
@@ -42659,6 +42785,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
@@ -42687,6 +42814,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
@@ -42715,6 +42843,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
@@ -42743,6 +42872,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
@@ -42771,6 +42901,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
@@ -42799,6 +42930,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
@@ -42827,6 +42959,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
@@ -42855,6 +42988,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
@@ -42883,6 +43017,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
@@ -42911,6 +43046,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
@@ -42939,6 +43075,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
@@ -42967,6 +43104,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
@@ -42995,6 +43133,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
@@ -43023,6 +43162,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
@@ -43051,6 +43191,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
@@ -43079,6 +43220,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
@@ -43107,6 +43249,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
@@ -43135,6 +43278,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
@@ -43163,6 +43307,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
@@ -43191,6 +43336,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
@@ -43219,6 +43365,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
@@ -43247,6 +43394,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
@@ -43275,6 +43423,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
@@ -43303,6 +43452,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
@@ -43331,6 +43481,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
@@ -43359,6 +43510,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
@@ -43387,6 +43539,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
@@ -43415,6 +43568,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
@@ -43443,6 +43597,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
@@ -43471,6 +43626,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
@@ -43499,6 +43655,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
@@ -43527,6 +43684,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
@@ -43555,6 +43713,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
@@ -43583,6 +43742,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
@@ -43611,6 +43771,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
@@ -43639,6 +43800,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
@@ -43667,6 +43829,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
@@ -43695,6 +43858,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
@@ -43723,6 +43887,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
@@ -43751,6 +43916,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
@@ -43779,6 +43945,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
@@ -43807,6 +43974,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
@@ -43835,6 +44003,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
@@ -43863,6 +44032,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
@@ -43891,6 +44061,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
@@ -43919,6 +44090,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
@@ -43947,6 +44119,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
@@ -43975,6 +44148,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
@@ -44003,6 +44177,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
@@ -44031,6 +44206,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
@@ -44059,6 +44235,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
@@ -44087,6 +44264,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
+      <c r="AA142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
@@ -44115,6 +44293,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
+      <c r="AA143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
@@ -44143,6 +44322,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
+      <c r="AA144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
@@ -44171,6 +44351,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
@@ -44199,6 +44380,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
@@ -44227,6 +44409,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
@@ -44255,6 +44438,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
@@ -44283,6 +44467,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
+      <c r="AA149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
@@ -44311,6 +44496,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
@@ -44339,6 +44525,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
@@ -44367,6 +44554,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
@@ -44395,6 +44583,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
+      <c r="AA153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
@@ -44423,6 +44612,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
@@ -44451,6 +44641,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
@@ -44479,6 +44670,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
+      <c r="AA156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
@@ -44507,6 +44699,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
+      <c r="AA157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
@@ -44535,6 +44728,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
+      <c r="AA158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
@@ -44563,6 +44757,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
@@ -44591,6 +44786,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
@@ -44619,6 +44815,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
@@ -44647,6 +44844,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
@@ -44675,6 +44873,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
+      <c r="AA163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
@@ -44703,6 +44902,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
@@ -44731,6 +44931,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
+      <c r="AA165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
@@ -44759,6 +44960,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
@@ -44787,6 +44989,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
@@ -44815,6 +45018,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
@@ -44843,6 +45047,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
@@ -44871,6 +45076,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
@@ -44899,6 +45105,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
@@ -44927,6 +45134,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
+      <c r="AA172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
@@ -44955,6 +45163,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
@@ -44983,6 +45192,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
@@ -45011,6 +45221,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
+      <c r="AA175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
@@ -45039,6 +45250,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
+      <c r="AA176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
@@ -45067,6 +45279,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
+      <c r="AA177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
@@ -45095,6 +45308,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
+      <c r="AA178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
@@ -45123,6 +45337,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
+      <c r="AA179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
@@ -45151,6 +45366,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
@@ -45179,6 +45395,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
@@ -45207,6 +45424,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
+      <c r="AA182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
@@ -45235,6 +45453,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
+      <c r="AA183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
@@ -45263,6 +45482,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
+      <c r="AA184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
@@ -45291,6 +45511,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
+      <c r="AA185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
@@ -45319,6 +45540,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
+      <c r="AA186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
@@ -45347,6 +45569,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
+      <c r="AA187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
@@ -45375,6 +45598,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
+      <c r="AA188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
@@ -45403,6 +45627,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
+      <c r="AA189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
@@ -45431,6 +45656,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
+      <c r="AA190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
@@ -45459,20 +45685,225 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
+      <c r="AA191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="3"/>
+      <c r="Z192" s="3"/>
+      <c r="AA192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+      <c r="Y193" s="3"/>
+      <c r="Z193" s="3"/>
+      <c r="AA193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+      <c r="Y194" s="3"/>
+      <c r="Z194" s="3"/>
+      <c r="AA194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+      <c r="Y195" s="3"/>
+      <c r="Z195" s="3"/>
+      <c r="AA195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+      <c r="Y196" s="3"/>
+      <c r="Z196" s="3"/>
+      <c r="AA196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+      <c r="Y197" s="3"/>
+      <c r="Z197" s="3"/>
+      <c r="AA197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+      <c r="Y198" s="3"/>
+      <c r="Z198" s="3"/>
+      <c r="AA198" s="3"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="7">
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A44:F45"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A51:G52"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A44" r:id="rId1"/>
+    <hyperlink ref="A51" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="337" uniqueCount="337">
   <si>
     <t>整型数据类型</t>
   </si>
@@ -28,31 +28,58 @@
     <t>TINYINT(长度)</t>
   </si>
   <si>
-    <t>INT1</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+INT1
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
     <t>SMALLINT(长度)</t>
   </si>
   <si>
-    <t>INT2</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
+INT2</t>
+  </si>
+  <si>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
   </si>
   <si>
     <t>MEDIUMINT(长度)</t>
   </si>
   <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+  </si>
+  <si>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+  </si>
+  <si>
     <t>INT(长度)</t>
   </si>
   <si>
-    <t>INT4</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+INT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
   </si>
   <si>
     <t>INTEGER(长度)</t>
   </si>
   <si>
+    <t>同上</t>
+  </si>
+  <si>
     <t>BIGINT(长度)</t>
   </si>
   <si>
-    <t>INT8</t>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
   </si>
   <si>
     <t>浮点数据类型</t>
@@ -64,6 +91,9 @@
     <t>FLOAT4</t>
   </si>
   <si>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+  </si>
+  <si>
     <t>DOUBLE</t>
   </si>
   <si>
@@ -71,661 +101,13 @@
 DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>REAL</t>
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
   </si>
   <si>
     <t>定点数据类型</t>
   </si>
   <si>
     <t>DECIMAL(精度,标度)</t>
-  </si>
-  <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
-  </si>
-  <si>
-    <t>字符数据类型</t>
-  </si>
-  <si>
-    <t>CHAR(M)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>VARCHAR(M)</t>
-  </si>
-  <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>BFILE</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT
-BIGINT
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s)</t>
-  </si>
-  <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
-  </si>
-  <si>
-    <t>NUMERIC(p,s)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
-  </si>
-  <si>
-    <t>CHAR(长度)</t>
-  </si>
-  <si>
-    <t>NCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
-    <t>LVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>CLOB</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
-  </si>
-  <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
-  </si>
-  <si>
-    <t>布尔数据类型</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
-  </si>
-  <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>FLOAT8</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>数值数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
-    <t>DEC
-NUMBER</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
-    <t>NCHAR
-CHARACTER</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
-  </si>
-  <si>
-    <t>BPCHAR(长度)</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度)</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
-  </si>
-  <si>
-    <t>CHAR(L)</t>
-  </si>
-  <si>
-    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR
-BPCHAR</t>
-  </si>
-  <si>
-    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-TEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
-  </si>
-  <si>
-    <t>NCLOB</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB</t>
-  </si>
-  <si>
-    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
-  </si>
-  <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
-  </si>
-  <si>
-    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
-  </si>
-  <si>
-    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
-  </si>
-  <si>
-    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
-  </si>
-  <si>
-    <t>TIME
-YEAR
-DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
-  </si>
-  <si>
-    <t>其它数据类型</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
-  </si>
-  <si>
-    <t>INT1
-INT2
-INT4</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
-  </si>
-  <si>
-    <t>SMALLSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个SMALLINT列</t>
-  </si>
-  <si>
-    <t>相当于创建一个INT列</t>
-  </si>
-  <si>
-    <t>BIGSERIAL</t>
-  </si>
-  <si>
-    <t>相当于创建一个BIGINT列</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8</t>
-  </si>
-  <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
-  </si>
-  <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
-    <t>CHARACTER(长度)</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-BFILE
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-INT1
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
-INT2</t>
-  </si>
-  <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
-  </si>
-  <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-INT4</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
   </si>
   <si>
     <t>NUMBER
@@ -736,19 +118,49 @@
     <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
   </si>
   <si>
+    <t>DEC(精度,标度)</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
+  </si>
+  <si>
     <t>BIT(精度)</t>
   </si>
   <si>
     <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
   </si>
   <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
+    <t>NCHAR
+CHARACTER</t>
+  </si>
+  <si>
     <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
   </si>
   <si>
     <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
   </si>
   <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
     <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t>CLOB
@@ -760,19 +172,43 @@
     <t>0-65 535 bytes 长文本数据</t>
   </si>
   <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
     <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
   </si>
   <si>
     <t>0-4 294 967 295 bytes	极大文本数据</t>
   </si>
   <si>
+    <t>二进制数据类型</t>
+  </si>
+  <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
     <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
   </si>
   <si>
     <t>可变长度二进制字符串 M+1 字节</t>
   </si>
   <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
     <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BLOB</t>
   </si>
   <si>
     <t>BFILE
@@ -784,7 +220,16 @@
     <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
   </si>
   <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
     <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
   </si>
   <si>
     <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
@@ -793,16 +238,37 @@
     <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
   </si>
   <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
   <si>
     <t>1 bytes 1901/2155 YYYY 年份值</t>
   </si>
   <si>
+    <t>YEAR</t>
+  </si>
+  <si>
     <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
     <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>TIMESTAMP WITH TIME ZONE
@@ -814,6 +280,9 @@
   </si>
   <si>
     <t>枚举数据类型</t>
+  </si>
+  <si>
+    <t>ENUM</t>
   </si>
   <si>
     <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
@@ -831,6 +300,9 @@
     <t>BIT 类型用于存储整数数据 1、0 或 NULL</t>
   </si>
   <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
     <t>MEDIUMINT
 INT4</t>
   </si>
@@ -838,10 +310,22 @@
     <t>用于存储有符号整数，精度为 10，标度为 0。取值范围为：-2147483648(-2^31)～+2147483647(2^31-1)</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>PLS_INTEGER</t>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
   </si>
   <si>
     <t>INT1
@@ -852,7 +336,16 @@
     <t xml:space="preserve">储有符号整数，精度为 3，标度为 0。取值范围为：-128～+127 </t>
   </si>
   <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
+  </si>
+  <si>
+    <t>REAL</t>
   </si>
   <si>
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
@@ -864,10 +357,19 @@
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
     <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
   </si>
   <si>
     <t>NUMERIC( 精度 , 标度)</t>
@@ -891,16 +393,46 @@
     <t>定长字符串，最大长度由数据库页面大小决定，具体可参考《DM8_SQL 语言使用手册》1.4.1 节。长度不足时，自动填充空格</t>
   </si>
   <si>
+    <t>CHARACTER(长度)</t>
+  </si>
+  <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
   </si>
   <si>
     <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
   </si>
   <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
     <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
   </si>
   <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
+  </si>
+  <si>
+    <t>BFILE</t>
   </si>
   <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
@@ -927,10 +459,22 @@
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
   </si>
   <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -972,6 +516,9 @@
     <t>秒间隔，即为两个日期/时间之间的秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
     <t>年月间隔，即两个日期之间的年月数字，P 为时间间隔的首精度</t>
   </si>
   <si>
@@ -985,6 +532,9 @@
   </si>
   <si>
     <t>日时分间隔，即为两个日期/时间之间的日时分数字，P 为时间间隔的首精度</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
   </si>
   <si>
     <t>日时分秒间隔，即为两个日期/时间之间的日时分秒数字，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
@@ -1006,6 +556,477 @@
   </si>
   <si>
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
+  </si>
+  <si>
+    <t>布尔数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT
+BIGINT
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+  </si>
+  <si>
+    <t>CHAR(L)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
+  </si>
+  <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR
+BPCHAR</t>
+  </si>
+  <si>
+    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+TEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB</t>
+  </si>
+  <si>
+    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+  </si>
+  <si>
+    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+  </si>
+  <si>
+    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
+  </si>
+  <si>
+    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
+  </si>
+  <si>
+    <t>TIME
+YEAR
+DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+  </si>
+  <si>
+    <t>INT1
+INT2
+INT4</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DECIMAL(precision, scale)</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+  </si>
+  <si>
+    <t>BIT(M)</t>
+  </si>
+  <si>
+    <t>CHAR(M)</t>
+  </si>
+  <si>
+    <t>VARCHAR(M)</t>
+  </si>
+  <si>
+    <t>SET
+BPCHAR</t>
+  </si>
+  <si>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>CLOB(L)</t>
+  </si>
+  <si>
+    <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>BINARY(M)</t>
+  </si>
+  <si>
+    <t>VARBINARY(M)</t>
+  </si>
+  <si>
+    <t>IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
+  </si>
+  <si>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s)</t>
+  </si>
+  <si>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
+  </si>
+  <si>
+    <t>NUMERIC(p,s)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8
+BIGINT
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;=11)||(columnPrecision&lt;=11))</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
+  </si>
+  <si>
+    <t>NCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>LVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
+  </si>
+  <si>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>DEC
+NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2</t>
+  </si>
+  <si>
+    <t>BPCHAR(长度)</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <r>
@@ -2231,7 +2252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2562,25 +2583,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2613,10 +2634,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2641,16 +2662,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2675,16 +2696,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2709,16 +2730,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2743,14 +2764,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2775,16 +2796,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2808,19 +2829,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2845,16 +2866,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2878,19 +2899,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2915,14 +2936,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2946,17 +2967,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3064,19 +3085,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3101,16 +3122,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3135,14 +3156,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3167,16 +3188,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3201,16 +3222,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3235,14 +3256,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3406,17 +3427,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3441,14 +3462,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3473,14 +3494,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3505,16 +3526,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3539,14 +3560,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3571,16 +3592,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3694,7 +3715,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3718,17 +3739,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3753,14 +3774,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3785,14 +3806,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3817,16 +3838,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3851,13 +3872,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -3994,17 +4015,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4029,14 +4050,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4200,7 +4221,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8038,25 +8059,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8113,16 +8134,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8234,19 +8255,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8358,19 +8379,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8540,19 +8561,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8578,14 +8599,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8611,16 +8632,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8646,14 +8667,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8679,16 +8700,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8714,16 +8735,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8749,14 +8770,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8811,14 +8832,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8844,14 +8865,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8905,7 +8926,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8966,16 +8987,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -9001,14 +9022,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9034,14 +9055,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9211,17 +9232,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9247,16 +9268,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9282,16 +9303,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9317,7 +9338,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9349,15 +9370,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9384,15 +9405,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9504,7 +9525,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9709,7 +9730,7 @@
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -14087,25 +14108,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14133,14 +14154,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14166,16 +14187,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14201,14 +14222,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14234,14 +14255,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14267,16 +14288,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14302,16 +14323,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14337,16 +14358,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14458,17 +14479,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14494,18 +14515,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14531,18 +14552,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14568,14 +14589,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14774,21 +14795,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14814,18 +14835,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14851,20 +14872,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14890,18 +14911,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15071,21 +15092,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15111,16 +15132,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15146,18 +15167,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15183,14 +15204,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15217,13 +15238,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15249,16 +15270,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15312,19 +15333,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15350,14 +15371,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15383,16 +15404,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15418,16 +15439,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15510,17 +15531,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15546,16 +15567,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15581,18 +15602,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15618,16 +15639,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15653,7 +15674,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15684,18 +15705,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15721,16 +15742,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15756,16 +15777,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15792,13 +15813,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15825,13 +15846,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15858,13 +15879,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15891,13 +15912,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15924,13 +15945,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15957,13 +15978,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -15990,13 +16011,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16023,13 +16044,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16056,13 +16077,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16089,13 +16110,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16122,13 +16143,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16155,13 +16176,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16188,13 +16209,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16335,7 +16356,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -16540,7 +16561,7 @@
     </row>
     <row r="76">
       <c r="A76" s="25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -21063,25 +21084,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -21109,16 +21130,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21144,14 +21165,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21177,16 +21198,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21212,16 +21233,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21247,16 +21268,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21282,14 +21303,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21315,14 +21336,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21348,14 +21369,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21438,17 +21459,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21474,14 +21495,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21507,16 +21528,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21657,19 +21678,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21695,16 +21716,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21730,14 +21751,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21849,16 +21870,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21885,13 +21906,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21918,13 +21939,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -21980,13 +22001,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -22013,7 +22034,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22188,16 +22209,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22224,7 +22245,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22428,10 +22449,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22462,13 +22483,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22495,13 +22516,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22529,7 +22550,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22560,7 +22581,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22591,7 +22612,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22678,17 +22699,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22714,14 +22735,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22833,7 +22854,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -23038,7 +23059,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27356,25 +27377,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -27402,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27435,13 +27456,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27468,7 +27489,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27499,7 +27520,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27530,7 +27551,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27561,7 +27582,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27592,13 +27613,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27711,10 +27732,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27745,13 +27766,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -27980,16 +28001,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -28016,13 +28037,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28049,7 +28070,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28195,16 +28216,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28231,13 +28252,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28264,7 +28285,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28295,13 +28316,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28328,7 +28349,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28474,7 +28495,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28506,13 +28527,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28539,7 +28560,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28571,7 +28592,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28602,7 +28623,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28776,10 +28797,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28810,7 +28831,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28841,13 +28862,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29047,17 +29068,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29083,14 +29104,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -29289,7 +29310,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -33580,25 +33601,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -33632,7 +33653,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33659,13 +33680,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33692,7 +33713,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33723,13 +33744,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33756,7 +33777,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33787,13 +33808,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33819,16 +33840,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33855,13 +33876,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33888,7 +33909,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33918,10 +33939,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33952,7 +33973,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33983,7 +34004,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -34014,14 +34035,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34046,10 +34067,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34166,16 +34187,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34202,13 +34223,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34235,7 +34256,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34266,14 +34287,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34299,7 +34320,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34330,13 +34351,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34363,7 +34384,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34394,7 +34415,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34425,7 +34446,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34456,7 +34477,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34487,7 +34508,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34518,7 +34539,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34578,7 +34599,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34609,7 +34630,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34640,7 +34661,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34699,10 +34720,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34733,7 +34754,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34764,7 +34785,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34795,13 +34816,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -34828,7 +34849,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34859,7 +34880,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34890,7 +34911,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34950,7 +34971,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35039,7 +35060,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35098,10 +35119,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35132,7 +35153,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35163,7 +35184,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35194,7 +35215,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35225,13 +35246,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35258,13 +35279,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35291,7 +35312,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35322,7 +35343,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35353,7 +35374,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35470,10 +35491,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35504,7 +35525,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -35679,7 +35700,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -40032,7 +40053,7 @@
     <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="33.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="79.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="137.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -40058,25 +40079,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -40104,14 +40125,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -40137,13 +40158,13 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
@@ -40256,19 +40277,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -40409,17 +40430,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -40445,16 +40466,16 @@
     <row r="13">
       <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -40479,16 +40500,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -40515,7 +40536,7 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -40546,13 +40567,13 @@
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
@@ -40579,7 +40600,7 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -40610,13 +40631,13 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="4" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -40643,7 +40664,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40674,13 +40695,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="3"/>
@@ -40822,16 +40843,16 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="6" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
@@ -40858,7 +40879,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -41120,17 +41141,17 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -41156,14 +41177,14 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="4" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -41391,10 +41412,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -41598,7 +41619,7 @@
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -20,66 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="338" uniqueCount="338">
   <si>
     <t>整型数据类型</t>
   </si>
   <si>
-    <t>TINYINT(长度)</t>
+    <t>INT</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+BIT&amp;&amp;columnLength==1||columnPrecision==1
 INT1
+INT2
+INT4
 BOOL
 BOOLEAN</t>
   </si>
   <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+    <t>BIGINT</t>
   </si>
   <si>
-    <t>SMALLINT(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
-INT2</t>
-  </si>
-  <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
-  </si>
-  <si>
-    <t>MEDIUMINT(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
-  </si>
-  <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
-  </si>
-  <si>
-    <t>INT(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-INT4</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
-  </si>
-  <si>
-    <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>BIGINT(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
+    <t>INT8
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;=11)||(columnPrecision&lt;=11))</t>
   </si>
   <si>
     <t>浮点数据类型</t>
@@ -88,10 +59,152 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>FLOAT4</t>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC</t>
+  </si>
+  <si>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
+  </si>
+  <si>
+    <t>NUMERIC(p,s)</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
+  </si>
+  <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>NCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>LVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
+  </si>
+  <si>
+    <t>布尔数据类型</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>TINYINT(长度)</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>SMALLINT(长度)</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(长度)</t>
+  </si>
+  <si>
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>FLOAT4</t>
   </si>
   <si>
     <t>DOUBLE</t>
@@ -101,206 +214,241 @@
 DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
+    <t>REAL</t>
   </si>
   <si>
     <t>DECIMAL(精度,标度)</t>
   </si>
   <si>
-    <t>NUMBER
-REAL
-NUMERIC</t>
+    <t>DEC(精度,标度)</t>
   </si>
   <si>
-    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+    <t>NUMBER(precision, scale)</t>
   </si>
   <si>
-    <t>DEC(精度,标度)</t>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
   </si>
   <si>
     <t>位数据类型</t>
   </si>
   <si>
-    <t>BIT(精度)</t>
+    <t>BIT(M)</t>
   </si>
   <si>
-    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+    <t>CHAR(M)</t>
   </si>
   <si>
-    <t>字符数据类型</t>
+    <t>VARCHAR(M)</t>
   </si>
   <si>
-    <t>CHAR(长度)</t>
+    <t>SET
+BPCHAR</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>CLOB(L)</t>
+  </si>
+  <si>
+    <t>NCLOB(L)</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>BINARY(M)</t>
+  </si>
+  <si>
+    <t>VARBINARY(M)</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>BFILE</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
+  </si>
+  <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(precision, scale)</t>
+  </si>
+  <si>
+    <t>DEC
+NUMBER</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
   </si>
   <si>
     <t>NCHAR
 CHARACTER</t>
   </si>
   <si>
-    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+    <t>VARCHAR2
+NVARCHAR2</t>
   </si>
   <si>
-    <t>VARCHAR(长度)</t>
+    <t>BPCHAR(长度)</t>
   </si>
   <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
   </si>
   <si>
-    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>0-255 bytes 短文本字符串</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>CLOB
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 长文本数据</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	中等长度文本数据</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	极大文本数据</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
   </si>
   <si>
     <t>BINARY(长度)</t>
   </si>
   <si>
-    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
-  </si>
-  <si>
     <t>VARBINARY(长度)</t>
   </si>
   <si>
-    <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>BFILE
-RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
-  </si>
-  <si>
-    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>1 bytes 1901/2155 YYYY 年份值</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
+    <t>YEAR
+DATETIME
+TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
 INTERVAL YEAR TO MONTH
 INTERVAL DAY TO SECOND
+DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
-    <t>枚举数据类型</t>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
   </si>
   <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
+    <t>同上</t>
   </si>
   <si>
     <t>BIT</t>
   </si>
   <si>
     <t>BIT 类型用于存储整数数据 1、0 或 NULL</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
   </si>
   <si>
     <t>MEDIUMINT
@@ -310,22 +458,10 @@
     <t>用于存储有符号整数，精度为 10，标度为 0。取值范围为：-2147483648(-2^31)～+2147483647(2^31-1)</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>PLS_INTEGER</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
   </si>
   <si>
     <t>INT1
@@ -339,13 +475,7 @@
     <t>SMALLINT</t>
   </si>
   <si>
-    <t>INT2</t>
-  </si>
-  <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
-  </si>
-  <si>
-    <t>REAL</t>
   </si>
   <si>
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
@@ -357,9 +487,6 @@
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
-    <t>FLOAT8</t>
-  </si>
-  <si>
     <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
@@ -367,9 +494,6 @@
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
-  </si>
-  <si>
-    <t>数值数据类型</t>
   </si>
   <si>
     <t>NUMERIC( 精度 , 标度)</t>
@@ -396,43 +520,21 @@
     <t>CHARACTER(长度)</t>
   </si>
   <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
   </si>
   <si>
     <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
   </si>
   <si>
-    <t>CLOB</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
     <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
   </si>
   <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
-  </si>
-  <si>
-    <t>BFILE</t>
   </si>
   <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
@@ -459,22 +561,10 @@
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
   </si>
   <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -558,7 +648,143 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>布尔数据类型</t>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+INT1
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
+INT2</t>
+  </si>
+  <si>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+  </si>
+  <si>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+INT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
+  </si>
+  <si>
+    <t>NUMBER
+REAL
+NUMERIC</t>
+  </si>
+  <si>
+    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+  </si>
+  <si>
+    <t>BIT(精度)</t>
+  </si>
+  <si>
+    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+  </si>
+  <si>
+    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>CLOB
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
+    <t>0-65 535 bytes 长文本数据</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	极大文本数据</t>
+  </si>
+  <si>
+    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>可变长度二进制字符串 M+1 字节</t>
+  </si>
+  <si>
+    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BFILE
+RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
+  </si>
+  <si>
+    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
+  </si>
+  <si>
+    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>1 bytes 1901/2155 YYYY 年份值</t>
+  </si>
+  <si>
+    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
+  </si>
+  <si>
+    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>枚举数据类型</t>
+  </si>
+  <si>
+    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
     <t>TINYINT
@@ -575,12 +801,6 @@
   </si>
   <si>
     <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
   </si>
   <si>
     <t>FLOAT类型也是NUMBER的子类型。
@@ -605,19 +825,10 @@
     <t>CHAR(L)</t>
   </si>
   <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
     <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
   </si>
   <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
     <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
   </si>
   <si>
     <t>VARCHAR
@@ -625,9 +836,6 @@
   </si>
   <si>
     <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
   </si>
   <si>
     <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
@@ -658,21 +866,12 @@
     <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
   </si>
   <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
     <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID</t>
   </si>
   <si>
     <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
 ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
 列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
   </si>
   <si>
     <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
@@ -755,9 +954,6 @@
     <t>相当于创建一个SMALLINT列</t>
   </si>
   <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
     <t>相当于创建一个INT列</t>
   </si>
   <si>
@@ -781,9 +977,6 @@
     <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
   </si>
   <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
     <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
 precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
 使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
@@ -794,13 +987,7 @@
 原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
   </si>
   <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
     <t>DEC</t>
-  </si>
-  <si>
-    <t>NUMBER(precision, scale)</t>
   </si>
   <si>
     <t>CHARACTER VARYING</t>
@@ -829,9 +1016,6 @@
 IF NOT FOUND</t>
   </si>
   <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
     <t>YEAR
 DATETIME
 TIME</t>
@@ -844,189 +1028,6 @@
   </si>
   <si>
     <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT4</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
-  </si>
-  <si>
-    <t>CHAR(M)</t>
-  </si>
-  <si>
-    <t>VARCHAR(M)</t>
-  </si>
-  <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s)</t>
-  </si>
-  <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
-  </si>
-  <si>
-    <t>NUMERIC(p,s)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8
-BIGINT
-INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;=11)||(columnPrecision&lt;=11))</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
-  </si>
-  <si>
-    <t>NCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
-    <t>LVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
-  </si>
-  <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
-  </si>
-  <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>DEC
-NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
-  </si>
-  <si>
-    <t>BPCHAR(长度)</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-NCLOB
-ROWID
-UROWID
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <r>
@@ -2252,7 +2253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2583,25 +2584,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2628,16 +2629,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2662,16 +2663,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2696,16 +2697,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2730,16 +2731,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2764,14 +2765,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2796,16 +2797,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2829,19 +2830,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2866,16 +2867,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2899,19 +2900,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2936,14 +2937,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2967,17 +2968,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3085,19 +3086,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3122,16 +3123,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3156,14 +3157,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3188,16 +3189,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3222,16 +3223,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3256,14 +3257,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3427,17 +3428,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3462,14 +3463,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3494,14 +3495,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3526,16 +3527,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3560,14 +3561,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3592,16 +3593,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3715,7 +3716,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3739,17 +3740,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3774,14 +3775,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3806,14 +3807,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3838,16 +3839,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3872,13 +3873,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -4015,17 +4016,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4050,14 +4051,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4221,7 +4222,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8059,25 +8060,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8134,16 +8135,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8255,19 +8256,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8379,19 +8380,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8561,19 +8562,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8599,14 +8600,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8632,16 +8633,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8667,14 +8668,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -8700,16 +8701,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -8735,16 +8736,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -8770,14 +8771,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8832,14 +8833,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8865,14 +8866,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8926,7 +8927,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8987,16 +8988,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -9022,14 +9023,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9055,14 +9056,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9232,17 +9233,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9268,16 +9269,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9303,16 +9304,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9338,7 +9339,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9370,15 +9371,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9405,15 +9406,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9525,7 +9526,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9730,7 +9731,7 @@
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -14108,25 +14109,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14154,14 +14155,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14187,16 +14188,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14222,14 +14223,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14255,14 +14256,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14288,16 +14289,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14323,16 +14324,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14358,16 +14359,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14479,17 +14480,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14515,18 +14516,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14552,18 +14553,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14589,14 +14590,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14795,21 +14796,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14835,18 +14836,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14872,20 +14873,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14911,18 +14912,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15092,21 +15093,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15132,16 +15133,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15167,18 +15168,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15204,14 +15205,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15238,13 +15239,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15270,16 +15271,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15333,19 +15334,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15371,14 +15372,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15404,16 +15405,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15439,16 +15440,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15531,17 +15532,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15567,16 +15568,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15602,18 +15603,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15639,16 +15640,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15674,7 +15675,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15705,18 +15706,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15742,16 +15743,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15777,16 +15778,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15813,13 +15814,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15846,13 +15847,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15879,13 +15880,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15912,13 +15913,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15945,13 +15946,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15978,13 +15979,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -16011,13 +16012,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16044,13 +16045,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16077,13 +16078,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16110,13 +16111,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16143,13 +16144,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16176,13 +16177,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16209,13 +16210,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16356,7 +16357,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -16561,7 +16562,7 @@
     </row>
     <row r="76">
       <c r="A76" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -21084,25 +21085,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -21130,16 +21131,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21165,14 +21166,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21198,16 +21199,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21233,16 +21234,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21268,16 +21269,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21303,14 +21304,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21336,14 +21337,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21369,14 +21370,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21459,17 +21460,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21495,14 +21496,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21528,16 +21529,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21678,19 +21679,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21716,16 +21717,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21751,14 +21752,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21870,16 +21871,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21906,13 +21907,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21939,13 +21940,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -22001,13 +22002,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -22034,7 +22035,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22209,16 +22210,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22245,7 +22246,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22449,10 +22450,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22483,13 +22484,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22516,13 +22517,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22550,7 +22551,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22581,7 +22582,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22612,7 +22613,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22699,17 +22700,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22735,14 +22736,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22854,7 +22855,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -23059,7 +23060,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27377,25 +27378,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -27423,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27456,13 +27457,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27489,7 +27490,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27520,7 +27521,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27551,7 +27552,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27582,7 +27583,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27613,13 +27614,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27732,10 +27733,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27766,13 +27767,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -28001,16 +28002,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -28037,13 +28038,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28070,7 +28071,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28216,16 +28217,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28252,13 +28253,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28285,7 +28286,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28316,13 +28317,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28349,7 +28350,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28495,7 +28496,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28527,13 +28528,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28560,7 +28561,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28592,7 +28593,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28623,7 +28624,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28797,10 +28798,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28831,7 +28832,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28862,13 +28863,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29068,17 +29069,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29104,14 +29105,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -29310,7 +29311,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -33601,25 +33602,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -33647,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33680,13 +33681,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33713,7 +33714,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33744,13 +33745,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33777,7 +33778,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33808,13 +33809,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33840,16 +33841,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33876,13 +33877,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33909,7 +33910,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33939,10 +33940,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33973,7 +33974,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -34004,7 +34005,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -34035,14 +34036,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34067,10 +34068,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34187,16 +34188,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34223,13 +34224,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34256,7 +34257,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34287,14 +34288,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34320,7 +34321,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34351,13 +34352,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34384,7 +34385,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34415,7 +34416,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34446,7 +34447,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34477,7 +34478,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34508,7 +34509,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34539,7 +34540,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34599,7 +34600,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34630,7 +34631,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34661,7 +34662,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34720,10 +34721,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34754,7 +34755,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34785,7 +34786,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34816,13 +34817,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -34849,7 +34850,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34880,7 +34881,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34911,7 +34912,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34971,7 +34972,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35060,7 +35061,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35119,10 +35120,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35153,7 +35154,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35184,7 +35185,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35215,7 +35216,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35246,13 +35247,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35279,13 +35280,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35312,7 +35313,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35343,7 +35344,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35374,7 +35375,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35491,10 +35492,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35525,7 +35526,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -35700,7 +35701,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -40079,25 +40080,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -40125,14 +40126,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -40158,13 +40159,13 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
@@ -40190,11 +40191,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -40277,19 +40282,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -40430,17 +40435,19 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -40466,16 +40473,14 @@
     <row r="13">
       <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="4" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -40500,16 +40505,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -40536,7 +40541,7 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -40567,13 +40572,13 @@
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
@@ -40600,7 +40605,7 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -40631,13 +40636,13 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="4" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -40664,7 +40669,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -40695,13 +40700,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="3"/>
@@ -40843,16 +40848,16 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
@@ -40879,7 +40884,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -41141,17 +41146,17 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -41177,14 +41182,14 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="4" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -41412,10 +41417,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -41619,7 +41624,7 @@
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -20,37 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="341" uniqueCount="341">
   <si>
     <t>整型数据类型</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>TINYINT(长度)</t>
   </si>
   <si>
-    <t>整数 -2,147,483,647 至 2,147,483,647</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-BIT&amp;&amp;columnLength==1||columnPrecision==1
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
 INT1
-INT2
-INT4
 BOOL
 BOOLEAN</t>
   </si>
   <si>
-    <t>BIGINT</t>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
   </si>
   <si>
-    <t>INT8
-INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;=11)||(columnPrecision&lt;=11))</t>
+    <t>SMALLINT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
+INT2</t>
+  </si>
+  <si>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+  </si>
+  <si>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+  </si>
+  <si>
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+INT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
   </si>
   <si>
     <t>浮点数据类型</t>
@@ -59,152 +88,10 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
+    <t>FLOAT4</t>
   </si>
   <si>
-    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC</t>
-  </si>
-  <si>
-    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
-  </si>
-  <si>
-    <t>NUMERIC(p,s)</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
-  </si>
-  <si>
-    <t>字符数据类型</t>
-  </si>
-  <si>
-    <t>CHAR(长度)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>NCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
-    <t>LVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR(长度)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>CLOB</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-SET
-ENUM
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
-  </si>
-  <si>
-    <t>布尔数据类型</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>TINYINT(长度)</t>
-  </si>
-  <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>SMALLINT(长度)</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>MEDIUMINT(长度)</t>
-  </si>
-  <si>
-    <t>INT(长度)</t>
-  </si>
-  <si>
-    <t>INT4</t>
-  </si>
-  <si>
-    <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>BIGINT(长度)</t>
-  </si>
-  <si>
-    <t>INT8</t>
-  </si>
-  <si>
-    <t>FLOAT4</t>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
   </si>
   <si>
     <t>DOUBLE</t>
@@ -214,241 +101,206 @@
 DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>REAL</t>
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
   </si>
   <si>
     <t>DECIMAL(精度,标度)</t>
   </si>
   <si>
-    <t>DEC(精度,标度)</t>
+    <t>NUMBER
+REAL
+NUMERIC</t>
   </si>
   <si>
-    <t>NUMBER(precision, scale)</t>
+    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
   </si>
   <si>
-    <t>NUMERIC(precision, scale)</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
+    <t>DEC(精度,标度)</t>
   </si>
   <si>
     <t>位数据类型</t>
   </si>
   <si>
-    <t>BIT(M)</t>
+    <t>BIT(精度)</t>
   </si>
   <si>
-    <t>CHAR(M)</t>
+    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
   </si>
   <si>
-    <t>VARCHAR(M)</t>
+    <t>字符数据类型</t>
   </si>
   <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>BFILE</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>BYTEA</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
-  </si>
-  <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
-  </si>
-  <si>
-    <t>SMALLINT
-MEDIUMINT
-NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
-  </si>
-  <si>
-    <t>BIGINT
-NUMBER&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>FLOAT8</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>数值数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(precision, scale)</t>
-  </si>
-  <si>
-    <t>DEC
-NUMBER</t>
-  </si>
-  <si>
-    <t>SERIAL</t>
+    <t>CHAR(长度)</t>
   </si>
   <si>
     <t>NCHAR
 CHARACTER</t>
   </si>
   <si>
-    <t>VARCHAR2
-NVARCHAR2</t>
+    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
   </si>
   <si>
-    <t>BPCHAR(长度)</t>
+    <t>VARCHAR(长度)</t>
   </si>
   <si>
-    <t>TINYTEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>CLOB
 NCLOB
 ROWID
-UROWID
-LONGVARCHAR</t>
+UROWID</t>
   </si>
   <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB
-RAW
-LONG RAW
-BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
+    <t>0-65 535 bytes 长文本数据</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	极大文本数据</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
   </si>
   <si>
     <t>BINARY(长度)</t>
   </si>
   <si>
+    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
     <t>VARBINARY(长度)</t>
   </si>
   <si>
-    <t>YEAR
-DATETIME
-TIMESTAMP WITH TIME ZONE
+    <t>可变长度二进制字符串 M+1 字节</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BFILE
+RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
+  </si>
+  <si>
+    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>1 bytes 1901/2155 YYYY 年份值</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
 INTERVAL YEAR TO MONTH
 INTERVAL DAY TO SECOND
-DATETIME WITH TIME ZONE
 TIME WITH TIME ZONE
 TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
-    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+    <t>枚举数据类型</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
   </si>
   <si>
     <t>BIT</t>
   </si>
   <si>
     <t>BIT 类型用于存储整数数据 1、0 或 NULL</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
   </si>
   <si>
     <t>MEDIUMINT
@@ -458,10 +310,22 @@
     <t>用于存储有符号整数，精度为 10，标度为 0。取值范围为：-2147483648(-2^31)～+2147483647(2^31-1)</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>PLS_INTEGER</t>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 19，标度为 0。取值范围为：-9223372036854775808(-2^63)～+9223372036854775807(2^63-1)</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
   </si>
   <si>
     <t>INT1
@@ -475,7 +339,13 @@
     <t>SMALLINT</t>
   </si>
   <si>
+    <t>INT2</t>
+  </si>
+  <si>
     <t>用于存储有符号整数，精度为 5，标度为 0。取值范围为：-32768(-2^15)~ +32767(2^15-1)</t>
+  </si>
+  <si>
+    <t>REAL</t>
   </si>
   <si>
     <t xml:space="preserve">REAL 是带二进制的浮点数，但它不能由用户指定使用的精度，系统指定其二进制精度为 24，十进制精度为 7。取值范围-3.4E+38～3.4E + 38 </t>
@@ -487,6 +357,9 @@
     <t>FLOAT 是带二进制精度的浮点数，精度最大不超过 53，如省略精度，则二进制精度为 53，十进制精度为 15。取值范围为-1.7E+308～1.7E+308</t>
   </si>
   <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
     <t>同 FLOAT 相似，精度最大不超过 53</t>
   </si>
   <si>
@@ -494,6 +367,9 @@
   </si>
   <si>
     <t>该类型指明双精度浮点数，其二进制精度为 53，十进制精度为 15。取值范围-1.7E+308 ～1.7E+308</t>
+  </si>
+  <si>
+    <t>数值数据类型</t>
   </si>
   <si>
     <t>NUMERIC( 精度 , 标度)</t>
@@ -520,21 +396,43 @@
     <t>CHARACTER(长度)</t>
   </si>
   <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
-  </si>
-  <si>
     <t>可变长字符串，最大长度由数据库页面大小决定</t>
   </si>
   <si>
     <t>变长字符串类型，其字符串的长度最大为 100G-1，可用于存储长的文本串</t>
   </si>
   <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
     <t>CLOB 类型用于指明变长的字符串，长度最大为 100G-1 字节</t>
   </si>
   <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+RAW
+LONG RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
     <t>BLOB 类型用于指明变长的二进制大对象，长度最大为 100G-1 字节</t>
+  </si>
+  <si>
+    <t>BFILE</t>
   </si>
   <si>
     <t>BFILE 用于指明存储在操作系统中的二进制文件，文件存储在操作系统而非数据库中，仅能进行只读访问</t>
@@ -561,10 +459,22 @@
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
   </si>
   <si>
+    <t>TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -648,143 +558,221 @@
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+    <t>布尔数据类型</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -128 ~ +127</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+  </si>
+  <si>
+    <t>INT1
+INT2
+INT4</t>
+  </si>
+  <si>
+    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个SMALLINT列</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个INT列</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>相当于创建一个BIGINT列</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+  </si>
+  <si>
+    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8</t>
+  </si>
+  <si>
+    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+  </si>
+  <si>
+    <t>NUMERIC(precision, scale)</t>
+  </si>
+  <si>
+    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
+precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
+使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
+也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
+也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
+————————————————
+版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+  </si>
+  <si>
+    <t>DECIMAL(precision, scale)</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>NUMBER(precision, scale)</t>
+  </si>
+  <si>
+    <t>CHARACTER VARYING</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+MEDIUMTEXT
+LONGTEXT
+SET
+ENUM
+NCLOB
+ROWID
+UROWID
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB
+BFILE
+RAW
+LONG RAW
+BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>YEAR
+DATETIME
+TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>布尔数据类型：TRUE 和 FALSE。DMSQL 程序的布尔类型和 INT 类型可以相互转化。如果变量或方法返回的类型是布尔类型，则返回值为 0 或 1。TRUE 和非 0 值的返回值为 1，FALSE 和 0 值返回为 0</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
+  </si>
+  <si>
+    <t>整数 -2,147,483,647 至 2,147,483,647</t>
+  </si>
+  <si>
+    <t>TINYINT
+MEDIUMINT
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+BIT&amp;&amp;columnLength==1||columnPrecision==1
 INT1
+INT2
+INT4
 BOOL
 BOOLEAN</t>
   </si>
   <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+    <t>INT8
+INT&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;=11)||(columnPrecision&lt;=11))</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
-INT2</t>
+    <t>自增类型，默认从1开始。可以设置初始值，如：serial(n)</t>
   </si>
   <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+    <t>SERIAL8</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+    <t>双精度浮点数值 存储最多带有 16 位有效数字的双精度浮点数值</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-INT4</t>
+    <t>SMALLFLOAT</t>
   </si>
   <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+    <t>DECIMAL(p,s)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>NUMBER
+    <t>DECIMAL
+DEC
 REAL
 NUMERIC</t>
   </si>
   <si>
-    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+    <t>存储实数的定点小数值 在小数部分中最多 20 位有效数字，或在小数点的左边最多 32 位有效数字。</t>
   </si>
   <si>
-    <t>BIT(精度)</t>
+    <t>NUMERIC(p,s)</t>
   </si>
   <si>
-    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+    <t>DECIMAL(p,s) 的符合 ANSI 的同义词 p最大精度是38位(十进制)</t>
   </si>
   <si>
-    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+    <t>CHARACTER</t>
   </si>
   <si>
-    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
+    <t>NCHAR(长度)</t>
   </si>
   <si>
-    <t>0-255 bytes 短文本字符串</t>
+    <t>VARCHAR2
+BPCHAR</t>
   </si>
   <si>
-    <t>CLOB
-NCLOB
-ROWID
-UROWID</t>
+    <t>LVARCHAR(长度)</t>
   </si>
   <si>
-    <t>0-65 535 bytes 长文本数据</t>
+    <t>NVARCHAR(长度)</t>
   </si>
   <si>
-    <t>0-16 777 215 bytes	中等长度文本数据</t>
+    <t>NVARCHAR2</t>
   </si>
   <si>
-    <t>0-4 294 967 295 bytes	极大文本数据</t>
+    <t>BYTE</t>
   </si>
   <si>
-    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+    <t>YYYY-MM-DD 1 年 1 月 1 日直至 9999 年 12 月 31 日</t>
   </si>
   <si>
-    <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
-  </si>
-  <si>
-    <t>BFILE
-RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
-  </si>
-  <si>
-    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
-  </si>
-  <si>
-    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
-  </si>
-  <si>
-    <t>1 bytes 1901/2155 YYYY 年份值</t>
-  </si>
-  <si>
-    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>枚举数据类型</t>
-  </si>
-  <si>
-    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
+    <t>（年、月、日）和每日时间（小时、分、秒和几分之一秒） 1 年至 9999 年</t>
   </si>
   <si>
     <t>TINYINT
@@ -828,7 +816,13 @@
     <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
   </si>
   <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
     <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
   </si>
   <si>
     <t>VARCHAR
@@ -836,6 +830,9 @@
   </si>
   <si>
     <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
   </si>
   <si>
     <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
@@ -866,12 +863,21 @@
     <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
   </si>
   <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
     <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID</t>
   </si>
   <si>
     <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
 ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
 列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
   </si>
   <si>
     <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
@@ -922,82 +928,87 @@
     <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
   </si>
   <si>
-    <t>其它数据类型</t>
+    <t>INT1</t>
   </si>
   <si>
-    <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+    <t>INT4</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -128 ~ +127</t>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -32768 ~ +32767</t>
+    <t>BIT(M)</t>
   </si>
   <si>
-    <t>MEDIUMINT</t>
+    <t>CHAR(M)</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
+    <t>VARCHAR(M)</t>
   </si>
   <si>
-    <t>INT1
-INT2
-INT4</t>
+    <t>SET
+BPCHAR</t>
   </si>
   <si>
-    <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
   </si>
   <si>
-    <t>SMALLSERIAL</t>
+    <t>CLOB(L)</t>
   </si>
   <si>
-    <t>相当于创建一个SMALLINT列</t>
+    <t>NCLOB(L)</t>
   </si>
   <si>
-    <t>相当于创建一个INT列</t>
+    <t>BINARY(M)</t>
   </si>
   <si>
-    <t>BIGSERIAL</t>
+    <t>VARBINARY(M)</t>
   </si>
   <si>
-    <t>相当于创建一个BIGINT列</t>
+    <t>IF NOT FOUND</t>
   </si>
   <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是 6 位小数</t>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
   </si>
   <si>
-    <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
+    <t>其他数据类型</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
+    <t>SMALLINT
+MEDIUMINT
+NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
+  </si>
+  <si>
+    <t>BIGINT
+NUMBER&amp;&amp;columnScale==0</t>
   </si>
   <si>
     <t>DOUBLE
-FLOAT4
-FLOAT8</t>
+FLOAT
+DOUBLE PRECISION</t>
   </si>
   <si>
-    <t>当p取值为1-24时，与REAL相同。当p取值为25-53时，与DOUBLE PRECISION相同。 没有指定精度时，与DOUBLE PRECISION相同</t>
+    <t>DEC
+NUMBER</t>
   </si>
   <si>
-    <t>存储0 以及绝对值为[1.0 x 10-130, 1.0 x 10126)的正、负定点数。 在算术运算中，如果超出范围，KingbaseE报错。
-precision表示精度，是整个数中有效位的总数，也就是小数点两边的位数。取值范围为 1~1000。 scale表示标度，是小数部分的数字位数，也就是小数点右边的部分。取值范围为0~1000。
-使用该数据类型时，最好指定定点数的小数位数和精度，以便在输入时进行额外的完整性检查。 指定小数位数和精度不会强制所有值都达到固定长度。如果某个值超过精度，KingbaseES将返回错误。如果某个值超过标度，KingbaseES会对其进行四舍五入。
-也可以使用NUMERIC(precision) 类型，即标度为0的定点数，即NUMERIC(precision, 0)
-也可以直接使用NUMERIC类型，缺省精度和标度，指定KingbaseES数值的最大精度和标度。 考虑到移植性，在使用时最好是显式声明精度和标度。
-————————————————
-版权声明：本文为CSDN博主「沉舟侧畔千帆过_」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
-原文链接：https://blog.csdn.net/arthemis_14/article/details/125843469</t>
+    <t>VARCHAR2
+NVARCHAR2</t>
   </si>
   <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>CHARACTER VARYING</t>
+    <t>BPCHAR(长度)</t>
   </si>
   <si>
     <t>TINYTEXT
 MEDIUMTEXT
 LONGTEXT
+ENUM
 SET
-ENUM
 NCLOB
 ROWID
 UROWID
@@ -1009,25 +1020,22 @@
 TINYBLOB
 MEDIUMBLOB
 LONGBLOB
-BFILE
 RAW
 LONG RAW
 BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
 IF NOT FOUND</t>
   </si>
   <si>
     <t>YEAR
 DATETIME
-TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH TIME ZONE
 TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
 DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
   </si>
   <si>
     <r>
@@ -2548,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
@@ -2584,25 +2592,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2629,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2663,16 +2671,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2697,16 +2705,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2731,16 +2739,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2765,14 +2773,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2797,16 +2805,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2830,19 +2838,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2867,16 +2875,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2900,19 +2908,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2937,14 +2945,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2968,17 +2976,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3086,19 +3094,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3123,16 +3131,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3157,14 +3165,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3189,16 +3197,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3223,16 +3231,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3257,14 +3265,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3428,17 +3436,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3463,14 +3471,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3495,14 +3503,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3527,16 +3535,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3561,14 +3569,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3593,16 +3601,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3716,7 +3724,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3740,17 +3748,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3775,14 +3783,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3807,14 +3815,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3839,16 +3847,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3873,13 +3881,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -4016,17 +4024,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4051,14 +4059,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4222,7 +4230,7 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -8023,7 +8031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -8060,25 +8068,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8135,16 +8143,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -8256,19 +8264,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -8380,19 +8388,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -8562,19 +8570,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -8600,14 +8608,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8633,16 +8641,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -8668,7 +8676,7 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -8701,7 +8709,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -8771,14 +8779,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -8833,14 +8841,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8866,14 +8874,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -8927,7 +8935,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8988,16 +8996,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -9023,14 +9031,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9056,14 +9064,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -9233,17 +9241,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -9269,16 +9277,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -9304,16 +9312,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9339,7 +9347,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -9371,15 +9379,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9406,15 +9414,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9526,7 +9534,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9731,7 +9739,7 @@
     </row>
     <row r="54">
       <c r="A54" s="22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -14072,7 +14080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -14109,25 +14117,25 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="true">
       <c r="A1" s="19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -14155,14 +14163,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -14188,16 +14196,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14223,14 +14231,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -14256,14 +14264,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -14289,16 +14297,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -14324,16 +14332,16 @@
     <row r="7" ht="42.0" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14359,16 +14367,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -14480,17 +14488,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -14516,18 +14524,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -14553,18 +14561,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -14590,14 +14598,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -14796,21 +14804,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14836,18 +14844,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14873,20 +14881,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14912,18 +14920,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15093,21 +15101,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -15133,16 +15141,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15168,18 +15176,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -15205,14 +15213,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -15239,13 +15247,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -15271,16 +15279,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -15334,19 +15342,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15372,14 +15380,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15405,16 +15413,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15440,16 +15448,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -15532,17 +15540,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -15568,16 +15576,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -15603,18 +15611,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -15640,16 +15648,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -15675,7 +15683,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -15706,18 +15714,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -15743,16 +15751,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -15778,16 +15786,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -15814,13 +15822,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15847,13 +15855,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15880,13 +15888,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15913,13 +15921,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -15946,13 +15954,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -15979,13 +15987,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -16012,13 +16020,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -16045,13 +16053,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -16078,13 +16086,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -16111,13 +16119,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -16144,13 +16152,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -16177,13 +16185,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -16210,13 +16218,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -16357,7 +16365,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -16562,7 +16570,7 @@
     </row>
     <row r="76">
       <c r="A76" s="25" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -21048,7 +21056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -21085,25 +21093,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -21131,16 +21139,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -21166,14 +21174,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -21199,16 +21207,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -21234,16 +21242,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21269,16 +21277,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -21304,14 +21312,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21337,14 +21345,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -21370,14 +21378,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21460,17 +21468,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -21496,14 +21504,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -21529,16 +21537,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -21679,19 +21687,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -21717,16 +21725,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -21752,14 +21760,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -21871,16 +21879,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -21907,13 +21915,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -21940,13 +21948,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -22002,13 +22010,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -22035,7 +22043,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -22210,16 +22218,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -22246,7 +22254,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -22450,10 +22458,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -22484,13 +22492,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -22517,13 +22525,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -22551,7 +22559,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -22582,7 +22590,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -22613,7 +22621,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -22700,17 +22708,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -22736,14 +22744,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -22855,7 +22863,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -23060,7 +23068,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27341,7 +27349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -27378,25 +27386,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -27424,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -27457,13 +27465,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -27490,7 +27498,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27521,7 +27529,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -27552,7 +27560,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -27583,7 +27591,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -27614,13 +27622,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -27733,10 +27741,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -27767,13 +27775,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -28002,16 +28010,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -28038,13 +28046,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -28071,7 +28079,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -28217,16 +28225,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -28253,13 +28261,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -28286,7 +28294,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28317,13 +28325,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -28350,7 +28358,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -28496,7 +28504,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -28528,13 +28536,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -28561,7 +28569,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -28593,7 +28601,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -28624,7 +28632,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -28798,10 +28806,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -28832,7 +28840,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -28863,13 +28871,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -29069,17 +29077,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -29105,14 +29113,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -29311,7 +29319,7 @@
     </row>
     <row r="64">
       <c r="A64" s="27" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -33565,7 +33573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -33602,25 +33610,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -33648,13 +33656,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -33681,13 +33689,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -33714,7 +33722,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33745,13 +33753,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -33778,7 +33786,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33809,13 +33817,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -33841,16 +33849,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -33877,13 +33885,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -33910,7 +33918,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -33940,10 +33948,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -33974,7 +33982,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -34005,7 +34013,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -34036,14 +34044,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -34068,10 +34076,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34188,16 +34196,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -34224,13 +34232,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -34257,7 +34265,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -34288,14 +34296,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -34321,7 +34329,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34352,13 +34360,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -34385,7 +34393,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -34416,7 +34424,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34447,7 +34455,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34478,7 +34486,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34509,7 +34517,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -34540,7 +34548,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34600,7 +34608,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -34631,7 +34639,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -34662,7 +34670,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -34721,10 +34729,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -34755,7 +34763,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -34786,7 +34794,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -34817,13 +34825,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -34850,7 +34858,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -34881,7 +34889,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -34912,7 +34920,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -34972,7 +34980,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -35061,7 +35069,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -35120,10 +35128,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -35154,7 +35162,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -35185,7 +35193,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -35216,7 +35224,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -35247,13 +35255,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -35280,13 +35288,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -35313,7 +35321,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -35344,7 +35352,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -35375,7 +35383,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -35492,10 +35500,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -35526,7 +35534,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -35701,7 +35709,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -40043,7 +40051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -40054,7 +40062,7 @@
     <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="79.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="69.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="137.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -40080,25 +40088,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -40126,14 +40134,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -40159,13 +40167,13 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
@@ -40192,13 +40200,13 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -40223,13 +40231,17 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -40252,13 +40264,17 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -40281,21 +40297,15 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -40318,13 +40328,13 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="31"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -40347,13 +40357,13 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -40376,13 +40386,21 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="31"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -40405,8 +40423,10 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -40434,21 +40454,15 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -40471,17 +40485,13 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="31"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -40504,19 +40514,13 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="21"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -40539,15 +40543,21 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -40570,17 +40580,17 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
+      <c r="A16" s="21"/>
+      <c r="B16" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
+        <v>211</v>
       </c>
-      <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -40603,14 +40613,18 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -40636,14 +40650,12 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -40669,13 +40681,15 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -40700,15 +40714,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -40732,12 +40744,16 @@
     </row>
     <row r="21">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -40761,12 +40777,14 @@
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -40790,12 +40808,16 @@
     </row>
     <row r="23">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -40847,19 +40869,13 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -40883,14 +40899,12 @@
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -40914,12 +40928,12 @@
     </row>
     <row r="27">
       <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -40942,12 +40956,18 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -40972,7 +40992,9 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -41001,7 +41023,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -41116,13 +41138,13 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -41145,19 +41167,13 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -41181,16 +41197,12 @@
     </row>
     <row r="36">
       <c r="A36" s="7"/>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -41213,13 +41225,13 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -41242,13 +41254,19 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -41272,12 +41290,16 @@
     </row>
     <row r="39">
       <c r="A39" s="7"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -41301,7 +41323,9 @@
     </row>
     <row r="40">
       <c r="A40" s="7"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -41333,9 +41357,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -41360,7 +41384,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -41388,12 +41412,12 @@
     </row>
     <row r="43">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -41416,13 +41440,9 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="7"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -41507,13 +41527,17 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -41537,12 +41561,12 @@
     </row>
     <row r="48">
       <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -41623,15 +41647,13 @@
       <c r="AA50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -41654,13 +41676,13 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -41712,13 +41734,15 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="A54" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -41741,13 +41765,13 @@
       <c r="AA54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -41770,13 +41794,13 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -41799,13 +41823,13 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -45916,27 +45940,114 @@
       <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
     </row>
+    <row r="199">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+      <c r="Y199" s="3"/>
+      <c r="Z199" s="3"/>
+      <c r="AA199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+      <c r="Y200" s="3"/>
+      <c r="Z200" s="3"/>
+      <c r="AA200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
+      <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
+      <c r="AA201" s="3"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="8">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A51:G52"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A54:G55"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1"/>
+    <hyperlink ref="A54" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -51577,7 +51688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>

--- a/数据库类型.xlsx
+++ b/数据库类型.xlsx
@@ -30,18 +30,278 @@
   </si>
   <si>
     <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+INT1
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
+INT2</t>
+  </si>
+  <si>
+    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+  </si>
+  <si>
+    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
+INT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0
+INT8</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
+  </si>
+  <si>
+    <t>浮点数据类型</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
+    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
+  </si>
+  <si>
+    <t>定点数据类型</t>
+  </si>
+  <si>
+    <t>DECIMAL(精度,标度)</t>
+  </si>
+  <si>
+    <t>NUMBER
+REAL
+NUMERIC</t>
+  </si>
+  <si>
+    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
+  </si>
+  <si>
+    <t>DEC(精度,标度)</t>
+  </si>
+  <si>
+    <t>位数据类型</t>
+  </si>
+  <si>
+    <t>BIT(精度)</t>
+  </si>
+  <si>
+    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
+  </si>
+  <si>
+    <t>字符数据类型</t>
+  </si>
+  <si>
+    <t>CHAR(长度)</t>
+  </si>
+  <si>
+    <t>NCHAR
+CHARACTER</t>
+  </si>
+  <si>
+    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>VARCHAR(长度)</t>
+  </si>
+  <si>
+    <t>VARCHAR2
+NVARCHAR2
+BPCHAR</t>
+  </si>
+  <si>
+    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>0-255 bytes 短文本字符串</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>CLOB
+NCLOB
+ROWID
+UROWID</t>
+  </si>
+  <si>
+    <t>0-65 535 bytes 长文本数据</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	中等长度文本数据</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	极大文本数据</t>
+  </si>
+  <si>
+    <t>二进制数据类型</t>
+  </si>
+  <si>
+    <t>BINARY(长度)</t>
+  </si>
+  <si>
+    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
+  </si>
+  <si>
+    <t>VARBINARY(长度)</t>
+  </si>
+  <si>
+    <t>可变长度二进制字符串 M+1 字节</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BFILE
+RAW
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
+  </si>
+  <si>
+    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
+  </si>
+  <si>
+    <t>日期时间数据类型</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>1 bytes 1901/2155 YYYY 年份值</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE
+TIMESTAMP WITH LOCAL TIME ZONE
+INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>枚举数据类型</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
+  </si>
+  <si>
+    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
+BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
+  </si>
+  <si>
     <t>SMALLINT
 MEDIUMINT
 NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
   </si>
   <si>
     <t>INT1</t>
@@ -58,12 +318,6 @@
   <si>
     <t>BIGINT
 NUMBER&amp;&amp;columnScale==0</t>
-  </si>
-  <si>
-    <t>浮点数据类型</t>
-  </si>
-  <si>
-    <t>FLOAT4</t>
   </si>
   <si>
     <t>FLOAT8</t>
@@ -93,19 +347,6 @@
     <t>SERIAL</t>
   </si>
   <si>
-    <t>字符数据类型</t>
-  </si>
-  <si>
-    <t>CHAR(长度)</t>
-  </si>
-  <si>
-    <t>NCHAR
-CHARACTER</t>
-  </si>
-  <si>
-    <t>VARCHAR(长度)</t>
-  </si>
-  <si>
     <t>VARCHAR2
 NVARCHAR2</t>
   </si>
@@ -127,15 +368,6 @@
 LONGVARCHAR</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>二进制数据类型</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
     <t>BINARY
 VARBINARY
 TINYBLOB
@@ -149,24 +381,6 @@
   </si>
   <si>
     <t>BFILE</t>
-  </si>
-  <si>
-    <t>BINARY(长度)</t>
-  </si>
-  <si>
-    <t>VARBINARY(长度)</t>
-  </si>
-  <si>
-    <t>日期时间数据类型</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>YEAR
@@ -192,7 +406,199 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>TINYINT
+SMALLINT
+MEDIUMINT
+INT
+BIGINT
+BIT&amp;&amp;columnLength==1||columnPrecision==1
+INT1
+INT2
+INT4
+BOOL
+BOOLEAN</t>
+  </si>
+  <si>
+    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
+  </si>
+  <si>
+    <t>DOUBLE
+FLOAT4
+FLOAT8
+DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>FLOAT类型也是NUMBER的子类型。
+Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)</t>
+  </si>
+  <si>
+    <t>DECIMAL
+DEC
+REAL
+NUMERIC
+INT8</t>
+  </si>
+  <si>
+    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
+P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
+S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
+  </si>
+  <si>
+    <t>CHAR(L)</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
+  </si>
+  <si>
+    <t>NCHAR(L)</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
+  </si>
+  <si>
+    <t>VARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>VARCHAR
+BPCHAR</t>
+  </si>
+  <si>
+    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(L)</t>
+  </si>
+  <si>
+    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
+  </si>
+  <si>
+    <t>TINYTEXT
+TEXT
+MEDIUMTEXT
+LONGTEXT
+ENUM
+SET
+LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>BINARY
+VARBINARY
+TINYBLOB
+MEDIUMBLOB
+LONGBLOB</t>
+  </si>
+  <si>
+    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
+  </si>
+  <si>
+    <t>RAW(长度)</t>
+  </si>
+  <si>
+    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
+  </si>
+  <si>
+    <t>ROWID</t>
+  </si>
+  <si>
+    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
+ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
+列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
+  </si>
+  <si>
+    <t>UROWID</t>
+  </si>
+  <si>
+    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
+  </si>
+  <si>
+    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
+BYTEA
+IF NOT FOUND</t>
+  </si>
+  <si>
+    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
+  </si>
+  <si>
+    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
+  </si>
+  <si>
+    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
+  </si>
+  <si>
+    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
+  </si>
+  <si>
+    <t>TIME
+YEAR
+DATETIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DATETIME WITH TIME ZONE
+TIME WITH TIME ZONE
+TIMESTAMP WITHOUT TIME ZONE</t>
+  </si>
+  <si>
+    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR TO MONTH</t>
+  </si>
+  <si>
+    <t>INTERVAL YEAR*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY TO SECOND</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY*</t>
+  </si>
+  <si>
+    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
+  </si>
+  <si>
+    <t>其它数据类型</t>
+  </si>
+  <si>
+    <t>TINYINT(长度)</t>
+  </si>
+  <si>
+    <t>SMALLINT(长度)</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(长度)</t>
+  </si>
+  <si>
+    <t>INT(长度)</t>
+  </si>
+  <si>
+    <t>INTEGER(长度)</t>
+  </si>
+  <si>
+    <t>BIGINT(长度)</t>
   </si>
   <si>
     <t>BIT&amp;&amp;columnLength==1||columnPrecision==1</t>
@@ -201,13 +607,7 @@
     <t>有符号整数，取值范围 -128 ~ +127</t>
   </si>
   <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
     <t>有符号整数，取值范围 -32768 ~ +32767</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
   </si>
   <si>
     <t>有符号整数，取值范围 -2147483648~ +2147483647</t>
@@ -216,9 +616,6 @@
     <t>INT1
 INT2
 INT4</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
   </si>
   <si>
     <t>有符号整数，取值范围 -9223372036854775808~ +9223372036854775807</t>
@@ -248,9 +645,6 @@
     <t>范围在 -1E+37 到 +1E+37 之间，精度至少是15位小数</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>DOUBLE
 FLOAT4
 FLOAT8</t>
@@ -273,11 +667,6 @@
   </si>
   <si>
     <t>NUMBER(precision, scale)</t>
-  </si>
-  <si>
-    <t>VARCHAR2
-NVARCHAR2
-BPCHAR</t>
   </si>
   <si>
     <t>CHARACTER(长度)</t>
@@ -329,225 +718,48 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>INTERVAL DAY TO SECOND</t>
+    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
   </si>
   <si>
-    <t>INTERVAL YEAR TO MONTH</t>
+    <t>BIT(M)</t>
   </si>
   <si>
-    <t>其它数据类型</t>
+    <t>CHAR(M)</t>
   </si>
   <si>
-    <t>TINYINT(长度)</t>
+    <t>VARCHAR(M)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;3)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;3))
-INT1
-BOOL
-BOOLEAN</t>
+    <t>SET
+BPCHAR</t>
   </si>
   <si>
-    <t>1 Bytes 范围（有符号）(-128，127) 范围（无符号）(0，255) 小整数值</t>
+    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
   </si>
   <si>
-    <t>SMALLINT(长度)</t>
+    <t>CLOB(L)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;6)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;6))
-INT2</t>
+    <t>NCLOB(L)</t>
   </si>
   <si>
-    <t>2 Bytes 范围（有符号）(-32 768，32 767) 范围（无符号）(0，65 535)  大整数值</t>
+    <t>BINARY(M)</t>
   </si>
   <si>
-    <t>MEDIUMINT(长度)</t>
+    <t>VARBINARY(M)</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;9)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;9))</t>
+    <t>IF NOT FOUND</t>
   </si>
   <si>
-    <t>3 Bytes 范围（有符号）(-8 388 608，8 388 607) 范围（无符号）(0，16 777 215)  大整数值</t>
+    <t>INTERVAL YEAR TO MONTH
+INTERVAL DAY TO SECOND</t>
   </si>
   <si>
-    <t>INT(长度)</t>
+    <t>TIME WITH TIME ZONE</t>
   </si>
   <si>
-    <t>NUMBER&amp;&amp;columnScale==0&amp;&amp;((columnLength&gt;0&amp;&amp;columnLength&lt;11)||(columnPrecision&gt;0&amp;&amp;columnPrecision&lt;11))
-INT4</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-2 147 483 648，2 147 483 647) 范围（无符号）(0，4 294 967 295)  大整数值</t>
-  </si>
-  <si>
-    <t>INTEGER(长度)</t>
-  </si>
-  <si>
-    <t>BIGINT(长度)</t>
-  </si>
-  <si>
-    <t>NUMBER&amp;&amp;columnScale==0
-INT8</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-9,223,372,036,854,775,808，9 223 372 036 854 775 807) 范围（无符号）(0，18 446 744 073 709 551 615)  极大整数值</t>
-  </si>
-  <si>
-    <t>4 Bytes 范围（有符号）(-3.402 823 466 E+38，-1.175 494 351 E-38)，0，(1.175 494 351 E-38，3.402 823 466 351 E+38) 范围（无符号）0，(1.175 494 351 E-38，3.402 823 466 E+38)  单精度 浮点数值</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>8 Bytes 范围（有符号）(-1.797 693 134 862 315 7 E+308，-2.225 073 858 507 201 4 E-308)，0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)范围（无符号）0，(2.225 073 858 507 201 4 E-308，1.797 693 134 862 315 7 E+308)  双精度 浮点数值</t>
-  </si>
-  <si>
-    <t>定点数据类型</t>
-  </si>
-  <si>
-    <t>DECIMAL(精度,标度)</t>
-  </si>
-  <si>
-    <t>NUMBER
-REAL
-NUMERIC</t>
-  </si>
-  <si>
-    <t>对DECIMAL(M,D) ，如果M&gt;D，为M+2 否则为D+2 小数值</t>
-  </si>
-  <si>
-    <t>DEC(精度,标度)</t>
-  </si>
-  <si>
-    <t>位数据类型</t>
-  </si>
-  <si>
-    <t>BIT(精度)</t>
-  </si>
-  <si>
-    <t>位字段类型。M 表示每个值的位数，范围为 1～64。如果 M 被省略，默认值为 1。如果为 BIT(M) 列分配的值的长度小于 M 位，在值的左边用 0 填充。例如，为 BIT(6) 列分配一个值 b'101'，其效果与分配 b'000101' 相同</t>
-  </si>
-  <si>
-    <t>0-255 bytes 定长字符串 固定长度非二进制字符串 M 字节，1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>0-65535 bytes	变长字符串 变长非二进制字符串 L+1字节，在此，L&lt; = M和 1&lt;=M&lt;=255</t>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-  </si>
-  <si>
-    <t>0-255 bytes 短文本字符串</t>
-  </si>
-  <si>
-    <t>CLOB
-NCLOB
-ROWID
-UROWID</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 长文本数据</t>
-  </si>
-  <si>
-    <t>MEDIUMTEXT</t>
-  </si>
-  <si>
-    <t>LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	中等长度文本数据</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	极大文本数据</t>
-  </si>
-  <si>
-    <t>0-255 bytes 不超过 255 个字符的二进制字符串 固定长度二进制字符串 M 字节</t>
-  </si>
-  <si>
-    <t>可变长度二进制字符串 M+1 字节</t>
-  </si>
-  <si>
-    <t>TINYBLOB</t>
-  </si>
-  <si>
-    <t>非常小的BLOB L+1 字节，在此，L&lt;2^8</t>
-  </si>
-  <si>
-    <t>BFILE
-RAW
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>0-65 535 bytes 二进制形式的长文本数据 小 BLOB L+2 字节，在此，L&lt;2^16</t>
-  </si>
-  <si>
-    <t>MEDIUMBLOB</t>
-  </si>
-  <si>
-    <t>0-16 777 215 bytes	二进制形式的中等长度文本数据 中等大小的BLOB	L+3 字节，在此，L&lt;2^24</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>LONG RAW</t>
-  </si>
-  <si>
-    <t>0-4 294 967 295 bytes	二进制形式的极大文本数据 非常大的BLOB	L+4 字节，在此，L&lt;2^32</t>
-  </si>
-  <si>
-    <t>3 bytes 1000-01-01/9999-12-31 YYYY-MM-DD 日期值</t>
-  </si>
-  <si>
-    <t>3 bytes '-838:59:59'/'838:59:59' HH:MM:SS 时间值或持续时间</t>
-  </si>
-  <si>
-    <t>1 bytes 1901/2155 YYYY 年份值</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>8 bytes '1000-01-01 00:00:00' 到 '9999-12-31 23:59:59' YYYY-MM-DD hh:mm:ss 混合日期和时间值</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE</t>
-  </si>
-  <si>
-    <t>4 bytes '1970-01-01 00:00:01' UTC 到 '2038-01-19 03:14:07' UTC 结束时间是第 2147483647 秒，北京时间 2038-1-19 11:14:07，格林尼治时间 2038年1月19日 凌晨 03:14:07 YYYY-MM-DD hh:mm:ss 混合日期和时间值，时间戳</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH TIME ZONE
-TIMESTAMP WITH LOCAL TIME ZONE
-INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>枚举数据类型</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>枚举类型，只能有一个枚举字符串值 1或2个字节，取决于枚举值的数目 (最大值为65535)</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>一个设置，字符串对象可以有零个或 多个SET成员 1、2、3、4或8个字节，取决于集合 成员的数量（最多64个成员）</t>
+    <t>其他数据类型</t>
   </si>
   <si>
     <t>BIT</t>
@@ -673,19 +885,10 @@
     <t>TIMESTAMP/DATETIME 类型包括年、月、日、时、分、秒信息，定义了一个在'-4712-01-0100:00:00.000000'和'9999-12-31 23:59:59.999999'之间的有效格里高利日期时间。小数秒精度规定了秒字段中小数点后面的位数，取值范围为 0～6，如果未定义，缺省精度为 6</t>
   </si>
   <si>
-    <t>TIME WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIME 值，其定义是在 TIME 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：TIME '09:10:21 +8:00'</t>
   </si>
   <si>
-    <t>TIMESTAMP WITH TIME ZONE</t>
-  </si>
-  <si>
     <t>描述一个带时区的 TIMESTAMP 值，其定义是在 TIMESTAMP 类型的后面加上时区信息。时区部分的实质是 INTERVAL HOUR TO MINUTE 类型，取值范围：-12:59 与 +14:00 之间。例如：’2009-10-11 19:03:05.0000 -02:10’</t>
-  </si>
-  <si>
-    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
     <t>描述一个本地时区的 TIMESTAMP 值，能够将标准时区类型 TIMESTAMP WITH TIME ZONE 类型转化为本地时区类型，如果插入的值没有指定时区，则默认为本地时区。</t>
@@ -761,209 +964,6 @@
   </si>
   <si>
     <t>分秒间隔，即为两个日期/时间之间的分秒间隔，P 为时间间隔的首精度，Q 为时间间隔秒精度</t>
-  </si>
-  <si>
-    <t>当文本数据被插入到亲缘性为NUMERIC的字段中时，如果转换操作不会导致数据信息丢失以及完全可逆，那么SQLite就会将该文本数据转换为INTEGER或REAL类型的数据，如果转换失败，SQLite仍会以TEXT方式存储该数据。对于NULL或BLOB类型的新数据，SQLite将不做任何转换，直接以NULL或BLOB的方式存储该数据。需要额外说明的是，对于浮点格式的常量文本，如"30000.0"，如果该值可以转换为INTEGER同时又不会丢失数值信息，那么SQLite就会将其转换为INTEGER的存储方式。</t>
-  </si>
-  <si>
-    <t>BIT(M)</t>
-  </si>
-  <si>
-    <t>CHAR(M)</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>VARCHAR(M)</t>
-  </si>
-  <si>
-    <t>SET
-BPCHAR</t>
-  </si>
-  <si>
-    <t>值是一个文本字符串，使用数据库编码（UTF-8、UTF-16BE 或 UTF-16LE）存储。</t>
-  </si>
-  <si>
-    <t>NCHAR(L)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>NVARCHAR2(L)</t>
-  </si>
-  <si>
-    <t>CLOB(L)</t>
-  </si>
-  <si>
-    <t>NCLOB(L)</t>
-  </si>
-  <si>
-    <t>RAW(长度)</t>
-  </si>
-  <si>
-    <t>ROWID</t>
-  </si>
-  <si>
-    <t>UROWID</t>
-  </si>
-  <si>
-    <t>BINARY(M)</t>
-  </si>
-  <si>
-    <t>VARBINARY(M)</t>
-  </si>
-  <si>
-    <t>IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR TO MONTH
-INTERVAL DAY TO SECOND</t>
-  </si>
-  <si>
-    <t>其他数据类型</t>
-  </si>
-  <si>
-    <t>TINYINT
-SMALLINT
-MEDIUMINT
-INT
-BIGINT
-BIT&amp;&amp;columnLength==1||columnPrecision==1
-INT1
-INT2
-INT4
-BOOL
-BOOLEAN</t>
-  </si>
-  <si>
-    <t>INTEGER是NUMBER的子类型，它等同于NUMBER（38,0），用来存储整数。若插入、更新的数值有小数，则会被四舍五入</t>
-  </si>
-  <si>
-    <t>DOUBLE
-FLOAT4
-FLOAT8
-DOUBLE PRECISION</t>
-  </si>
-  <si>
-    <t>FLOAT类型也是NUMBER的子类型。
-Float(n)，数n指示位的精度，可以存储的值的数目。n值的范围可以从 1 到 126。若要从二进制转换为十进制的精度，请将n乘以 0.30103。要从十进制转换为二进制的精度，请用3.32193乘小数精度。126位二进制精度的最大值是大约相当于38位小数精度</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)</t>
-  </si>
-  <si>
-    <t>DECIMAL
-DEC
-REAL
-NUMERIC
-INT8</t>
-  </si>
-  <si>
-    <t>NUMBER(P,S)是最常见的数字类型，可以存放数据范围为10^130~10^126（不包含此值)，需要1~22字节(BYTE)不等的存储空间。
-P 是Precison的英文缩写，即精度缩写，表示有效数字的位数，最多不能超过38个有效数字。
-S是Scale的英文缩写，可以使用的范围为-84~127。Scale为正数时，表示从小数点到最低有效数字的位数，它为负数时，表示从最大有效数字到小数点的位数。</t>
-  </si>
-  <si>
-    <t>CHAR(L)</t>
-  </si>
-  <si>
-    <t>定长字符串，会用空格填充来达到其最大长度。非NULL的CHAR（12）总是包含12字节信息。CHAR字段最多可以存储2000字节的信息。如果创建表时，不指定CHAR长度，则默认为1。另外你可以指定它存储字节或字符，例如 CHAR(12 BYTYE)、CHAR(12 CHAR)。一般来说默认是存储字节</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的定长字符串。NCHAR字段最多可以存储2000字节的信息，它的最大长度取决于国家字符集</t>
-  </si>
-  <si>
-    <t>VARCHAR
-BPCHAR</t>
-  </si>
-  <si>
-    <t>变长字符串，与CHAR类型不同，它不会使用空格填充至最大长度。VARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>一个包含UNICODE格式数据的变长字符串，NVARCHAR2最多可以存储4000字节的信息</t>
-  </si>
-  <si>
-    <t>TINYTEXT
-TEXT
-MEDIUMTEXT
-LONGTEXT
-ENUM
-SET
-LONGVARCHAR</t>
-  </si>
-  <si>
-    <t>CLOB存储单字节和多字节字符数据。支持固定宽度和可变宽度的字符集。CLOB对象可以存储最多 (4 gigabytes-1) * (database block size) 大小的字符</t>
-  </si>
-  <si>
-    <t>NCLOB</t>
-  </si>
-  <si>
-    <t>BINARY
-VARBINARY
-TINYBLOB
-MEDIUMBLOB
-LONGBLOB</t>
-  </si>
-  <si>
-    <t>NCLOB存储UNICODE类型的数据，支持固定宽度和可变宽度的字符集，NCLOB对象可以存储最多(4 gigabytes-1) * (database block size)大小的文本数据</t>
-  </si>
-  <si>
-    <t>用于存储二进制或字符类型数据，变长二进制数据类型，这说明采用这种数据类型存储的数据不会发生字符集转换。这种类型最多可以存储2000字节的信息，建议使用 BLOB 来代替它</t>
-  </si>
-  <si>
-    <t>ROWID是一种特殊的列类型，称之为伪列（pseudocolumn）。ROWID伪列在SQL SELECT语句中可以像普通列那样被访问。ROWID表示行的地址，ROWID伪列用ROWID数据类型定义。Oracle数据库中每行都有一个伪列。
-ROWID与磁盘驱动的特定位置有关，因此，ROWID是获得行的最快方法。但是，行的ROWID会随着卸载和重载数据库而发生变化，因此建议不要在事务中使用ROWID伪列的值。例如，一旦当前应用已经使用完记录，就没有理由保存行的ROWID。不能通过任何SQL语句来设置标准的ROWID伪列的值。
-列或变量可以定义成ROWID数据类型，但是Oracle不能保证该列或变量的值是一个有效的ROWID</t>
-  </si>
-  <si>
-    <t>UROWID，它用于表，是行主键的一个表示，基于主键生成。UROWID与ROWID的区别就是UROWID可以表示各种ROWID，使用较安全。一般是索引组织表在使用UROWID</t>
-  </si>
-  <si>
-    <t>BIT&amp;&amp;columnLength&gt;1||columnPrecision&gt;1
-BYTEA
-IF NOT FOUND</t>
-  </si>
-  <si>
-    <t>BLOB存储非结构化的二进制数据大对象，它可以被认为是没有字符集语义的比特流，一般是图像、声音、视频等文件。BLOB对象最多存储(4 gigabytes-1) * (database block size)的二进制数据</t>
-  </si>
-  <si>
-    <t>二进制文件，存储在数据库外的系统文件，只读的，数据库会将该文件当二进制文件处理</t>
-  </si>
-  <si>
-    <t>LONG RAW类型，能存储2GB的原始二进制数据（不用进行字符集转换的数据）。建议使用BLOB来代替它</t>
-  </si>
-  <si>
-    <t>DATE是最常用的数据类型，日期数据类型存储日期和时间信息。虽然可以用字符或数字类型表示日期和时间信息，但是日期数据类型具有特殊关联的属性。为每个日期值，Oracle 存储以下信息： 世纪、 年、 月、 日期、 小时、 分钟和秒。一般占用7个字节的存储空间</t>
-  </si>
-  <si>
-    <t>TIME
-YEAR
-DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP是一个7字节或12字节的定宽日期/时间数据类型，是DATE类型的扩展类型。它与DATE数据类型不同，因为TIMESTAMP可以包含小数秒，带小数秒的TIMESTAMP在小数点右边最多可以保留9位</t>
-  </si>
-  <si>
-    <t>DATETIME WITH TIME ZONE
-TIME WITH TIME ZONE
-TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t>和TIMESTAMP一样，只不过可以在设置时候指定时区</t>
-  </si>
-  <si>
-    <t>INTERVAL YEAR*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以年和月的时间间隔</t>
-  </si>
-  <si>
-    <t>INTERVAL DAY*</t>
-  </si>
-  <si>
-    <t>记录两个DATE或TIMESTAMP之间的以天和秒的时间间隔</t>
   </si>
   <si>
     <t>整数 -2,147,483,647 至 2,147,483,647</t>
@@ -2508,7 +2508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2884,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2918,16 +2918,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2952,16 +2952,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2986,16 +2986,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3020,14 +3020,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3052,16 +3052,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3122,16 +3122,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3155,19 +3155,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3192,14 +3192,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3223,17 +3223,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3341,19 +3341,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3378,16 +3378,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3412,14 +3412,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3444,16 +3444,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3478,16 +3478,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3512,14 +3512,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3683,17 +3683,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3718,14 +3718,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3750,14 +3750,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3782,16 +3782,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3816,14 +3816,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3848,16 +3848,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3971,7 +3971,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3995,17 +3995,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4030,14 +4030,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4062,14 +4062,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4094,16 +4094,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4128,13 +4128,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -4271,17 +4271,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4306,14 +4306,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -14031,16 +14031,16 @@
     <row r="3" ht="153.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -14152,19 +14152,19 @@
     </row>
     <row r="7" ht="55.5" customHeight="true">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -14276,19 +14276,19 @@
     </row>
     <row r="11" ht="69.75" customHeight="true">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -14458,19 +14458,19 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -14496,14 +14496,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -14529,16 +14529,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -14564,14 +14564,14 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -14597,16 +14597,16 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -14632,16 +14632,16 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14667,14 +14667,14 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14729,14 +14729,14 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14762,14 +14762,14 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -14823,7 +14823,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14884,16 +14884,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -14919,14 +14919,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -14952,14 +14952,14 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -15129,17 +15129,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -15165,16 +15165,16 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -15200,16 +15200,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -15235,7 +15235,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
@@ -15267,15 +15267,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="20"/>
       <c r="F42" s="6" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -15302,15 +15302,15 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -20051,14 +20051,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -20084,16 +20084,16 @@
     <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -20119,14 +20119,14 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -20152,14 +20152,14 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -20185,16 +20185,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -20226,10 +20226,10 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -20255,16 +20255,16 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -20376,17 +20376,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -20412,18 +20412,18 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -20449,18 +20449,18 @@
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -20486,14 +20486,14 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -20692,21 +20692,21 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -20732,18 +20732,18 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -20769,20 +20769,20 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -20808,18 +20808,18 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -20989,21 +20989,21 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -21029,16 +21029,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -21064,18 +21064,18 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -21101,14 +21101,14 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="4" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -21135,13 +21135,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -21167,16 +21167,16 @@
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -21230,19 +21230,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -21268,14 +21268,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -21301,16 +21301,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -21336,16 +21336,16 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -21428,17 +21428,17 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="4" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -21464,16 +21464,16 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="4" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -21499,18 +21499,18 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -21536,16 +21536,16 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -21571,7 +21571,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -21602,18 +21602,18 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -21639,16 +21639,16 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -21674,16 +21674,16 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="4" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -21710,13 +21710,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -21743,13 +21743,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -21776,13 +21776,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="4" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -21809,13 +21809,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -21842,13 +21842,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -21875,13 +21875,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -21908,13 +21908,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="4" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -21941,13 +21941,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -21974,13 +21974,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="4" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -22007,13 +22007,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="4" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="4" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -22040,13 +22040,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="4" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -22073,13 +22073,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="4" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -22106,13 +22106,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="4" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -22253,7 +22253,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -27033,10 +27033,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -27062,14 +27062,14 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -27095,16 +27095,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -27130,16 +27130,16 @@
     <row r="5" ht="42.0" customHeight="true">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -27165,16 +27165,16 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -27200,14 +27200,14 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -27233,14 +27233,14 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -27266,14 +27266,14 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -27356,17 +27356,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -27392,14 +27392,14 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -27425,16 +27425,16 @@
     <row r="14" ht="42.0" customHeight="true">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -27575,19 +27575,19 @@
     </row>
     <row r="19" ht="181.5" customHeight="true">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -27613,16 +27613,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -27648,14 +27648,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -27767,16 +27767,16 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="3"/>
@@ -27803,13 +27803,13 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -27836,13 +27836,13 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
@@ -27898,13 +27898,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
@@ -27931,7 +27931,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -28106,16 +28106,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
@@ -28142,7 +28142,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -28346,10 +28346,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -28380,13 +28380,13 @@
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
@@ -28413,13 +28413,13 @@
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
@@ -28447,7 +28447,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -28478,7 +28478,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -28509,7 +28509,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -28596,17 +28596,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -28632,14 +28632,14 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -28751,7 +28751,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -33326,7 +33326,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="3"/>
@@ -33353,13 +33353,13 @@
     <row r="3" ht="42.0" customHeight="true">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -33386,7 +33386,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -33417,7 +33417,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -33448,7 +33448,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33479,7 +33479,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -33510,13 +33510,13 @@
     <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -33629,10 +33629,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -33663,13 +33663,13 @@
     <row r="13" ht="42.0" customHeight="true">
       <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
@@ -33898,16 +33898,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -33934,13 +33934,13 @@
     <row r="22" ht="27.75" customHeight="true">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -33967,7 +33967,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -34113,16 +34113,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
@@ -34149,13 +34149,13 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
@@ -34182,7 +34182,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -34213,13 +34213,13 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="24" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="24"/>
       <c r="F31" s="26" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
@@ -34246,7 +34246,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -34392,7 +34392,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -34424,13 +34424,13 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
@@ -34457,7 +34457,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -34489,7 +34489,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -34520,7 +34520,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -34694,10 +34694,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -34728,7 +34728,7 @@
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
@@ -34759,13 +34759,13 @@
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
@@ -34965,17 +34965,17 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -35001,14 +35001,14 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -39544,13 +39544,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -39577,13 +39577,13 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -39610,7 +39610,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -39641,13 +39641,13 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -39674,7 +39674,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -39705,13 +39705,13 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -39737,16 +39737,16 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
@@ -39773,13 +39773,13 @@
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -39806,7 +39806,7 @@
     <row r="10">
       <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39836,10 +39836,10 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39870,7 +39870,7 @@
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -39901,7 +39901,7 @@
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -39932,14 +39932,14 @@
     <row r="14">
       <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -39964,10 +39964,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -40084,16 +40084,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -40120,13 +40120,13 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -40153,7 +40153,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -40184,14 +40184,14 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -40217,7 +40217,7 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -40248,13 +40248,13 @@
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -40281,7 +40281,7 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -40312,7 +40312,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -40343,7 +40343,7 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -40374,7 +40374,7 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -40405,7 +40405,7 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -40436,7 +40436,7 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -40496,7 +40496,7 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -40527,7 +40527,7 @@
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -40558,7 +40558,7 @@
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="10" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -40617,10 +40617,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -40651,7 +40651,7 @@
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -40682,7 +40682,7 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -40713,13 +40713,13 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
@@ -40746,7 +40746,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -40777,7 +40777,7 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -40808,7 +40808,7 @@
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -40868,7 +40868,7 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -40957,7 +40957,7 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -41016,10 +41016,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -41050,7 +41050,7 @@
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -41081,7 +41081,7 @@
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
@@ -41112,7 +41112,7 @@
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -41143,13 +41143,13 @@
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
@@ -41176,13 +41176,13 @@
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
@@ -41209,7 +41209,7 @@
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
@@ -41240,7 +41240,7 @@
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
@@ -41271,7 +41271,7 @@
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
@@ -41388,10 +41388,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -41422,7 +41422,7 @@
     <row r="62">
       <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -46022,7 +46022,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -46055,7 +46055,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -46088,7 +46088,7 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -46121,7 +46121,7 @@
     <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -46187,7 +46187,7 @@
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -46275,16 +46275,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>270</v>
@@ -46344,7 +46344,7 @@
     <row r="12">
       <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -46432,7 +46432,7 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>272</v>
@@ -46502,16 +46502,16 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
@@ -46569,7 +46569,7 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -46666,7 +46666,7 @@
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -46697,13 +46697,13 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="3"/>
@@ -46845,16 +46845,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
@@ -47143,10 +47143,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -47179,7 +47179,7 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
@@ -47212,7 +47212,7 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -47416,10 +47416,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -52016,16 +52016,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -52050,16 +52050,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -52084,16 +52084,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -52118,16 +52118,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -52152,14 +52152,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -52184,16 +52184,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -52217,19 +52217,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -52254,16 +52254,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -52287,19 +52287,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -52324,14 +52324,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -52355,17 +52355,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -52473,19 +52473,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -52510,16 +52510,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -52544,14 +52544,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -52576,16 +52576,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -52610,16 +52610,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -52644,14 +52644,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -52815,17 +52815,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -52850,14 +52850,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -52882,14 +52882,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -52914,16 +52914,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -52948,14 +52948,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -52980,16 +52980,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -53103,7 +53103,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -53127,17 +53127,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -53162,14 +53162,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -53194,14 +53194,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -53226,16 +53226,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -53260,13 +53260,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
@@ -53403,17 +53403,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -53438,14 +53438,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -57491,16 +57491,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57525,16 +57525,16 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57559,16 +57559,16 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57593,16 +57593,16 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57627,14 +57627,14 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
@@ -57659,16 +57659,16 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -57692,19 +57692,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
@@ -57729,16 +57729,16 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
@@ -57762,19 +57762,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
@@ -57799,14 +57799,14 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -57830,17 +57830,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
@@ -57948,19 +57948,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
@@ -57985,16 +57985,16 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
@@ -58019,14 +58019,14 @@
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -58051,16 +58051,16 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -58085,16 +58085,16 @@
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -58119,14 +58119,14 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -58290,17 +58290,17 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
@@ -58325,14 +58325,14 @@
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -58357,14 +58357,14 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -58389,16 +58389,16 @@
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
@@ -58423,14 +58423,14 @@
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
@@ -58455,16 +58455,16 @@
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
@@ -58578,7 +58578,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -58602,17 +58602,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
@@ -58637,14 +58637,14 @@
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -58669,14 +58669,14 @@
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -58701,16 +58701,16 @@
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -58735,13 +58735,13 @@
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
@@ -58878,17 +58878,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="4" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
@@ -58913,14 +58913,14 @@
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
